--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -1,43 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="17028" windowHeight="7944"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="suppliers" sheetId="1" r:id="rId1"/>
-    <sheet name="own business" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="suppliers" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="own business" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A1:BT25"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19439" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20139" uniqueCount="409">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Supplier Name (mandatory)</t>
     </r>
@@ -46,20 +26,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Countries Of Operation (recommended)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. DE, US</t>
@@ -69,20 +43,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Products Or Services (recommended)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. PS_0013</t>
@@ -92,20 +60,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Spend Volume (recommended)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. 1000</t>
@@ -115,20 +77,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Spend Volume Currency (recommended)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. EUR</t>
@@ -138,10 +94,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Contact Email (recommended)</t>
     </r>
@@ -150,10 +103,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Business Website (optional)</t>
     </r>
@@ -162,10 +112,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Linkedin Profile (optional)</t>
     </r>
@@ -174,10 +121,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Contact Name (optional)</t>
     </r>
@@ -186,10 +130,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Internal ID (optional)</t>
     </r>
@@ -198,10 +139,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>DUNS Number (optional)</t>
     </r>
@@ -210,10 +148,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Refinitiv Perm ID (optional)</t>
     </r>
@@ -222,10 +157,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Perm ID URL (optional)</t>
     </r>
@@ -234,10 +166,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Legal Entity Type (optional)</t>
     </r>
@@ -246,10 +175,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Legal Entity Name (optional)</t>
     </r>
@@ -258,20 +184,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Country Of Tax Registration (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. DE</t>
@@ -281,10 +201,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Tax ID (optional)</t>
     </r>
@@ -293,10 +210,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>VAT ID (optional)</t>
     </r>
@@ -305,20 +219,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>HQ Country (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. DE</t>
@@ -328,10 +236,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>HQ Address Line 1 (optional)</t>
     </r>
@@ -340,10 +245,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>HQ Address Line 2 (optional)</t>
     </r>
@@ -352,10 +254,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>HQ Zip-Code (optional)</t>
     </r>
@@ -364,20 +263,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>HQ City (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. Berlin</t>
@@ -387,20 +280,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Type Of Business (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. Private</t>
@@ -410,20 +297,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Blacklist Status (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. Previously Blacklisted</t>
@@ -433,10 +314,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Phone Number (optional)</t>
     </r>
@@ -445,20 +323,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Nace Code (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. A1.1.1 - Growing of cereals (except rice), leguminous crops and oil seeds</t>
@@ -468,10 +340,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Category (optional)</t>
     </r>
@@ -480,20 +349,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Is Active (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. yes</t>
@@ -503,10 +366,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Supplier Level (optional)</t>
     </r>
@@ -515,10 +375,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>ERP ID (optional)</t>
     </r>
@@ -527,10 +384,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>SRM ID (optional)</t>
     </r>
@@ -539,10 +393,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Supply Chain Tier (optional)</t>
     </r>
@@ -551,10 +402,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Certifications (optional)</t>
     </r>
@@ -563,10 +411,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Factory Locations (optional)</t>
     </r>
@@ -575,10 +420,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Catena-X ID (optional)</t>
     </r>
@@ -587,10 +429,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Description (optional)</t>
     </r>
@@ -599,20 +438,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Code of Conduct-Agreement (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. missing</t>
@@ -622,20 +455,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self assessment request status (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. requested</t>
@@ -645,20 +472,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self assessment risk (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. High</t>
@@ -668,20 +489,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Own Business Entity (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 please type the exact entity name used in the organizational structure in Daato. You can refer to masterentity sheet</t>
@@ -691,20 +506,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Relationship manager’s email (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. 123@gmail.com</t>
@@ -714,20 +523,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Daato ID (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 You can use this column when updating supplier data</t>
@@ -737,20 +540,14 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Marked as Safe (optional)</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="808080"/>
       </rPr>
       <t xml:space="preserve">
 i.e. FALSE</t>
@@ -760,10 +557,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Justification for overwriting risk level ()</t>
     </r>
@@ -772,10 +566,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Type ()</t>
     </r>
@@ -784,10 +575,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Priority ()</t>
     </r>
@@ -796,10 +584,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Abstract Risk Assessment ()</t>
     </r>
@@ -808,10 +593,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self Assessment Status ()</t>
     </r>
@@ -820,10 +602,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Influence ()</t>
     </r>
@@ -832,10 +611,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Causality ()</t>
     </r>
@@ -844,10 +620,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Child Labor ()</t>
     </r>
@@ -856,10 +629,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Forced Labor ()</t>
     </r>
@@ -868,10 +638,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Health and Safety at Work ()</t>
     </r>
@@ -880,10 +647,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Freedom of Association ()</t>
     </r>
@@ -892,10 +656,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Equality in Employment ()</t>
     </r>
@@ -904,10 +665,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Fair Wages ()</t>
     </r>
@@ -916,10 +674,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Land Rights ()</t>
     </r>
@@ -928,10 +683,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Conflicts and Security ()</t>
     </r>
@@ -940,10 +692,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Systematic or Widespread Human Rights Abuses ()</t>
     </r>
@@ -952,10 +701,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Risk Level: Environmental Performance ()</t>
     </r>
@@ -964,10 +710,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment overall result ()</t>
     </r>
@@ -976,10 +719,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Child Labor ()</t>
     </r>
@@ -988,10 +728,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Forced Labor ()</t>
     </r>
@@ -1000,10 +737,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Health and Safety at Work ()</t>
     </r>
@@ -1012,10 +746,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Freedom of Association ()</t>
     </r>
@@ -1024,10 +755,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Equality in Employment ()</t>
     </r>
@@ -1036,10 +764,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Fair Wages ()</t>
     </r>
@@ -1048,10 +773,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Land Rights ()</t>
     </r>
@@ -1060,10 +782,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Conflicts and Security ()</t>
     </r>
@@ -1072,10 +791,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Systematic or Widespread Human Rights Abuses ()</t>
     </r>
@@ -1084,10 +800,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <color rgb="000000"/>
       </rPr>
       <t>Self-assessment: Environmental Performance ()</t>
     </r>
@@ -1454,6 +1167,39 @@
   </si>
   <si>
     <t>6809f0ef983bed769dee8dd7</t>
+  </si>
+  <si>
+    <t>Automationbulksupplier01</t>
+  </si>
+  <si>
+    <t>680b25dd983bed769def2395</t>
+  </si>
+  <si>
+    <t>680b25df983bed769def23aa</t>
+  </si>
+  <si>
+    <t>680b25e1983bed769def23bf</t>
+  </si>
+  <si>
+    <t>680b25e3983bed769def23d4</t>
+  </si>
+  <si>
+    <t>680b25e5983bed769def23e9</t>
+  </si>
+  <si>
+    <t>680b25e7983bed769def23fe</t>
+  </si>
+  <si>
+    <t>680b25e9983bed769def2413</t>
+  </si>
+  <si>
+    <t>680b25eb983bed769def2428</t>
+  </si>
+  <si>
+    <t>680b25ed983bed769def243d</t>
+  </si>
+  <si>
+    <t>680b25ef983bed769def2452</t>
   </si>
   <si>
     <t>Level 1 ESRS</t>
@@ -2074,382 +1820,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2457,251 +1846,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2709,61 +1856,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3085,26 +2188,19 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BT25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BT35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="36.6666666666667" customWidth="1"/>
-    <col min="7" max="72" width="20" customWidth="1"/>
+    <col min="1" max="72" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" spans="1:72">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +2418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3540,7 +2636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3758,7 +2854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -3976,7 +3072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -4194,7 +3290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4412,7 +3508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -4630,7 +3726,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4848,7 +3944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -5066,7 +4162,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -5284,7 +4380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -5502,7 +4598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5720,7 +4816,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -5938,7 +5034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -6156,7 +5252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -6374,7 +5470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -6592,7 +5688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:72">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -6810,7 +5906,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:72">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -7028,7 +6124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:72">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -7246,7 +6342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:72">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -7464,7 +6560,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:72">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -7682,7 +6778,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:72">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -7900,7 +6996,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:72">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -8118,7 +7214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:72">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -8336,7 +7432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:72">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -8551,31 +7647,2204 @@
         <v>77</v>
       </c>
       <c r="BT25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" t="s">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" t="s">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" t="s">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" t="s">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT35" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT249"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="72" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" spans="1:72">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8793,9 +10062,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -8930,7 +10199,7 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU2" t="s">
         <v>135</v>
@@ -9011,9 +10280,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -9148,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -9229,9 +10498,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -9366,7 +10635,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -9447,15 +10716,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -9584,7 +10853,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU5" t="s">
         <v>89</v>
@@ -9665,9 +10934,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -9802,7 +11071,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -9883,9 +11152,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -10020,7 +11289,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -10101,9 +11370,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -10238,7 +11507,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -10319,9 +11588,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -10456,7 +11725,7 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU9" t="s">
         <v>135</v>
@@ -10537,9 +11806,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -10674,7 +11943,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -10755,9 +12024,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -10892,7 +12161,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -10973,9 +12242,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -11110,7 +12379,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -11191,9 +12460,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -11328,7 +12597,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -11409,9 +12678,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -11546,7 +12815,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -11627,9 +12896,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -11764,7 +13033,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -11845,9 +13114,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11982,7 +13251,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -12063,9 +13332,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:72">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -12200,7 +13469,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -12281,9 +13550,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:72">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -12418,7 +13687,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -12499,9 +13768,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:72">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -12636,7 +13905,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -12717,9 +13986,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:72">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -12854,7 +14123,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -12935,9 +14204,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:72">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -13072,7 +14341,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -13153,15 +14422,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:72">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -13290,7 +14559,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU22" t="s">
         <v>89</v>
@@ -13371,9 +14640,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:72">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13508,7 +14777,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -13589,9 +14858,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:72">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -13726,7 +14995,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -13807,9 +15076,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:72">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13944,7 +15213,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -14025,9 +15294,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:72">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -14162,7 +15431,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -14243,9 +15512,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:72">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -14380,7 +15649,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -14461,9 +15730,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:72">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14598,7 +15867,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -14679,9 +15948,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:72">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -14816,7 +16085,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -14897,9 +16166,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:72">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -15034,7 +16303,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -15115,9 +16384,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:72">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -15252,7 +16521,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -15333,9 +16602,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:72">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -15470,7 +16739,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -15551,9 +16820,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:72">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -15688,7 +16957,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -15769,9 +17038,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:72">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -15906,7 +17175,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -15987,9 +17256,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:72">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -16124,7 +17393,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -16205,9 +17474,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:72">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -16342,7 +17611,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -16423,9 +17692,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:72">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -16560,7 +17829,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -16641,9 +17910,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:72">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -16778,7 +18047,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -16859,9 +18128,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:72">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -16996,7 +18265,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -17077,9 +18346,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:72">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -17214,7 +18483,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -17295,9 +18564,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:72">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -17432,7 +18701,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -17513,9 +18782,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:72">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -17650,7 +18919,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -17731,9 +19000,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:72">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -17868,7 +19137,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -17949,9 +19218,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:72">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -18086,7 +19355,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -18167,9 +19436,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:72">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -18304,7 +19573,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -18385,9 +19654,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:72">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -18522,7 +19791,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -18603,9 +19872,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:72">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -18740,7 +20009,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -18821,9 +20090,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:72">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -18958,7 +20227,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -19039,9 +20308,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:72">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -19176,7 +20445,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -19257,9 +20526,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:72">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -19394,7 +20663,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -19475,9 +20744,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:72">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -19612,7 +20881,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -19693,9 +20962,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:72">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -19830,7 +21099,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -19911,9 +21180,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:72">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -20048,7 +21317,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -20129,9 +21398,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:72">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -20266,7 +21535,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -20347,9 +21616,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:72">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -20484,7 +21753,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -20565,9 +21834,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:72">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -20702,7 +21971,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -20783,7 +22052,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:72">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -20920,7 +22189,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -21001,9 +22270,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:72">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -21138,7 +22407,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -21219,9 +22488,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:72">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -21356,7 +22625,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -21437,9 +22706,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:72">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -21574,7 +22843,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -21655,9 +22924,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:72">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -21792,7 +23061,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -21873,9 +23142,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:72">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -22010,7 +23279,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -22091,9 +23360,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:72">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -22228,7 +23497,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -22309,9 +23578,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:72">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -22446,7 +23715,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -22527,9 +23796,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:72">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -22664,7 +23933,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -22745,9 +24014,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:72">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -22882,7 +24151,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -22963,9 +24232,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:72">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -23100,7 +24369,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -23181,9 +24450,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:72">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -23318,7 +24587,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -23399,9 +24668,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:72">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -23536,7 +24805,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -23617,9 +24886,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:72">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -23754,7 +25023,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -23835,9 +25104,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:72">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -23972,7 +25241,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -24053,9 +25322,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:72">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -24190,7 +25459,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -24271,9 +25540,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:72">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -24408,7 +25677,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -24489,9 +25758,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:72">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -24626,7 +25895,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -24707,9 +25976,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:72">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -24844,7 +26113,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -24925,9 +26194,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:72">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -25062,7 +26331,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -25143,9 +26412,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:72">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -25280,7 +26549,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -25361,9 +26630,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:72">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -25498,7 +26767,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -25579,7 +26848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:72">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -25716,7 +26985,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -25797,9 +27066,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:72">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -25934,7 +27203,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -26015,9 +27284,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:72">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -26152,7 +27421,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -26233,9 +27502,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:72">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -26370,7 +27639,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -26451,9 +27720,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:72">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -26588,7 +27857,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -26669,9 +27938,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:72">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -26806,7 +28075,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -26887,9 +28156,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:72">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -27024,7 +28293,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -27105,9 +28374,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:72">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -27242,7 +28511,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -27323,9 +28592,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:72">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -27460,7 +28729,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -27541,9 +28810,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:72">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -27678,7 +28947,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -27759,9 +29028,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:72">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -27896,7 +29165,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -27977,9 +29246,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:72">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -28114,7 +29383,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -28195,9 +29464,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:72">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -28332,7 +29601,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -28413,9 +29682,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:72">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -28550,7 +29819,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -28631,9 +29900,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:72">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -28768,7 +30037,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -28849,9 +30118,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:72">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -28986,7 +30255,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -29067,9 +30336,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:72">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -29204,7 +30473,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -29285,9 +30554,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:72">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -29422,7 +30691,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -29503,9 +30772,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:72">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -29640,7 +30909,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -29721,9 +30990,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:72">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -29858,7 +31127,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -29939,9 +31208,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:72">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -30076,7 +31345,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -30157,9 +31426,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:72">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -30294,7 +31563,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -30375,9 +31644,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:72">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -30512,7 +31781,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -30593,9 +31862,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:72">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -30730,7 +31999,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -30811,9 +32080,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:72">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -30948,7 +32217,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -31029,9 +32298,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:72">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -31166,7 +32435,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -31247,9 +32516,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:72">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -31384,7 +32653,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -31465,9 +32734,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:72">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -31602,7 +32871,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -31683,9 +32952,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:72">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -31820,7 +33089,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -31901,9 +33170,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:72">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -32038,7 +33307,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -32119,9 +33388,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:72">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -32256,7 +33525,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -32337,9 +33606,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:72">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -32474,7 +33743,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -32555,9 +33824,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:72">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -32692,7 +33961,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -32773,9 +34042,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:72">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -32910,7 +34179,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -32991,9 +34260,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:72">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -33128,7 +34397,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -33209,7 +34478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:72">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -33346,7 +34615,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -33427,9 +34696,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:72">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -33564,7 +34833,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -33645,9 +34914,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:72">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -33782,7 +35051,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -33863,9 +35132,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:72">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -34000,7 +35269,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -34081,9 +35350,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:72">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -34218,7 +35487,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -34299,9 +35568,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:72">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -34436,7 +35705,7 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU119" t="s">
         <v>135</v>
@@ -34445,7 +35714,7 @@
         <v>135</v>
       </c>
       <c r="AW119" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AX119" t="s">
         <v>77</v>
@@ -34517,9 +35786,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:72">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -34654,7 +35923,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -34735,9 +36004,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:72">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -34872,7 +36141,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -34953,9 +36222,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:72">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -35090,7 +36359,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -35171,9 +36440,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:72">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -35308,7 +36577,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -35389,9 +36658,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:72">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -35526,7 +36795,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -35607,9 +36876,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:72">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -35744,7 +37013,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -35825,9 +37094,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:72">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -35962,7 +37231,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -36043,9 +37312,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:72">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -36180,7 +37449,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -36261,9 +37530,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:72">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -36398,7 +37667,7 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU128" t="s">
         <v>135</v>
@@ -36479,9 +37748,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:72">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -36616,7 +37885,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -36697,9 +37966,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:72">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -36834,7 +38103,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -36915,9 +38184,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:72">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -37052,7 +38321,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -37133,9 +38402,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:72">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -37270,7 +38539,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -37351,9 +38620,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:72">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -37488,7 +38757,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -37569,9 +38838,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:72">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -37706,7 +38975,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -37787,9 +39056,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:72">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -37924,7 +39193,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -38005,9 +39274,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:72">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -38142,7 +39411,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -38223,9 +39492,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:72">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -38360,7 +39629,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -38441,9 +39710,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:72">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -38578,7 +39847,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -38659,9 +39928,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:72">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -38796,7 +40065,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -38877,9 +40146,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:72">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -39014,7 +40283,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -39095,9 +40364,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="141" spans="1:72">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -39232,7 +40501,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -39313,9 +40582,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:72">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -39450,7 +40719,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -39531,9 +40800,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:72">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -39668,7 +40937,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -39749,9 +41018,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:72">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -39886,7 +41155,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -39967,9 +41236,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:72">
+    <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -40104,7 +41373,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -40185,9 +41454,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:72">
+    <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -40322,7 +41591,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -40403,9 +41672,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:72">
+    <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -40540,7 +41809,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -40621,9 +41890,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:72">
+    <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -40758,7 +42027,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -40839,9 +42108,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:72">
+    <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -40976,7 +42245,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -41057,7 +42326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:72">
+    <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -41194,7 +42463,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -41275,9 +42544,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:72">
+    <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -41412,7 +42681,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -41493,9 +42762,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:72">
+    <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -41630,7 +42899,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -41711,9 +42980,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:72">
+    <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -41848,7 +43117,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -41929,9 +43198,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:72">
+    <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -42066,7 +43335,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -42147,9 +43416,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:72">
+    <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -42284,7 +43553,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -42365,9 +43634,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:72">
+    <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -42502,7 +43771,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -42583,9 +43852,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:72">
+    <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -42720,7 +43989,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -42801,9 +44070,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:72">
+    <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -42938,7 +44207,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -43019,9 +44288,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:72">
+    <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -43156,7 +44425,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -43237,9 +44506,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:72">
+    <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -43374,7 +44643,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -43455,9 +44724,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:72">
+    <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -43592,7 +44861,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -43673,9 +44942,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:72">
+    <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -43810,7 +45079,7 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU162" t="s">
         <v>135</v>
@@ -43891,9 +45160,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:72">
+    <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -44028,7 +45297,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -44109,9 +45378,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:72">
+    <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -44246,7 +45515,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -44327,9 +45596,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:72">
+    <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -44464,7 +45733,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -44545,9 +45814,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="1:72">
+    <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -44682,7 +45951,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -44763,9 +46032,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:72">
+    <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -44900,7 +46169,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -44981,9 +46250,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:72">
+    <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -45118,7 +46387,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -45199,15 +46468,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:72">
+    <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -45336,7 +46605,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU169" t="s">
         <v>89</v>
@@ -45417,15 +46686,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:72">
+    <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -45554,7 +46823,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU170" t="s">
         <v>91</v>
@@ -45635,9 +46904,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="1:72">
+    <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -45772,7 +47041,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -45853,9 +47122,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:72">
+    <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -45990,7 +47259,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -46071,9 +47340,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:72">
+    <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -46208,7 +47477,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -46289,9 +47558,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:72">
+    <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -46426,7 +47695,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -46507,9 +47776,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:72">
+    <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -46644,7 +47913,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -46725,9 +47994,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:72">
+    <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -46862,7 +48131,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -46943,9 +48212,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:72">
+    <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -47080,7 +48349,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -47161,9 +48430,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:72">
+    <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -47298,7 +48567,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -47379,9 +48648,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:72">
+    <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -47516,7 +48785,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -47597,9 +48866,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:72">
+    <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -47734,7 +49003,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -47815,9 +49084,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:72">
+    <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -47952,7 +49221,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -48033,9 +49302,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:72">
+    <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -48170,7 +49439,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -48251,9 +49520,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:72">
+    <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -48388,7 +49657,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -48469,9 +49738,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:72">
+    <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -48606,7 +49875,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -48687,9 +49956,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:72">
+    <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -48824,7 +50093,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -48905,9 +50174,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:72">
+    <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -49042,7 +50311,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -49123,9 +50392,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:72">
+    <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -49260,7 +50529,7 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU187" t="s">
         <v>77</v>
@@ -49269,7 +50538,7 @@
         <v>77</v>
       </c>
       <c r="AW187" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AX187" t="s">
         <v>77</v>
@@ -49341,9 +50610,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:72">
+    <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -49478,7 +50747,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -49559,9 +50828,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:72">
+    <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -49696,7 +50965,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -49777,9 +51046,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:72">
+    <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -49914,7 +51183,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -49995,9 +51264,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:72">
+    <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -50132,7 +51401,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -50213,9 +51482,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:72">
+    <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -50350,7 +51619,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -50431,9 +51700,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:72">
+    <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -50568,7 +51837,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -50649,9 +51918,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:72">
+    <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -50786,7 +52055,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -50867,9 +52136,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:72">
+    <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -51004,7 +52273,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -51085,9 +52354,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:72">
+    <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -51222,7 +52491,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU196" t="s">
         <v>91</v>
@@ -51303,9 +52572,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="197" spans="1:72">
+    <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -51440,7 +52709,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -51521,9 +52790,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:72">
+    <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -51658,7 +52927,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -51739,9 +53008,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:72">
+    <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -51876,7 +53145,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -51957,9 +53226,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:72">
+    <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -52094,7 +53363,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -52175,9 +53444,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:72">
+    <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -52312,7 +53581,7 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU201" t="s">
         <v>135</v>
@@ -52321,7 +53590,7 @@
         <v>135</v>
       </c>
       <c r="AW201" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AX201" t="s">
         <v>77</v>
@@ -52393,7 +53662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" spans="1:72">
+    <row r="202" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>84</v>
       </c>
@@ -52530,7 +53799,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU202" t="s">
         <v>89</v>
@@ -52539,7 +53808,7 @@
         <v>89</v>
       </c>
       <c r="AW202" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -52611,9 +53880,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:72">
+    <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -52748,7 +54017,7 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU203" t="s">
         <v>135</v>
@@ -52757,7 +54026,7 @@
         <v>135</v>
       </c>
       <c r="AW203" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AX203" t="s">
         <v>77</v>
@@ -52829,9 +54098,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:72">
+    <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -52966,7 +54235,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -53047,9 +54316,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:72">
+    <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -53184,7 +54453,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -53265,9 +54534,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:72">
+    <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -53402,7 +54671,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -53483,9 +54752,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:72">
+    <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -53620,7 +54889,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -53701,9 +54970,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="1:72">
+    <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -53838,7 +55107,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -53919,9 +55188,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:72">
+    <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -54056,7 +55325,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -54137,15 +55406,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:72">
+    <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -54274,7 +55543,7 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU210" t="s">
         <v>135</v>
@@ -54355,9 +55624,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:72">
+    <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -54492,7 +55761,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -54573,9 +55842,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="212" spans="1:72">
+    <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -54710,7 +55979,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -54791,9 +56060,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:72">
+    <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -54928,7 +56197,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -55009,9 +56278,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:72">
+    <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -55146,7 +56415,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -55227,9 +56496,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:72">
+    <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -55364,7 +56633,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -55445,9 +56714,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:72">
+    <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -55582,7 +56851,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -55663,9 +56932,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:72">
+    <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -55800,7 +57069,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -55881,9 +57150,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="1:72">
+    <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -56018,7 +57287,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -56099,9 +57368,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:72">
+    <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -56236,7 +57505,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -56317,9 +57586,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:72">
+    <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -56454,7 +57723,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -56535,9 +57804,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:72">
+    <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -56672,7 +57941,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -56753,9 +58022,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:72">
+    <row r="222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B222" t="s">
         <v>77</v>
@@ -56890,7 +58159,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -56971,9 +58240,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:72">
+    <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -57108,7 +58377,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -57189,9 +58458,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:72">
+    <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -57326,7 +58595,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -57407,9 +58676,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:72">
+    <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -57544,7 +58813,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -57625,9 +58894,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:72">
+    <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -57762,7 +59031,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -57843,9 +59112,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:72">
+    <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -57980,7 +59249,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -58061,9 +59330,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:72">
+    <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -58198,7 +59467,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -58279,9 +59548,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:72">
+    <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -58416,7 +59685,7 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU229" t="s">
         <v>135</v>
@@ -58497,9 +59766,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:72">
+    <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -58634,7 +59903,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -58715,9 +59984,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:72">
+    <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -58852,7 +60121,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -58933,9 +60202,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="232" spans="1:72">
+    <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -59070,7 +60339,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -59151,9 +60420,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:72">
+    <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -59288,7 +60557,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -59369,9 +60638,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:72">
+    <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -59506,7 +60775,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -59587,9 +60856,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:72">
+    <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -59724,7 +60993,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -59805,9 +61074,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:72">
+    <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -59942,7 +61211,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -60023,9 +61292,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:72">
+    <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -60160,7 +61429,7 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU237" t="s">
         <v>135</v>
@@ -60241,9 +61510,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:72">
+    <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -60378,7 +61647,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -60459,9 +61728,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:72">
+    <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -60596,7 +61865,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -60677,9 +61946,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:72">
+    <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -60814,7 +62083,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -60895,9 +62164,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:72">
+    <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -61032,7 +62301,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -61113,9 +62382,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:72">
+    <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -61250,7 +62519,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -61331,9 +62600,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:72">
+    <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -61468,7 +62737,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -61549,9 +62818,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:72">
+    <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -61686,7 +62955,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -61767,9 +63036,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:72">
+    <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -61904,7 +63173,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -61985,9 +63254,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:72">
+    <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -62122,7 +63391,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -62203,9 +63472,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:72">
+    <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -62340,7 +63609,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -62421,9 +63690,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:72">
+    <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -62558,7 +63827,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -62639,9 +63908,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:72">
+    <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -62776,7 +64045,7 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AU249" t="s">
         <v>135</v>
@@ -62859,7 +64128,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20139" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19439" uniqueCount="398">
   <si>
     <r>
       <rPr>
@@ -1169,39 +1169,6 @@
     <t>6809f0ef983bed769dee8dd7</t>
   </si>
   <si>
-    <t>Automationbulksupplier01</t>
-  </si>
-  <si>
-    <t>680b25dd983bed769def2395</t>
-  </si>
-  <si>
-    <t>680b25df983bed769def23aa</t>
-  </si>
-  <si>
-    <t>680b25e1983bed769def23bf</t>
-  </si>
-  <si>
-    <t>680b25e3983bed769def23d4</t>
-  </si>
-  <si>
-    <t>680b25e5983bed769def23e9</t>
-  </si>
-  <si>
-    <t>680b25e7983bed769def23fe</t>
-  </si>
-  <si>
-    <t>680b25e9983bed769def2413</t>
-  </si>
-  <si>
-    <t>680b25eb983bed769def2428</t>
-  </si>
-  <si>
-    <t>680b25ed983bed769def243d</t>
-  </si>
-  <si>
-    <t>680b25ef983bed769def2452</t>
-  </si>
-  <si>
     <t>Level 1 ESRS</t>
   </si>
   <si>
@@ -2194,7 +2161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT35"/>
+  <dimension ref="A1:BT25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="72" width="20" customWidth="1"/>
@@ -7647,2186 +7614,6 @@
         <v>77</v>
       </c>
       <c r="BT25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26">
-        <v>500</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>77</v>
-      </c>
-      <c r="R26" t="s">
-        <v>77</v>
-      </c>
-      <c r="S26" t="s">
-        <v>77</v>
-      </c>
-      <c r="T26" t="s">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s">
-        <v>77</v>
-      </c>
-      <c r="X26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27">
-        <v>500</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" t="s">
-        <v>77</v>
-      </c>
-      <c r="S27" t="s">
-        <v>77</v>
-      </c>
-      <c r="T27" t="s">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>195</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28">
-        <v>500</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T28" t="s">
-        <v>77</v>
-      </c>
-      <c r="U28" t="s">
-        <v>77</v>
-      </c>
-      <c r="V28" t="s">
-        <v>77</v>
-      </c>
-      <c r="W28" t="s">
-        <v>77</v>
-      </c>
-      <c r="X28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>500</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" t="s">
-        <v>77</v>
-      </c>
-      <c r="S29" t="s">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>500</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>77</v>
-      </c>
-      <c r="R30" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS30" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>500</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" t="s">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE31" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32">
-        <v>500</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" t="s">
-        <v>80</v>
-      </c>
-      <c r="O32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>77</v>
-      </c>
-      <c r="R32" t="s">
-        <v>77</v>
-      </c>
-      <c r="S32" t="s">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33">
-        <v>500</v>
-      </c>
-      <c r="E33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>77</v>
-      </c>
-      <c r="N33" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>77</v>
-      </c>
-      <c r="R33" t="s">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34">
-        <v>500</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N34" t="s">
-        <v>80</v>
-      </c>
-      <c r="O34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" t="s">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>500</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" t="s">
-        <v>80</v>
-      </c>
-      <c r="O35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>77</v>
-      </c>
-      <c r="BT35" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10064,7 +7851,7 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -10199,7 +7986,7 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU2" t="s">
         <v>135</v>
@@ -10282,7 +8069,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -10417,7 +8204,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -10500,7 +8287,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -10635,7 +8422,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -10718,13 +8505,13 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -10853,7 +8640,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU5" t="s">
         <v>89</v>
@@ -10936,7 +8723,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -11071,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -11154,7 +8941,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -11289,7 +9076,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -11372,7 +9159,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -11507,7 +9294,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -11590,7 +9377,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -11725,7 +9512,7 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU9" t="s">
         <v>135</v>
@@ -11808,7 +9595,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -11943,7 +9730,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -12026,7 +9813,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -12161,7 +9948,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -12244,7 +10031,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -12379,7 +10166,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -12462,7 +10249,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -12597,7 +10384,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -12680,7 +10467,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -12815,7 +10602,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -12898,7 +10685,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -13033,7 +10820,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -13116,7 +10903,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -13251,7 +11038,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -13334,7 +11121,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -13469,7 +11256,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -13552,7 +11339,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -13687,7 +11474,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -13770,7 +11557,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -13905,7 +11692,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -13988,7 +11775,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -14123,7 +11910,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -14206,7 +11993,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -14341,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -14424,13 +12211,13 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -14559,7 +12346,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU22" t="s">
         <v>89</v>
@@ -14642,7 +12429,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -14777,7 +12564,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -14860,7 +12647,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -14995,7 +12782,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -15078,7 +12865,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -15213,7 +13000,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -15296,7 +13083,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -15431,7 +13218,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -15514,7 +13301,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -15649,7 +13436,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -15732,7 +13519,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -15867,7 +13654,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -15950,7 +13737,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -16085,7 +13872,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -16168,7 +13955,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -16303,7 +14090,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -16386,7 +14173,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -16521,7 +14308,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -16604,7 +14391,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -16739,7 +14526,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -16822,7 +14609,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -16957,7 +14744,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -17040,7 +14827,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -17175,7 +14962,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -17258,7 +15045,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -17393,7 +15180,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -17476,7 +15263,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -17611,7 +15398,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -17694,7 +15481,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -17829,7 +15616,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -17912,7 +15699,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -18047,7 +15834,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -18130,7 +15917,7 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -18265,7 +16052,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -18348,7 +16135,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -18483,7 +16270,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -18566,7 +16353,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -18701,7 +16488,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -18784,7 +16571,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -18919,7 +16706,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -19002,7 +16789,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -19137,7 +16924,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -19220,7 +17007,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -19355,7 +17142,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -19438,7 +17225,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -19573,7 +17360,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -19656,7 +17443,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -19791,7 +17578,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -19874,7 +17661,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -20009,7 +17796,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -20092,7 +17879,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -20227,7 +18014,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -20310,7 +18097,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -20445,7 +18232,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -20528,7 +18315,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -20663,7 +18450,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -20746,7 +18533,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -20881,7 +18668,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -20964,7 +18751,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -21099,7 +18886,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -21182,7 +18969,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -21317,7 +19104,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -21400,7 +19187,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -21535,7 +19322,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -21618,7 +19405,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -21753,7 +19540,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -21836,7 +19623,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -21971,7 +19758,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -22189,7 +19976,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -22272,7 +20059,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -22407,7 +20194,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -22490,7 +20277,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -22625,7 +20412,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -22708,7 +20495,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -22843,7 +20630,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -22926,7 +20713,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -23061,7 +20848,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -23144,7 +20931,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -23279,7 +21066,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -23362,7 +21149,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -23497,7 +21284,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -23580,7 +21367,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -23715,7 +21502,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -23798,7 +21585,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -23933,7 +21720,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -24016,7 +21803,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -24151,7 +21938,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -24234,7 +22021,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -24369,7 +22156,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -24452,7 +22239,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -24587,7 +22374,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -24670,7 +22457,7 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -24805,7 +22592,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -24888,7 +22675,7 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -25023,7 +22810,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -25106,7 +22893,7 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -25241,7 +23028,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -25324,7 +23111,7 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -25459,7 +23246,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -25542,7 +23329,7 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -25677,7 +23464,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -25760,7 +23547,7 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -25895,7 +23682,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -25978,7 +23765,7 @@
     </row>
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -26113,7 +23900,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -26196,7 +23983,7 @@
     </row>
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -26331,7 +24118,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -26414,7 +24201,7 @@
     </row>
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -26549,7 +24336,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -26632,7 +24419,7 @@
     </row>
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -26767,7 +24554,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -26985,7 +24772,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -27068,7 +24855,7 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -27203,7 +24990,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -27286,7 +25073,7 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -27421,7 +25208,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -27504,7 +25291,7 @@
     </row>
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -27639,7 +25426,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -27722,7 +25509,7 @@
     </row>
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -27857,7 +25644,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -27940,7 +25727,7 @@
     </row>
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -28075,7 +25862,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -28158,7 +25945,7 @@
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -28293,7 +26080,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -28376,7 +26163,7 @@
     </row>
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -28511,7 +26298,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -28594,7 +26381,7 @@
     </row>
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -28729,7 +26516,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -28812,7 +26599,7 @@
     </row>
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -28947,7 +26734,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -29030,7 +26817,7 @@
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -29165,7 +26952,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -29248,7 +27035,7 @@
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -29383,7 +27170,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -29466,7 +27253,7 @@
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -29601,7 +27388,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -29684,7 +27471,7 @@
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -29819,7 +27606,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -29902,7 +27689,7 @@
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -30037,7 +27824,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -30120,7 +27907,7 @@
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -30255,7 +28042,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -30338,7 +28125,7 @@
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -30473,7 +28260,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -30556,7 +28343,7 @@
     </row>
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -30691,7 +28478,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -30774,7 +28561,7 @@
     </row>
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -30909,7 +28696,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -30992,7 +28779,7 @@
     </row>
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -31127,7 +28914,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -31210,7 +28997,7 @@
     </row>
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -31345,7 +29132,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -31428,7 +29215,7 @@
     </row>
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -31563,7 +29350,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -31646,7 +29433,7 @@
     </row>
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -31781,7 +29568,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -31864,7 +29651,7 @@
     </row>
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -31999,7 +29786,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -32082,7 +29869,7 @@
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -32217,7 +30004,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -32300,7 +30087,7 @@
     </row>
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -32435,7 +30222,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -32518,7 +30305,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -32653,7 +30440,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -32736,7 +30523,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -32871,7 +30658,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -32954,7 +30741,7 @@
     </row>
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -33089,7 +30876,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -33172,7 +30959,7 @@
     </row>
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -33307,7 +31094,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -33390,7 +31177,7 @@
     </row>
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -33525,7 +31312,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -33608,7 +31395,7 @@
     </row>
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -33743,7 +31530,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -33826,7 +31613,7 @@
     </row>
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -33961,7 +31748,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -34044,7 +31831,7 @@
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -34179,7 +31966,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -34262,7 +32049,7 @@
     </row>
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -34397,7 +32184,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -34615,7 +32402,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -34698,7 +32485,7 @@
     </row>
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -34833,7 +32620,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -34916,7 +32703,7 @@
     </row>
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -35051,7 +32838,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -35134,7 +32921,7 @@
     </row>
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -35269,7 +33056,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -35352,7 +33139,7 @@
     </row>
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -35487,7 +33274,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -35570,7 +33357,7 @@
     </row>
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -35705,7 +33492,7 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU119" t="s">
         <v>135</v>
@@ -35714,7 +33501,7 @@
         <v>135</v>
       </c>
       <c r="AW119" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AX119" t="s">
         <v>77</v>
@@ -35788,7 +33575,7 @@
     </row>
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -35923,7 +33710,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -36006,7 +33793,7 @@
     </row>
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -36141,7 +33928,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -36224,7 +34011,7 @@
     </row>
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -36359,7 +34146,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -36442,7 +34229,7 @@
     </row>
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -36577,7 +34364,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -36660,7 +34447,7 @@
     </row>
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -36795,7 +34582,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -36878,7 +34665,7 @@
     </row>
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -37013,7 +34800,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -37096,7 +34883,7 @@
     </row>
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -37231,7 +35018,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -37314,7 +35101,7 @@
     </row>
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -37449,7 +35236,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -37532,7 +35319,7 @@
     </row>
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -37667,7 +35454,7 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU128" t="s">
         <v>135</v>
@@ -37750,7 +35537,7 @@
     </row>
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -37885,7 +35672,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -37968,7 +35755,7 @@
     </row>
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -38103,7 +35890,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -38186,7 +35973,7 @@
     </row>
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -38321,7 +36108,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -38404,7 +36191,7 @@
     </row>
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -38539,7 +36326,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -38622,7 +36409,7 @@
     </row>
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -38757,7 +36544,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -38840,7 +36627,7 @@
     </row>
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -38975,7 +36762,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -39058,7 +36845,7 @@
     </row>
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -39193,7 +36980,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -39276,7 +37063,7 @@
     </row>
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -39411,7 +37198,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -39494,7 +37281,7 @@
     </row>
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -39629,7 +37416,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -39712,7 +37499,7 @@
     </row>
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -39847,7 +37634,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -39930,7 +37717,7 @@
     </row>
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -40065,7 +37852,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -40148,7 +37935,7 @@
     </row>
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -40283,7 +38070,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -40366,7 +38153,7 @@
     </row>
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -40501,7 +38288,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -40584,7 +38371,7 @@
     </row>
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -40719,7 +38506,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -40802,7 +38589,7 @@
     </row>
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -40937,7 +38724,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -41020,7 +38807,7 @@
     </row>
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -41155,7 +38942,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -41238,7 +39025,7 @@
     </row>
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -41373,7 +39160,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -41456,7 +39243,7 @@
     </row>
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -41591,7 +39378,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -41674,7 +39461,7 @@
     </row>
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -41809,7 +39596,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -41892,7 +39679,7 @@
     </row>
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -42027,7 +39814,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -42110,7 +39897,7 @@
     </row>
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -42245,7 +40032,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -42463,7 +40250,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -42546,7 +40333,7 @@
     </row>
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -42681,7 +40468,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -42764,7 +40551,7 @@
     </row>
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -42899,7 +40686,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -42982,7 +40769,7 @@
     </row>
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -43117,7 +40904,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -43200,7 +40987,7 @@
     </row>
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -43335,7 +41122,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -43418,7 +41205,7 @@
     </row>
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -43553,7 +41340,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -43636,7 +41423,7 @@
     </row>
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -43771,7 +41558,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -43854,7 +41641,7 @@
     </row>
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -43989,7 +41776,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -44072,7 +41859,7 @@
     </row>
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -44207,7 +41994,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -44290,7 +42077,7 @@
     </row>
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -44425,7 +42212,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -44508,7 +42295,7 @@
     </row>
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -44643,7 +42430,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -44726,7 +42513,7 @@
     </row>
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -44861,7 +42648,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -44944,7 +42731,7 @@
     </row>
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -45079,7 +42866,7 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU162" t="s">
         <v>135</v>
@@ -45162,7 +42949,7 @@
     </row>
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -45297,7 +43084,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -45380,7 +43167,7 @@
     </row>
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -45515,7 +43302,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -45598,7 +43385,7 @@
     </row>
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -45733,7 +43520,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -45816,7 +43603,7 @@
     </row>
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -45951,7 +43738,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -46034,7 +43821,7 @@
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -46169,7 +43956,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -46252,7 +44039,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -46387,7 +44174,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -46470,13 +44257,13 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C169" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -46605,7 +44392,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU169" t="s">
         <v>89</v>
@@ -46688,13 +44475,13 @@
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -46823,7 +44610,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU170" t="s">
         <v>91</v>
@@ -46906,7 +44693,7 @@
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -47041,7 +44828,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -47124,7 +44911,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -47259,7 +45046,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -47342,7 +45129,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -47477,7 +45264,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -47560,7 +45347,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -47695,7 +45482,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -47778,7 +45565,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -47913,7 +45700,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -47996,7 +45783,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -48131,7 +45918,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -48214,7 +46001,7 @@
     </row>
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -48349,7 +46136,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -48432,7 +46219,7 @@
     </row>
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -48567,7 +46354,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -48650,7 +46437,7 @@
     </row>
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -48785,7 +46572,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -48868,7 +46655,7 @@
     </row>
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -49003,7 +46790,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -49086,7 +46873,7 @@
     </row>
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -49221,7 +47008,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -49304,7 +47091,7 @@
     </row>
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -49439,7 +47226,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -49522,7 +47309,7 @@
     </row>
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -49657,7 +47444,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -49740,7 +47527,7 @@
     </row>
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -49875,7 +47662,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -49958,7 +47745,7 @@
     </row>
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -50093,7 +47880,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -50176,7 +47963,7 @@
     </row>
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -50311,7 +48098,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -50394,7 +48181,7 @@
     </row>
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -50529,7 +48316,7 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU187" t="s">
         <v>77</v>
@@ -50538,7 +48325,7 @@
         <v>77</v>
       </c>
       <c r="AW187" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AX187" t="s">
         <v>77</v>
@@ -50612,7 +48399,7 @@
     </row>
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -50747,7 +48534,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -50830,7 +48617,7 @@
     </row>
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -50965,7 +48752,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -51048,7 +48835,7 @@
     </row>
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -51183,7 +48970,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -51266,7 +49053,7 @@
     </row>
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -51401,7 +49188,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -51484,7 +49271,7 @@
     </row>
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -51619,7 +49406,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -51702,7 +49489,7 @@
     </row>
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -51837,7 +49624,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -51920,7 +49707,7 @@
     </row>
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -52055,7 +49842,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -52138,7 +49925,7 @@
     </row>
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -52273,7 +50060,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -52356,7 +50143,7 @@
     </row>
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -52491,7 +50278,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU196" t="s">
         <v>91</v>
@@ -52574,7 +50361,7 @@
     </row>
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -52709,7 +50496,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -52792,7 +50579,7 @@
     </row>
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -52927,7 +50714,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -53010,7 +50797,7 @@
     </row>
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -53145,7 +50932,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -53228,7 +51015,7 @@
     </row>
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -53363,7 +51150,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -53446,7 +51233,7 @@
     </row>
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -53581,7 +51368,7 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU201" t="s">
         <v>135</v>
@@ -53590,7 +51377,7 @@
         <v>135</v>
       </c>
       <c r="AW201" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AX201" t="s">
         <v>77</v>
@@ -53799,7 +51586,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU202" t="s">
         <v>89</v>
@@ -53808,7 +51595,7 @@
         <v>89</v>
       </c>
       <c r="AW202" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -53882,7 +51669,7 @@
     </row>
     <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -54017,7 +51804,7 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU203" t="s">
         <v>135</v>
@@ -54026,7 +51813,7 @@
         <v>135</v>
       </c>
       <c r="AW203" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AX203" t="s">
         <v>77</v>
@@ -54100,7 +51887,7 @@
     </row>
     <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -54235,7 +52022,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -54318,7 +52105,7 @@
     </row>
     <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -54453,7 +52240,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -54536,7 +52323,7 @@
     </row>
     <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -54671,7 +52458,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -54754,7 +52541,7 @@
     </row>
     <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -54889,7 +52676,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -54972,7 +52759,7 @@
     </row>
     <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -55107,7 +52894,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -55190,7 +52977,7 @@
     </row>
     <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -55325,7 +53112,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -55408,13 +53195,13 @@
     </row>
     <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -55543,7 +53330,7 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU210" t="s">
         <v>135</v>
@@ -55626,7 +53413,7 @@
     </row>
     <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -55761,7 +53548,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -55844,7 +53631,7 @@
     </row>
     <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -55979,7 +53766,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -56062,7 +53849,7 @@
     </row>
     <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -56197,7 +53984,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -56280,7 +54067,7 @@
     </row>
     <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -56415,7 +54202,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -56498,7 +54285,7 @@
     </row>
     <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -56633,7 +54420,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -56716,7 +54503,7 @@
     </row>
     <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -56851,7 +54638,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -56934,7 +54721,7 @@
     </row>
     <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -57069,7 +54856,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -57152,7 +54939,7 @@
     </row>
     <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -57287,7 +55074,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -57370,7 +55157,7 @@
     </row>
     <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -57505,7 +55292,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -57588,7 +55375,7 @@
     </row>
     <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -57723,7 +55510,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -57806,7 +55593,7 @@
     </row>
     <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -57941,7 +55728,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -58024,7 +55811,7 @@
     </row>
     <row r="222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B222" t="s">
         <v>77</v>
@@ -58159,7 +55946,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -58242,7 +56029,7 @@
     </row>
     <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -58377,7 +56164,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -58460,7 +56247,7 @@
     </row>
     <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -58595,7 +56382,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -58678,7 +56465,7 @@
     </row>
     <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -58813,7 +56600,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -58896,7 +56683,7 @@
     </row>
     <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -59031,7 +56818,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -59114,7 +56901,7 @@
     </row>
     <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -59249,7 +57036,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -59332,7 +57119,7 @@
     </row>
     <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -59467,7 +57254,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -59550,7 +57337,7 @@
     </row>
     <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -59685,7 +57472,7 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU229" t="s">
         <v>135</v>
@@ -59768,7 +57555,7 @@
     </row>
     <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -59903,7 +57690,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -59986,7 +57773,7 @@
     </row>
     <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -60121,7 +57908,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -60204,7 +57991,7 @@
     </row>
     <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -60339,7 +58126,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -60422,7 +58209,7 @@
     </row>
     <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -60557,7 +58344,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -60640,7 +58427,7 @@
     </row>
     <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -60775,7 +58562,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -60858,7 +58645,7 @@
     </row>
     <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -60993,7 +58780,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -61076,7 +58863,7 @@
     </row>
     <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -61211,7 +58998,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -61294,7 +59081,7 @@
     </row>
     <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -61429,7 +59216,7 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU237" t="s">
         <v>135</v>
@@ -61512,7 +59299,7 @@
     </row>
     <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -61647,7 +59434,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -61730,7 +59517,7 @@
     </row>
     <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -61865,7 +59652,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -61948,7 +59735,7 @@
     </row>
     <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -62083,7 +59870,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -62166,7 +59953,7 @@
     </row>
     <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -62301,7 +60088,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -62384,7 +60171,7 @@
     </row>
     <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -62519,7 +60306,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -62602,7 +60389,7 @@
     </row>
     <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -62737,7 +60524,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -62820,7 +60607,7 @@
     </row>
     <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -62955,7 +60742,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -63038,7 +60825,7 @@
     </row>
     <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -63173,7 +60960,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -63256,7 +61043,7 @@
     </row>
     <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -63391,7 +61178,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -63474,7 +61261,7 @@
     </row>
     <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -63609,7 +61396,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -63692,7 +61479,7 @@
     </row>
     <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -63827,7 +61614,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -63910,7 +61697,7 @@
     </row>
     <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -64045,7 +61832,7 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AU249" t="s">
         <v>135</v>

--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19439" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21121" uniqueCount="433">
   <si>
     <r>
       <rPr>
@@ -824,7 +824,7 @@
     <t/>
   </si>
   <si>
-    <t>bighuge</t>
+    <t>gU2rq</t>
   </si>
   <si>
     <t>Automation01</t>
@@ -1167,6 +1167,111 @@
   </si>
   <si>
     <t>6809f0ef983bed769dee8dd7</t>
+  </si>
+  <si>
+    <t>Automationbulksupplier01</t>
+  </si>
+  <si>
+    <t>680b37cb983bed769def2812</t>
+  </si>
+  <si>
+    <t>680b37cd983bed769def2827</t>
+  </si>
+  <si>
+    <t>680b37cf983bed769def283c</t>
+  </si>
+  <si>
+    <t>680b37d1983bed769def2851</t>
+  </si>
+  <si>
+    <t>680b37d2983bed769def286b</t>
+  </si>
+  <si>
+    <t>680b37d4983bed769def2884</t>
+  </si>
+  <si>
+    <t>680b37d6983bed769def2899</t>
+  </si>
+  <si>
+    <t>680b37d9983bed769def28de</t>
+  </si>
+  <si>
+    <t>680b37db983bed769def290e</t>
+  </si>
+  <si>
+    <t>680b37dd983bed769def292c</t>
+  </si>
+  <si>
+    <t>Test_1qCr</t>
+  </si>
+  <si>
+    <t>piyush.soni+jsy0@47billion.com</t>
+  </si>
+  <si>
+    <t>User_qmEL</t>
+  </si>
+  <si>
+    <t>680b38e6983bed769def2aa7</t>
+  </si>
+  <si>
+    <t>680b3ed1983bed769def2b22</t>
+  </si>
+  <si>
+    <t>680b3ed3983bed769def2b37</t>
+  </si>
+  <si>
+    <t>680b3ed5983bed769def2b4c</t>
+  </si>
+  <si>
+    <t>680b3ed7983bed769def2b61</t>
+  </si>
+  <si>
+    <t>680b3ed9983bed769def2b7f</t>
+  </si>
+  <si>
+    <t>680b3edb983bed769def2b94</t>
+  </si>
+  <si>
+    <t>680b3edd983bed769def2ba9</t>
+  </si>
+  <si>
+    <t>680b3edf983bed769def2bf0</t>
+  </si>
+  <si>
+    <t>680b3ee1983bed769def2c25</t>
+  </si>
+  <si>
+    <t>680b3ee2983bed769def2c3a</t>
+  </si>
+  <si>
+    <t>supplierregress01</t>
+  </si>
+  <si>
+    <t>supplierregress01@yopmail.com</t>
+  </si>
+  <si>
+    <t>680b5eed983bed769def3176</t>
+  </si>
+  <si>
+    <t>supplierregress02</t>
+  </si>
+  <si>
+    <t>supplierregress02@yopmail.com</t>
+  </si>
+  <si>
+    <t>680b5f44983bed769def31d5</t>
+  </si>
+  <si>
+    <t>Test_RFAc</t>
+  </si>
+  <si>
+    <t>piyush.soni+urxo@47billion.com</t>
+  </si>
+  <si>
+    <t>User_COA2</t>
+  </si>
+  <si>
+    <t>680b6e05983bed769def57c4</t>
   </si>
   <si>
     <t>Level 1 ESRS</t>
@@ -2161,7 +2266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT25"/>
+  <dimension ref="A1:BT49"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="72" width="20" customWidth="1"/>
@@ -7614,6 +7719,5238 @@
         <v>77</v>
       </c>
       <c r="BT25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" t="s">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" t="s">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>77</v>
+      </c>
+      <c r="R31" t="s">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s">
+        <v>77</v>
+      </c>
+      <c r="X31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T32" t="s">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" t="s">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" t="s">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" t="s">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>77</v>
+      </c>
+      <c r="R36" t="s">
+        <v>77</v>
+      </c>
+      <c r="S36" t="s">
+        <v>77</v>
+      </c>
+      <c r="T36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37">
+        <v>500</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" t="s">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R39" t="s">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>77</v>
+      </c>
+      <c r="R40" t="s">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>500</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>77</v>
+      </c>
+      <c r="R41" t="s">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>500</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>77</v>
+      </c>
+      <c r="R42" t="s">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS43" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R44" t="s">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" t="s">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>77</v>
+      </c>
+      <c r="R46" t="s">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s">
+        <v>218</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>77</v>
+      </c>
+      <c r="R47" t="s">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS48" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" t="s">
+        <v>77</v>
+      </c>
+      <c r="M49" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7851,7 +13188,7 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -7986,7 +13323,7 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU2" t="s">
         <v>135</v>
@@ -8069,7 +13406,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -8204,7 +13541,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -8287,7 +13624,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -8422,7 +13759,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -8505,13 +13842,13 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -8640,7 +13977,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU5" t="s">
         <v>89</v>
@@ -8723,7 +14060,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -8858,7 +14195,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -8941,7 +14278,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -9076,7 +14413,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -9159,7 +14496,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -9294,7 +14631,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -9377,7 +14714,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -9512,7 +14849,7 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU9" t="s">
         <v>135</v>
@@ -9595,7 +14932,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -9730,7 +15067,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -9813,7 +15150,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -9948,7 +15285,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -10031,7 +15368,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -10166,7 +15503,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -10249,7 +15586,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -10384,7 +15721,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -10467,7 +15804,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -10602,7 +15939,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -10685,7 +16022,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -10820,7 +16157,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -10903,7 +16240,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11038,7 +16375,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -11121,7 +16458,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -11256,7 +16593,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -11339,7 +16676,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -11474,7 +16811,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -11557,7 +16894,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11692,7 +17029,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -11775,7 +17112,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -11910,7 +17247,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -11993,7 +17330,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -12128,7 +17465,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -12211,13 +17548,13 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -12346,7 +17683,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU22" t="s">
         <v>89</v>
@@ -12429,7 +17766,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -12564,7 +17901,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -12647,7 +17984,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -12782,7 +18119,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -12865,7 +18202,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13000,7 +18337,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -13083,7 +18420,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -13218,7 +18555,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -13301,7 +18638,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -13436,7 +18773,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -13519,7 +18856,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -13654,7 +18991,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -13737,7 +19074,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -13872,7 +19209,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -13955,7 +19292,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -14090,7 +19427,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -14173,7 +19510,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -14308,7 +19645,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -14391,7 +19728,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -14526,7 +19863,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -14609,7 +19946,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -14744,7 +20081,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -14827,7 +20164,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -14962,7 +20299,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -15045,7 +20382,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -15180,7 +20517,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -15263,7 +20600,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -15398,7 +20735,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -15481,7 +20818,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -15616,7 +20953,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -15699,7 +21036,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -15834,7 +21171,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -15917,7 +21254,7 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -16052,7 +21389,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -16135,7 +21472,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -16270,7 +21607,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -16353,7 +21690,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -16488,7 +21825,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -16571,7 +21908,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -16706,7 +22043,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -16789,7 +22126,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -16924,7 +22261,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -17007,7 +22344,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -17142,7 +22479,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -17225,7 +22562,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -17360,7 +22697,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -17443,7 +22780,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -17578,7 +22915,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -17661,7 +22998,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -17796,7 +23133,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -17879,7 +23216,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -18014,7 +23351,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -18097,7 +23434,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -18232,7 +23569,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -18315,7 +23652,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -18450,7 +23787,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -18533,7 +23870,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -18668,7 +24005,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -18751,7 +24088,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -18886,7 +24223,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -18969,7 +24306,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -19104,7 +24441,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -19187,7 +24524,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -19322,7 +24659,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -19405,7 +24742,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -19540,7 +24877,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -19623,7 +24960,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -19758,7 +25095,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -19976,7 +25313,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -20059,7 +25396,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -20194,7 +25531,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -20277,7 +25614,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -20412,7 +25749,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -20495,7 +25832,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -20630,7 +25967,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -20713,7 +26050,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -20848,7 +26185,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -20931,7 +26268,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -21066,7 +26403,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -21149,7 +26486,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -21284,7 +26621,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -21367,7 +26704,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -21502,7 +26839,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -21585,7 +26922,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -21720,7 +27057,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -21803,7 +27140,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -21938,7 +27275,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -22021,7 +27358,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -22156,7 +27493,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -22239,7 +27576,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -22374,7 +27711,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -22457,7 +27794,7 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -22592,7 +27929,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -22675,7 +28012,7 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -22810,7 +28147,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -22893,7 +28230,7 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -23028,7 +28365,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -23111,7 +28448,7 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -23246,7 +28583,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -23329,7 +28666,7 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -23464,7 +28801,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -23547,7 +28884,7 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -23682,7 +29019,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -23765,7 +29102,7 @@
     </row>
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -23900,7 +29237,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -23983,7 +29320,7 @@
     </row>
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -24118,7 +29455,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -24201,7 +29538,7 @@
     </row>
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -24336,7 +29673,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -24419,7 +29756,7 @@
     </row>
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -24554,7 +29891,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -24772,7 +30109,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -24855,7 +30192,7 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -24990,7 +30327,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -25073,7 +30410,7 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -25208,7 +30545,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -25291,7 +30628,7 @@
     </row>
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -25426,7 +30763,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -25509,7 +30846,7 @@
     </row>
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -25644,7 +30981,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -25727,7 +31064,7 @@
     </row>
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -25862,7 +31199,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -25945,7 +31282,7 @@
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -26080,7 +31417,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -26163,7 +31500,7 @@
     </row>
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -26298,7 +31635,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -26381,7 +31718,7 @@
     </row>
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -26516,7 +31853,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -26599,7 +31936,7 @@
     </row>
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -26734,7 +32071,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -26817,7 +32154,7 @@
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -26952,7 +32289,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -27035,7 +32372,7 @@
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -27170,7 +32507,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -27253,7 +32590,7 @@
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -27388,7 +32725,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -27471,7 +32808,7 @@
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -27606,7 +32943,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -27689,7 +33026,7 @@
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -27824,7 +33161,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -27907,7 +33244,7 @@
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -28042,7 +33379,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -28125,7 +33462,7 @@
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -28260,7 +33597,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -28343,7 +33680,7 @@
     </row>
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -28478,7 +33815,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -28561,7 +33898,7 @@
     </row>
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -28696,7 +34033,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -28779,7 +34116,7 @@
     </row>
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -28914,7 +34251,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -28997,7 +34334,7 @@
     </row>
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -29132,7 +34469,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -29215,7 +34552,7 @@
     </row>
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -29350,7 +34687,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -29433,7 +34770,7 @@
     </row>
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -29568,7 +34905,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -29651,7 +34988,7 @@
     </row>
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -29786,7 +35123,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -29869,7 +35206,7 @@
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -30004,7 +35341,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -30087,7 +35424,7 @@
     </row>
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -30222,7 +35559,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -30305,7 +35642,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -30440,7 +35777,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -30523,7 +35860,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -30658,7 +35995,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -30741,7 +36078,7 @@
     </row>
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -30876,7 +36213,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -30959,7 +36296,7 @@
     </row>
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -31094,7 +36431,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -31177,7 +36514,7 @@
     </row>
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -31312,7 +36649,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -31395,7 +36732,7 @@
     </row>
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -31530,7 +36867,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -31613,7 +36950,7 @@
     </row>
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -31748,7 +37085,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -31831,7 +37168,7 @@
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -31966,7 +37303,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -32049,7 +37386,7 @@
     </row>
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -32184,7 +37521,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -32402,7 +37739,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -32485,7 +37822,7 @@
     </row>
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -32620,7 +37957,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -32703,7 +38040,7 @@
     </row>
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -32838,7 +38175,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -32921,7 +38258,7 @@
     </row>
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -33056,7 +38393,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -33139,7 +38476,7 @@
     </row>
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -33274,7 +38611,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -33357,7 +38694,7 @@
     </row>
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -33492,7 +38829,7 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU119" t="s">
         <v>135</v>
@@ -33501,7 +38838,7 @@
         <v>135</v>
       </c>
       <c r="AW119" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AX119" t="s">
         <v>77</v>
@@ -33575,7 +38912,7 @@
     </row>
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -33710,7 +39047,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -33793,7 +39130,7 @@
     </row>
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -33928,7 +39265,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -34011,7 +39348,7 @@
     </row>
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -34146,7 +39483,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -34229,7 +39566,7 @@
     </row>
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -34364,7 +39701,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -34447,7 +39784,7 @@
     </row>
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -34582,7 +39919,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -34665,7 +40002,7 @@
     </row>
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -34800,7 +40137,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -34883,7 +40220,7 @@
     </row>
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -35018,7 +40355,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -35101,7 +40438,7 @@
     </row>
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -35236,7 +40573,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -35319,7 +40656,7 @@
     </row>
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -35454,7 +40791,7 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU128" t="s">
         <v>135</v>
@@ -35537,7 +40874,7 @@
     </row>
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -35672,7 +41009,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -35755,7 +41092,7 @@
     </row>
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -35890,7 +41227,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -35973,7 +41310,7 @@
     </row>
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -36108,7 +41445,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -36191,7 +41528,7 @@
     </row>
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -36326,7 +41663,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -36409,7 +41746,7 @@
     </row>
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -36544,7 +41881,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -36627,7 +41964,7 @@
     </row>
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -36762,7 +42099,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -36845,7 +42182,7 @@
     </row>
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -36980,7 +42317,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -37063,7 +42400,7 @@
     </row>
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -37198,7 +42535,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -37281,7 +42618,7 @@
     </row>
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -37416,7 +42753,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -37499,7 +42836,7 @@
     </row>
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -37634,7 +42971,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -37717,7 +43054,7 @@
     </row>
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -37852,7 +43189,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -37935,7 +43272,7 @@
     </row>
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -38070,7 +43407,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -38153,7 +43490,7 @@
     </row>
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -38288,7 +43625,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -38371,7 +43708,7 @@
     </row>
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -38506,7 +43843,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -38589,7 +43926,7 @@
     </row>
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -38724,7 +44061,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -38807,7 +44144,7 @@
     </row>
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -38942,7 +44279,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -39025,7 +44362,7 @@
     </row>
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -39160,7 +44497,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -39243,7 +44580,7 @@
     </row>
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -39378,7 +44715,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -39461,7 +44798,7 @@
     </row>
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -39596,7 +44933,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -39679,7 +45016,7 @@
     </row>
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -39814,7 +45151,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -39897,7 +45234,7 @@
     </row>
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -40032,7 +45369,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -40250,7 +45587,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -40333,7 +45670,7 @@
     </row>
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -40468,7 +45805,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -40551,7 +45888,7 @@
     </row>
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -40686,7 +46023,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -40769,7 +46106,7 @@
     </row>
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -40904,7 +46241,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -40987,7 +46324,7 @@
     </row>
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -41122,7 +46459,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -41205,7 +46542,7 @@
     </row>
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -41340,7 +46677,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -41423,7 +46760,7 @@
     </row>
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -41558,7 +46895,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -41641,7 +46978,7 @@
     </row>
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -41776,7 +47113,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -41859,7 +47196,7 @@
     </row>
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -41994,7 +47331,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -42077,7 +47414,7 @@
     </row>
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -42212,7 +47549,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -42295,7 +47632,7 @@
     </row>
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -42430,7 +47767,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -42513,7 +47850,7 @@
     </row>
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -42648,7 +47985,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -42731,7 +48068,7 @@
     </row>
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -42866,7 +48203,7 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU162" t="s">
         <v>135</v>
@@ -42949,7 +48286,7 @@
     </row>
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -43084,7 +48421,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -43167,7 +48504,7 @@
     </row>
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -43302,7 +48639,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -43385,7 +48722,7 @@
     </row>
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -43520,7 +48857,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -43603,7 +48940,7 @@
     </row>
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -43738,7 +49075,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -43821,7 +49158,7 @@
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -43956,7 +49293,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -44039,7 +49376,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -44174,7 +49511,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -44257,13 +49594,13 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -44392,7 +49729,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU169" t="s">
         <v>89</v>
@@ -44475,13 +49812,13 @@
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -44610,7 +49947,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU170" t="s">
         <v>91</v>
@@ -44693,7 +50030,7 @@
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -44828,7 +50165,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -44911,7 +50248,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -45046,7 +50383,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -45129,7 +50466,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -45264,7 +50601,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -45347,7 +50684,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -45482,7 +50819,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -45565,7 +50902,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -45700,7 +51037,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -45783,7 +51120,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -45918,7 +51255,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -46001,7 +51338,7 @@
     </row>
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -46136,7 +51473,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -46219,7 +51556,7 @@
     </row>
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -46354,7 +51691,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -46437,7 +51774,7 @@
     </row>
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -46572,7 +51909,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -46655,7 +51992,7 @@
     </row>
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -46790,7 +52127,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -46873,7 +52210,7 @@
     </row>
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -47008,7 +52345,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -47091,7 +52428,7 @@
     </row>
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -47226,7 +52563,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -47309,7 +52646,7 @@
     </row>
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -47444,7 +52781,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -47527,7 +52864,7 @@
     </row>
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -47662,7 +52999,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -47745,7 +53082,7 @@
     </row>
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -47880,7 +53217,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -47963,7 +53300,7 @@
     </row>
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -48098,7 +53435,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -48181,7 +53518,7 @@
     </row>
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -48316,7 +53653,7 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU187" t="s">
         <v>77</v>
@@ -48325,7 +53662,7 @@
         <v>77</v>
       </c>
       <c r="AW187" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AX187" t="s">
         <v>77</v>
@@ -48399,7 +53736,7 @@
     </row>
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -48534,7 +53871,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -48617,7 +53954,7 @@
     </row>
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -48752,7 +54089,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -48835,7 +54172,7 @@
     </row>
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -48970,7 +54307,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -49053,7 +54390,7 @@
     </row>
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -49188,7 +54525,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -49271,7 +54608,7 @@
     </row>
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -49406,7 +54743,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -49489,7 +54826,7 @@
     </row>
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -49624,7 +54961,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -49707,7 +55044,7 @@
     </row>
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -49842,7 +55179,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -49925,7 +55262,7 @@
     </row>
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -50060,7 +55397,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -50143,7 +55480,7 @@
     </row>
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -50278,7 +55615,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU196" t="s">
         <v>91</v>
@@ -50361,7 +55698,7 @@
     </row>
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -50496,7 +55833,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -50579,7 +55916,7 @@
     </row>
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -50714,7 +56051,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -50797,7 +56134,7 @@
     </row>
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -50932,7 +56269,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -51015,7 +56352,7 @@
     </row>
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -51150,7 +56487,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -51233,7 +56570,7 @@
     </row>
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -51368,7 +56705,7 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU201" t="s">
         <v>135</v>
@@ -51377,7 +56714,7 @@
         <v>135</v>
       </c>
       <c r="AW201" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AX201" t="s">
         <v>77</v>
@@ -51586,7 +56923,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU202" t="s">
         <v>89</v>
@@ -51595,7 +56932,7 @@
         <v>89</v>
       </c>
       <c r="AW202" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -51669,7 +57006,7 @@
     </row>
     <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -51804,7 +57141,7 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU203" t="s">
         <v>135</v>
@@ -51813,7 +57150,7 @@
         <v>135</v>
       </c>
       <c r="AW203" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AX203" t="s">
         <v>77</v>
@@ -51887,7 +57224,7 @@
     </row>
     <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -52022,7 +57359,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -52105,7 +57442,7 @@
     </row>
     <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -52240,7 +57577,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -52323,7 +57660,7 @@
     </row>
     <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -52458,7 +57795,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -52541,7 +57878,7 @@
     </row>
     <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -52676,7 +58013,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -52759,7 +58096,7 @@
     </row>
     <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -52894,7 +58231,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -52977,7 +58314,7 @@
     </row>
     <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -53112,7 +58449,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -53195,13 +58532,13 @@
     </row>
     <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -53330,7 +58667,7 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU210" t="s">
         <v>135</v>
@@ -53413,7 +58750,7 @@
     </row>
     <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -53548,7 +58885,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -53631,7 +58968,7 @@
     </row>
     <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -53766,7 +59103,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -53849,7 +59186,7 @@
     </row>
     <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -53984,7 +59321,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -54067,7 +59404,7 @@
     </row>
     <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -54202,7 +59539,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -54285,7 +59622,7 @@
     </row>
     <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -54420,7 +59757,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -54503,7 +59840,7 @@
     </row>
     <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -54638,7 +59975,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -54721,7 +60058,7 @@
     </row>
     <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -54856,7 +60193,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -54939,7 +60276,7 @@
     </row>
     <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -55074,7 +60411,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -55157,7 +60494,7 @@
     </row>
     <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -55292,7 +60629,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -55375,7 +60712,7 @@
     </row>
     <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -55510,7 +60847,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -55593,7 +60930,7 @@
     </row>
     <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -55728,7 +61065,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -55811,7 +61148,7 @@
     </row>
     <row r="222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="B222" t="s">
         <v>77</v>
@@ -55946,7 +61283,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -56029,7 +61366,7 @@
     </row>
     <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -56164,7 +61501,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -56247,7 +61584,7 @@
     </row>
     <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -56382,7 +61719,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -56465,7 +61802,7 @@
     </row>
     <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -56600,7 +61937,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -56683,7 +62020,7 @@
     </row>
     <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -56818,7 +62155,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -56901,7 +62238,7 @@
     </row>
     <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -57036,7 +62373,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -57119,7 +62456,7 @@
     </row>
     <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -57254,7 +62591,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -57337,7 +62674,7 @@
     </row>
     <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -57472,7 +62809,7 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU229" t="s">
         <v>135</v>
@@ -57555,7 +62892,7 @@
     </row>
     <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -57690,7 +63027,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -57773,7 +63110,7 @@
     </row>
     <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -57908,7 +63245,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -57991,7 +63328,7 @@
     </row>
     <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -58126,7 +63463,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -58209,7 +63546,7 @@
     </row>
     <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -58344,7 +63681,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -58427,7 +63764,7 @@
     </row>
     <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -58562,7 +63899,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -58645,7 +63982,7 @@
     </row>
     <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -58780,7 +64117,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -58863,7 +64200,7 @@
     </row>
     <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -58998,7 +64335,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -59081,7 +64418,7 @@
     </row>
     <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -59216,7 +64553,7 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU237" t="s">
         <v>135</v>
@@ -59299,7 +64636,7 @@
     </row>
     <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -59434,7 +64771,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -59517,7 +64854,7 @@
     </row>
     <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -59652,7 +64989,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -59735,7 +65072,7 @@
     </row>
     <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -59870,7 +65207,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -59953,7 +65290,7 @@
     </row>
     <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -60088,7 +65425,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -60171,7 +65508,7 @@
     </row>
     <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -60306,7 +65643,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -60389,7 +65726,7 @@
     </row>
     <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -60524,7 +65861,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -60607,7 +65944,7 @@
     </row>
     <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -60742,7 +66079,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -60825,7 +66162,7 @@
     </row>
     <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -60960,7 +66297,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -61043,7 +66380,7 @@
     </row>
     <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -61178,7 +66515,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -61261,7 +66598,7 @@
     </row>
     <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -61396,7 +66733,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -61479,7 +66816,7 @@
     </row>
     <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -61614,7 +66951,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -61697,7 +67034,7 @@
     </row>
     <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -61832,7 +67169,7 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AU249" t="s">
         <v>135</v>

--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18724" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18798" uniqueCount="362">
   <si>
     <r>
       <rPr>
@@ -827,7 +827,7 @@
     <t/>
   </si>
   <si>
-    <t>gU2rq</t>
+    <t>3GGYu</t>
   </si>
   <si>
     <t>Automation01</t>
@@ -977,31 +977,34 @@
     <t>6809cae3983bed769dede205</t>
   </si>
   <si>
-    <t>Dailyregress02</t>
+    <t>Test_SNzs</t>
   </si>
   <si>
-    <t>AF, IN</t>
+    <t>piyush.soni+bdgv@47billion.com</t>
+  </si>
+  <si>
+    <t>User_PwIz</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>680f355caaf2b21e1605e30a</t>
+  </si>
+  <si>
+    <t>piyushregression01</t>
+  </si>
+  <si>
+    <t>AF, IN, DE</t>
   </si>
   <si>
     <t>PS_00, PS_12</t>
   </si>
   <si>
-    <t>dailyregress02@yopmail.com</t>
-  </si>
-  <si>
-    <t>6809f0ef983bed769dee8dd7</t>
-  </si>
-  <si>
-    <t>Very high</t>
-  </si>
-  <si>
-    <t>supplierregress02</t>
-  </si>
-  <si>
-    <t>AF, IN, DE</t>
-  </si>
-  <si>
-    <t>supplierregress02@yopmail.com</t>
+    <t>piyushregression01@yopmail.com</t>
   </si>
   <si>
     <t>Accepted</t>
@@ -1010,40 +1013,49 @@
     <t>Sent</t>
   </si>
   <si>
-    <t>680b5f44983bed769def31d5</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>supplierregress03</t>
-  </si>
-  <si>
-    <t>supplierregress03@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test Piyush</t>
-  </si>
-  <si>
-    <t>680bd2af983bed769def9bc9</t>
-  </si>
-  <si>
-    <t>latestsupplierauto01</t>
-  </si>
-  <si>
-    <t>latestsupplierauto01@yopmail.com</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>680f3360aaf2b21e1605c8a7</t>
+    <t>680f6096aaf2b21e1606082d</t>
+  </si>
+  <si>
+    <t>Very high</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Test_Kf7T</t>
+  </si>
+  <si>
+    <t>piyush.soni+iw67@47billion.com</t>
+  </si>
+  <si>
+    <t>User_LZSn</t>
+  </si>
+  <si>
+    <t>680f62ebaaf2b21e160622b6</t>
+  </si>
+  <si>
+    <t>hopsies</t>
+  </si>
+  <si>
+    <t>zafar.irshad@daato.net</t>
+  </si>
+  <si>
+    <t>680f8fb7aaf2b21e1606516d</t>
+  </si>
+  <si>
+    <t>firstdata01</t>
+  </si>
+  <si>
+    <t>firstdata01@yopmail.com</t>
+  </si>
+  <si>
+    <t>681067faaaf2b21e16066236</t>
   </si>
   <si>
     <t>Level 1 ESRS</t>
@@ -1149,6 +1161,9 @@
   </si>
   <si>
     <t>C02 level 2</t>
+  </si>
+  <si>
+    <t>Test Piyush</t>
   </si>
   <si>
     <t>ESRS Parent</t>
@@ -1338,6 +1353,9 @@
   </si>
   <si>
     <t>own business-1</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
   <si>
     <t>MY entity</t>
@@ -1658,7 +1676,7 @@
     <t>Entity piyush</t>
   </si>
   <si>
-    <t>CPOL7</t>
+    <t>y5pMv</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BT16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="10" max="72" customWidth="true" width="20.0" collapsed="true"/>
@@ -2291,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -4450,31 +4468,31 @@
         <v>128</v>
       </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
         <v>130</v>
       </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>131</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
       </c>
       <c r="K12" t="s">
         <v>77</v>
@@ -4558,7 +4576,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="s">
         <v>82</v>
@@ -4573,7 +4591,7 @@
         <v>77</v>
       </c>
       <c r="AQ12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AR12" t="s">
         <v>77</v>
@@ -4615,7 +4633,7 @@
         <v>89</v>
       </c>
       <c r="BE12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BF12" t="s">
         <v>91</v>
@@ -4627,7 +4645,7 @@
         <v>89</v>
       </c>
       <c r="BI12" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="BJ12" t="s">
         <v>77</v>
@@ -4671,16 +4689,16 @@
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -4776,13 +4794,13 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s">
         <v>77</v>
@@ -4791,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="AQ13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AR13" t="s">
         <v>77</v>
@@ -4803,93 +4821,93 @@
         <v>88</v>
       </c>
       <c r="AU13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV13" t="s">
         <v>89</v>
       </c>
       <c r="AW13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB13" t="s">
         <v>140</v>
       </c>
-      <c r="AX13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>89</v>
-      </c>
       <c r="BC13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BD13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BE13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BF13" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BH13" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BI13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BJ13" t="s">
         <v>77</v>
       </c>
       <c r="BK13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BL13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BM13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BN13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BO13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BP13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BQ13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BR13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BS13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="BT13" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
@@ -4898,7 +4916,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -4907,10 +4925,10 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
         <v>77</v>
@@ -4994,10 +5012,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AN14" t="s">
         <v>83</v>
@@ -5009,7 +5027,7 @@
         <v>77</v>
       </c>
       <c r="AQ14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AR14" t="s">
         <v>77</v>
@@ -5027,7 +5045,7 @@
         <v>89</v>
       </c>
       <c r="AW14" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AX14" t="s">
         <v>77</v>
@@ -5051,7 +5069,7 @@
         <v>89</v>
       </c>
       <c r="BE14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BF14" t="s">
         <v>91</v>
@@ -5063,7 +5081,7 @@
         <v>89</v>
       </c>
       <c r="BI14" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="BJ14" t="s">
         <v>77</v>
@@ -5101,22 +5119,22 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -5125,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
         <v>77</v>
@@ -5212,13 +5230,13 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AN15" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AO15" t="s">
         <v>77</v>
@@ -5227,7 +5245,7 @@
         <v>77</v>
       </c>
       <c r="AQ15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AR15" t="s">
         <v>77</v>
@@ -5239,82 +5257,300 @@
         <v>88</v>
       </c>
       <c r="AU15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AV15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE15" t="s">
         <v>89</v>
       </c>
-      <c r="AW15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX15" t="s">
+      <c r="BF15" t="s">
         <v>89</v>
       </c>
-      <c r="AY15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>147</v>
-      </c>
       <c r="BG15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="BH15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="BI15" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="BJ15" t="s">
         <v>77</v>
       </c>
       <c r="BK15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BL15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BM15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BN15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BO15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BP15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BQ15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BR15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BS15" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="BT15" t="s">
-        <v>147</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5551,7 +5787,7 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -5686,10 +5922,10 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV2" t="s">
         <v>77</v>
@@ -5704,13 +5940,13 @@
         <v>90</v>
       </c>
       <c r="AZ2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA2" t="s">
         <v>77</v>
       </c>
       <c r="BB2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC2" t="s">
         <v>77</v>
@@ -5769,7 +6005,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -5904,7 +6140,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -5987,7 +6223,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -6122,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -6205,13 +6441,13 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -6340,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU5" t="s">
         <v>89</v>
@@ -6358,7 +6594,7 @@
         <v>90</v>
       </c>
       <c r="AZ5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BA5" t="s">
         <v>77</v>
@@ -6367,25 +6603,25 @@
         <v>91</v>
       </c>
       <c r="BC5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BD5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BE5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BF5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BH5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BI5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BJ5" t="s">
         <v>77</v>
@@ -6423,7 +6659,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -6558,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -6641,7 +6877,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -6776,7 +7012,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -6859,7 +7095,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -6994,7 +7230,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -7077,7 +7313,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -7212,10 +7448,10 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV9" t="s">
         <v>77</v>
@@ -7230,7 +7466,7 @@
         <v>90</v>
       </c>
       <c r="AZ9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA9" t="s">
         <v>77</v>
@@ -7295,7 +7531,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -7430,7 +7666,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -7513,7 +7749,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -7648,7 +7884,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -7731,7 +7967,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -7866,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -7949,7 +8185,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -8084,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -8167,7 +8403,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -8302,7 +8538,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -8385,7 +8621,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -8520,7 +8756,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -8603,7 +8839,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -8738,7 +8974,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -8821,7 +9057,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -8956,7 +9192,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -9039,7 +9275,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -9174,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -9257,7 +9493,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -9392,7 +9628,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -9475,7 +9711,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -9610,7 +9846,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -9693,7 +9929,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -9828,7 +10064,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -9911,13 +10147,13 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -10046,7 +10282,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU22" t="s">
         <v>89</v>
@@ -10085,7 +10321,7 @@
         <v>91</v>
       </c>
       <c r="BG22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BH22" t="s">
         <v>91</v>
@@ -10129,7 +10365,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -10264,7 +10500,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -10347,7 +10583,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -10482,7 +10718,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -10565,7 +10801,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -10700,7 +10936,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -10783,7 +11019,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -10918,7 +11154,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -11001,7 +11237,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -11136,7 +11372,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -11219,7 +11455,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11354,7 +11590,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -11437,7 +11673,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -11572,7 +11808,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -11655,7 +11891,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -11790,7 +12026,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -11873,7 +12109,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -12008,7 +12244,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -12091,7 +12327,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -12226,7 +12462,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -12309,7 +12545,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -12444,7 +12680,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -12527,7 +12763,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -12662,7 +12898,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -12745,7 +12981,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -12880,7 +13116,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -12963,7 +13199,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -13098,7 +13334,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -13181,7 +13417,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -13316,7 +13552,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -13399,7 +13635,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -13534,7 +13770,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -13617,7 +13853,7 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -13752,7 +13988,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -13835,7 +14071,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -13970,7 +14206,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -14053,7 +14289,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -14188,7 +14424,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -14271,7 +14507,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -14406,7 +14642,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -14489,7 +14725,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -14624,7 +14860,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -14707,7 +14943,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -14842,7 +15078,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -14925,7 +15161,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -15060,7 +15296,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -15143,7 +15379,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -15278,7 +15514,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -15361,7 +15597,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -15496,7 +15732,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -15579,7 +15815,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -15714,7 +15950,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -15797,7 +16033,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -15932,7 +16168,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -16015,7 +16251,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -16150,7 +16386,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -16233,7 +16469,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -16368,7 +16604,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -16451,7 +16687,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -16586,7 +16822,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -16669,7 +16905,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -16804,7 +17040,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -16887,7 +17123,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -17022,7 +17258,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -17105,7 +17341,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -17240,7 +17476,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -17323,7 +17559,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -17458,7 +17694,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -17541,7 +17777,7 @@
     </row>
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
@@ -17676,7 +17912,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -17759,7 +17995,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -17894,7 +18130,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -17977,7 +18213,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -18112,7 +18348,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -18195,7 +18431,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -18330,7 +18566,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -18413,7 +18649,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -18548,7 +18784,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -18631,7 +18867,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -18766,7 +19002,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -18849,7 +19085,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -18984,7 +19220,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -19067,7 +19303,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -19202,7 +19438,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -19285,7 +19521,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -19420,7 +19656,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -19503,7 +19739,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -19638,7 +19874,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -19721,7 +19957,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -19856,7 +20092,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -19939,7 +20175,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -20074,7 +20310,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -20157,7 +20393,7 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -20292,7 +20528,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -20375,7 +20611,7 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -20510,7 +20746,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -20593,7 +20829,7 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -20728,7 +20964,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -20811,7 +21047,7 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -20946,7 +21182,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -21029,7 +21265,7 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -21164,7 +21400,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -21247,7 +21483,7 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -21382,7 +21618,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -21465,7 +21701,7 @@
     </row>
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -21600,7 +21836,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -21683,7 +21919,7 @@
     </row>
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -21818,7 +22054,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -21901,7 +22137,7 @@
     </row>
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -22036,7 +22272,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -22119,7 +22355,7 @@
     </row>
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -22254,7 +22490,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -22337,7 +22573,7 @@
     </row>
     <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -22472,7 +22708,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -22555,7 +22791,7 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -22690,7 +22926,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -22773,7 +23009,7 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -22908,7 +23144,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -22991,7 +23227,7 @@
     </row>
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -23126,7 +23362,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -23209,7 +23445,7 @@
     </row>
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -23344,7 +23580,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -23427,7 +23663,7 @@
     </row>
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -23562,7 +23798,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -23645,7 +23881,7 @@
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -23780,7 +24016,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -23863,7 +24099,7 @@
     </row>
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -23998,7 +24234,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -24081,7 +24317,7 @@
     </row>
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -24216,7 +24452,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -24299,7 +24535,7 @@
     </row>
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -24434,7 +24670,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -24517,7 +24753,7 @@
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -24652,7 +24888,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -24735,7 +24971,7 @@
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -24870,7 +25106,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -24953,7 +25189,7 @@
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -25088,7 +25324,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -25171,7 +25407,7 @@
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -25306,7 +25542,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -25389,7 +25625,7 @@
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -25524,7 +25760,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -25607,7 +25843,7 @@
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -25742,7 +25978,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -25825,7 +26061,7 @@
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -25960,7 +26196,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -26043,7 +26279,7 @@
     </row>
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -26178,7 +26414,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -26261,7 +26497,7 @@
     </row>
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -26396,7 +26632,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -26479,7 +26715,7 @@
     </row>
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -26614,7 +26850,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -26697,7 +26933,7 @@
     </row>
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -26832,7 +27068,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -26915,7 +27151,7 @@
     </row>
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -27050,7 +27286,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -27133,7 +27369,7 @@
     </row>
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -27268,7 +27504,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -27351,7 +27587,7 @@
     </row>
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -27486,7 +27722,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -27569,7 +27805,7 @@
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -27704,7 +27940,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -27787,7 +28023,7 @@
     </row>
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -27922,7 +28158,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -28005,7 +28241,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -28140,7 +28376,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -28223,7 +28459,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -28358,7 +28594,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -28441,7 +28677,7 @@
     </row>
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -28576,7 +28812,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -28659,7 +28895,7 @@
     </row>
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -28794,7 +29030,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -28877,7 +29113,7 @@
     </row>
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -29012,7 +29248,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -29095,7 +29331,7 @@
     </row>
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -29230,7 +29466,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -29313,7 +29549,7 @@
     </row>
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -29448,7 +29684,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -29531,7 +29767,7 @@
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -29666,7 +29902,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -29749,7 +29985,7 @@
     </row>
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -29884,7 +30120,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -29967,7 +30203,7 @@
     </row>
     <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
         <v>77</v>
@@ -30102,7 +30338,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -30185,7 +30421,7 @@
     </row>
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -30320,7 +30556,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -30403,7 +30639,7 @@
     </row>
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -30538,7 +30774,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -30621,7 +30857,7 @@
     </row>
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -30756,7 +30992,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -30839,7 +31075,7 @@
     </row>
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -30974,7 +31210,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -31057,7 +31293,7 @@
     </row>
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -31171,7 +31407,7 @@
         <v>81</v>
       </c>
       <c r="AM119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN119" t="s">
         <v>83</v>
@@ -31192,16 +31428,16 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW119" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="AX119" t="s">
         <v>77</v>
@@ -31210,19 +31446,19 @@
         <v>90</v>
       </c>
       <c r="AZ119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA119" t="s">
         <v>77</v>
       </c>
       <c r="BB119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE119" t="s">
         <v>89</v>
@@ -31231,10 +31467,10 @@
         <v>89</v>
       </c>
       <c r="BG119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH119" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI119" t="s">
         <v>91</v>
@@ -31275,7 +31511,7 @@
     </row>
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -31410,7 +31646,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -31493,7 +31729,7 @@
     </row>
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -31628,7 +31864,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -31711,7 +31947,7 @@
     </row>
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -31846,7 +32082,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -31929,7 +32165,7 @@
     </row>
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -32064,7 +32300,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -32147,7 +32383,7 @@
     </row>
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -32282,7 +32518,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -32365,7 +32601,7 @@
     </row>
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -32500,7 +32736,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -32583,7 +32819,7 @@
     </row>
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -32718,7 +32954,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -32801,7 +33037,7 @@
     </row>
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -32936,7 +33172,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -33019,7 +33255,7 @@
     </row>
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -33133,7 +33369,7 @@
         <v>81</v>
       </c>
       <c r="AM128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN128" t="s">
         <v>89</v>
@@ -33154,37 +33390,37 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV128" t="s">
         <v>89</v>
       </c>
       <c r="AW128" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AX128" t="s">
         <v>89</v>
       </c>
       <c r="AY128" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AZ128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA128" t="s">
         <v>77</v>
       </c>
       <c r="BB128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE128" t="s">
         <v>91</v>
@@ -33193,31 +33429,31 @@
         <v>91</v>
       </c>
       <c r="BG128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BJ128" t="s">
         <v>77</v>
       </c>
       <c r="BK128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BL128" t="s">
         <v>77</v>
       </c>
       <c r="BM128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BN128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BO128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BP128" t="s">
         <v>77</v>
@@ -33226,18 +33462,18 @@
         <v>77</v>
       </c>
       <c r="BR128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BS128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BT128" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -33372,7 +33608,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -33455,7 +33691,7 @@
     </row>
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -33590,7 +33826,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -33673,7 +33909,7 @@
     </row>
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -33808,7 +34044,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -33891,7 +34127,7 @@
     </row>
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -34026,7 +34262,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -34109,7 +34345,7 @@
     </row>
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -34244,7 +34480,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -34327,7 +34563,7 @@
     </row>
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -34462,7 +34698,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -34545,7 +34781,7 @@
     </row>
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -34680,7 +34916,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -34763,7 +34999,7 @@
     </row>
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -34898,7 +35134,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -34981,7 +35217,7 @@
     </row>
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -35116,7 +35352,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -35199,7 +35435,7 @@
     </row>
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -35334,7 +35570,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -35417,7 +35653,7 @@
     </row>
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -35552,7 +35788,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -35635,7 +35871,7 @@
     </row>
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -35770,7 +36006,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -35853,7 +36089,7 @@
     </row>
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -35988,7 +36224,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -36071,7 +36307,7 @@
     </row>
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -36206,7 +36442,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -36289,7 +36525,7 @@
     </row>
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -36424,7 +36660,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -36507,7 +36743,7 @@
     </row>
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -36642,7 +36878,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -36725,7 +36961,7 @@
     </row>
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -36860,7 +37096,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -36943,7 +37179,7 @@
     </row>
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -37078,7 +37314,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -37161,7 +37397,7 @@
     </row>
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -37296,7 +37532,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -37379,7 +37615,7 @@
     </row>
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -37514,7 +37750,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -37597,7 +37833,7 @@
     </row>
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -37732,7 +37968,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -37815,7 +38051,7 @@
     </row>
     <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
         <v>77</v>
@@ -37950,7 +38186,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -38033,7 +38269,7 @@
     </row>
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -38168,7 +38404,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -38251,7 +38487,7 @@
     </row>
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -38386,7 +38622,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -38469,7 +38705,7 @@
     </row>
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -38604,7 +38840,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -38687,7 +38923,7 @@
     </row>
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -38822,7 +39058,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -38905,7 +39141,7 @@
     </row>
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -39040,7 +39276,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -39123,7 +39359,7 @@
     </row>
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -39258,7 +39494,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -39341,7 +39577,7 @@
     </row>
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -39476,7 +39712,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -39559,7 +39795,7 @@
     </row>
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -39694,7 +39930,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -39777,7 +40013,7 @@
     </row>
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -39912,7 +40148,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -39995,7 +40231,7 @@
     </row>
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -40130,7 +40366,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -40213,7 +40449,7 @@
     </row>
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -40348,7 +40584,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -40431,7 +40667,7 @@
     </row>
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -40545,10 +40781,10 @@
         <v>81</v>
       </c>
       <c r="AM162" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AO162" t="s">
         <v>77</v>
@@ -40566,37 +40802,37 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW162" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AX162" t="s">
         <v>89</v>
       </c>
       <c r="AY162" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AZ162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA162" t="s">
         <v>77</v>
       </c>
       <c r="BB162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE162" t="s">
         <v>89</v>
@@ -40605,31 +40841,31 @@
         <v>89</v>
       </c>
       <c r="BG162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BJ162" t="s">
         <v>77</v>
       </c>
       <c r="BK162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BL162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BM162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BN162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BO162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BP162" t="s">
         <v>77</v>
@@ -40638,18 +40874,18 @@
         <v>77</v>
       </c>
       <c r="BR162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BS162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BT162" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -40784,7 +41020,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -40867,7 +41103,7 @@
     </row>
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -41002,7 +41238,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -41085,7 +41321,7 @@
     </row>
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -41220,7 +41456,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -41303,7 +41539,7 @@
     </row>
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -41438,7 +41674,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -41521,7 +41757,7 @@
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -41656,7 +41892,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -41739,7 +41975,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -41874,7 +42110,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -41957,13 +42193,13 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C169" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -42092,7 +42328,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU169" t="s">
         <v>89</v>
@@ -42110,7 +42346,7 @@
         <v>90</v>
       </c>
       <c r="AZ169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BA169" t="s">
         <v>77</v>
@@ -42119,22 +42355,22 @@
         <v>91</v>
       </c>
       <c r="BC169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BD169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BE169" t="s">
         <v>91</v>
       </c>
       <c r="BF169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BG169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BH169" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BI169" t="s">
         <v>89</v>
@@ -42175,13 +42411,13 @@
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C170" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -42310,7 +42546,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU170" t="s">
         <v>91</v>
@@ -42328,7 +42564,7 @@
         <v>90</v>
       </c>
       <c r="AZ170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BA170" t="s">
         <v>77</v>
@@ -42337,22 +42573,22 @@
         <v>91</v>
       </c>
       <c r="BC170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BD170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BE170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BF170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BG170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BH170" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="BI170" t="s">
         <v>89</v>
@@ -42393,7 +42629,7 @@
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -42528,7 +42764,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -42611,7 +42847,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -42746,7 +42982,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -42829,7 +43065,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -42964,7 +43200,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -43047,7 +43283,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -43182,7 +43418,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -43265,7 +43501,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -43400,7 +43636,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -43483,7 +43719,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -43618,7 +43854,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -43701,7 +43937,7 @@
     </row>
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -43836,7 +44072,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -43919,7 +44155,7 @@
     </row>
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -44054,7 +44290,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -44137,7 +44373,7 @@
     </row>
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -44272,7 +44508,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -44355,7 +44591,7 @@
     </row>
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -44490,7 +44726,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -44573,7 +44809,7 @@
     </row>
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -44708,7 +44944,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -44791,7 +45027,7 @@
     </row>
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -44926,7 +45162,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -45009,7 +45245,7 @@
     </row>
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -45144,7 +45380,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -45227,7 +45463,7 @@
     </row>
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -45362,7 +45598,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -45445,7 +45681,7 @@
     </row>
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -45580,7 +45816,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -45663,7 +45899,7 @@
     </row>
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -45798,7 +46034,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -45881,7 +46117,7 @@
     </row>
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -45995,7 +46231,7 @@
         <v>81</v>
       </c>
       <c r="AM187" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN187" t="s">
         <v>83</v>
@@ -46016,7 +46252,7 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU187" t="s">
         <v>77</v>
@@ -46025,7 +46261,7 @@
         <v>77</v>
       </c>
       <c r="AW187" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="AX187" t="s">
         <v>77</v>
@@ -46099,7 +46335,7 @@
     </row>
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -46234,7 +46470,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -46317,7 +46553,7 @@
     </row>
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -46452,7 +46688,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -46535,7 +46771,7 @@
     </row>
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -46670,7 +46906,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -46753,7 +46989,7 @@
     </row>
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -46888,7 +47124,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -46971,7 +47207,7 @@
     </row>
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -47106,7 +47342,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -47189,7 +47425,7 @@
     </row>
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -47324,7 +47560,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -47407,7 +47643,7 @@
     </row>
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -47542,7 +47778,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -47625,7 +47861,7 @@
     </row>
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -47760,7 +47996,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -47843,7 +48079,7 @@
     </row>
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -47957,7 +48193,7 @@
         <v>81</v>
       </c>
       <c r="AM196" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN196" t="s">
         <v>91</v>
@@ -47978,7 +48214,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU196" t="s">
         <v>91</v>
@@ -47987,13 +48223,13 @@
         <v>89</v>
       </c>
       <c r="AW196" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AX196" t="s">
         <v>89</v>
       </c>
       <c r="AY196" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AZ196" t="s">
         <v>91</v>
@@ -48002,25 +48238,25 @@
         <v>77</v>
       </c>
       <c r="BB196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD196" t="s">
         <v>89</v>
       </c>
       <c r="BE196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BF196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BG196" t="s">
         <v>89</v>
       </c>
       <c r="BH196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI196" t="s">
         <v>89</v>
@@ -48035,25 +48271,25 @@
         <v>91</v>
       </c>
       <c r="BM196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BN196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BO196" t="s">
         <v>89</v>
       </c>
       <c r="BP196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BQ196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BR196" t="s">
         <v>89</v>
       </c>
       <c r="BS196" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BT196" t="s">
         <v>89</v>
@@ -48061,7 +48297,7 @@
     </row>
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -48196,7 +48432,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -48279,7 +48515,7 @@
     </row>
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -48414,7 +48650,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -48497,7 +48733,7 @@
     </row>
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -48632,7 +48868,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -48715,7 +48951,7 @@
     </row>
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -48850,7 +49086,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -48933,7 +49169,7 @@
     </row>
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -49047,7 +49283,7 @@
         <v>81</v>
       </c>
       <c r="AM201" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN201" t="s">
         <v>83</v>
@@ -49068,16 +49304,16 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW201" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="AX201" t="s">
         <v>77</v>
@@ -49086,19 +49322,19 @@
         <v>90</v>
       </c>
       <c r="AZ201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA201" t="s">
         <v>77</v>
       </c>
       <c r="BB201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE201" t="s">
         <v>89</v>
@@ -49107,10 +49343,10 @@
         <v>89</v>
       </c>
       <c r="BG201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH201" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI201" t="s">
         <v>91</v>
@@ -49265,7 +49501,7 @@
         <v>81</v>
       </c>
       <c r="AM202" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN202" t="s">
         <v>83</v>
@@ -49286,7 +49522,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU202" t="s">
         <v>89</v>
@@ -49295,7 +49531,7 @@
         <v>89</v>
       </c>
       <c r="AW202" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -49369,7 +49605,7 @@
     </row>
     <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -49483,7 +49719,7 @@
         <v>81</v>
       </c>
       <c r="AM203" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN203" t="s">
         <v>83</v>
@@ -49504,16 +49740,16 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW203" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="AX203" t="s">
         <v>77</v>
@@ -49522,19 +49758,19 @@
         <v>90</v>
       </c>
       <c r="AZ203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA203" t="s">
         <v>77</v>
       </c>
       <c r="BB203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE203" t="s">
         <v>89</v>
@@ -49543,10 +49779,10 @@
         <v>89</v>
       </c>
       <c r="BG203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH203" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI203" t="s">
         <v>91</v>
@@ -49587,7 +49823,7 @@
     </row>
     <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -49722,7 +49958,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -49805,7 +50041,7 @@
     </row>
     <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -49940,7 +50176,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -50023,7 +50259,7 @@
     </row>
     <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -50158,7 +50394,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -50241,7 +50477,7 @@
     </row>
     <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -50376,7 +50612,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -50459,7 +50695,7 @@
     </row>
     <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -50594,7 +50830,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -50677,7 +50913,7 @@
     </row>
     <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -50812,7 +51048,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -50895,13 +51131,13 @@
     </row>
     <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -51009,10 +51245,10 @@
         <v>81</v>
       </c>
       <c r="AM210" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AO210" t="s">
         <v>77</v>
@@ -51030,52 +51266,52 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW210" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AX210" t="s">
         <v>89</v>
       </c>
       <c r="AY210" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AZ210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA210" t="s">
         <v>77</v>
       </c>
       <c r="BB210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD210" t="s">
         <v>89</v>
       </c>
       <c r="BE210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BF210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BG210" t="s">
         <v>89</v>
       </c>
       <c r="BH210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BJ210" t="s">
         <v>77</v>
@@ -51084,36 +51320,36 @@
         <v>91</v>
       </c>
       <c r="BL210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BM210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BN210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BO210" t="s">
         <v>89</v>
       </c>
       <c r="BP210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BQ210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BR210" t="s">
         <v>89</v>
       </c>
       <c r="BS210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BT210" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -51248,7 +51484,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -51331,7 +51567,7 @@
     </row>
     <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -51466,7 +51702,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -51549,7 +51785,7 @@
     </row>
     <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -51684,7 +51920,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -51767,7 +52003,7 @@
     </row>
     <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -51902,7 +52138,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -51985,7 +52221,7 @@
     </row>
     <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -52120,7 +52356,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -52203,7 +52439,7 @@
     </row>
     <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -52338,7 +52574,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -52421,7 +52657,7 @@
     </row>
     <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -52556,7 +52792,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -52639,7 +52875,7 @@
     </row>
     <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -52774,7 +53010,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -52857,7 +53093,7 @@
     </row>
     <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -52992,7 +53228,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -53075,7 +53311,7 @@
     </row>
     <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -53210,7 +53446,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -53293,7 +53529,7 @@
     </row>
     <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -53428,7 +53664,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -53511,7 +53747,7 @@
     </row>
     <row r="222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B222" t="s">
         <v>77</v>
@@ -53646,7 +53882,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -53729,7 +53965,7 @@
     </row>
     <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -53864,7 +54100,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -53947,7 +54183,7 @@
     </row>
     <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -54082,7 +54318,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -54165,7 +54401,7 @@
     </row>
     <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -54300,7 +54536,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -54383,7 +54619,7 @@
     </row>
     <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -54518,7 +54754,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -54601,7 +54837,7 @@
     </row>
     <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -54736,7 +54972,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -54819,7 +55055,7 @@
     </row>
     <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -54954,7 +55190,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -55037,7 +55273,7 @@
     </row>
     <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -55172,13 +55408,13 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW229" t="s">
         <v>77</v>
@@ -55190,19 +55426,19 @@
         <v>90</v>
       </c>
       <c r="AZ229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA229" t="s">
         <v>77</v>
       </c>
       <c r="BB229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE229" t="s">
         <v>89</v>
@@ -55211,10 +55447,10 @@
         <v>89</v>
       </c>
       <c r="BG229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH229" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI229" t="s">
         <v>91</v>
@@ -55255,7 +55491,7 @@
     </row>
     <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -55390,7 +55626,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -55473,7 +55709,7 @@
     </row>
     <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -55608,7 +55844,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -55691,7 +55927,7 @@
     </row>
     <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -55826,7 +56062,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -55909,7 +56145,7 @@
     </row>
     <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -56044,7 +56280,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -56127,7 +56363,7 @@
     </row>
     <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -56262,7 +56498,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -56345,7 +56581,7 @@
     </row>
     <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -56480,7 +56716,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -56563,7 +56799,7 @@
     </row>
     <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -56698,7 +56934,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -56781,7 +57017,7 @@
     </row>
     <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -56916,13 +57152,13 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW237" t="s">
         <v>77</v>
@@ -56934,19 +57170,19 @@
         <v>90</v>
       </c>
       <c r="AZ237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA237" t="s">
         <v>77</v>
       </c>
       <c r="BB237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE237" t="s">
         <v>89</v>
@@ -56955,10 +57191,10 @@
         <v>89</v>
       </c>
       <c r="BG237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH237" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI237" t="s">
         <v>91</v>
@@ -56999,7 +57235,7 @@
     </row>
     <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -57134,7 +57370,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -57217,7 +57453,7 @@
     </row>
     <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -57352,7 +57588,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -57435,7 +57671,7 @@
     </row>
     <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -57570,7 +57806,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -57653,7 +57889,7 @@
     </row>
     <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -57788,7 +58024,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -57871,7 +58107,7 @@
     </row>
     <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -58006,7 +58242,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -58089,7 +58325,7 @@
     </row>
     <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -58224,7 +58460,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -58307,7 +58543,7 @@
     </row>
     <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -58442,7 +58678,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -58525,7 +58761,7 @@
     </row>
     <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -58660,7 +58896,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -58743,7 +58979,7 @@
     </row>
     <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -58878,7 +59114,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -58961,7 +59197,7 @@
     </row>
     <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -59096,7 +59332,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -59179,7 +59415,7 @@
     </row>
     <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -59314,7 +59550,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -59397,7 +59633,7 @@
     </row>
     <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -59532,13 +59768,13 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AU249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AV249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AW249" t="s">
         <v>77</v>
@@ -59550,19 +59786,19 @@
         <v>90</v>
       </c>
       <c r="AZ249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BA249" t="s">
         <v>77</v>
       </c>
       <c r="BB249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BC249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BD249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BE249" t="s">
         <v>89</v>
@@ -59571,10 +59807,10 @@
         <v>89</v>
       </c>
       <c r="BG249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BH249" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="BI249" t="s">
         <v>91</v>

--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18798" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19435" uniqueCount="375">
   <si>
     <r>
       <rPr>
@@ -827,7 +827,7 @@
     <t/>
   </si>
   <si>
-    <t>3GGYu</t>
+    <t>pAyTl</t>
   </si>
   <si>
     <t>Automation01</t>
@@ -977,13 +977,13 @@
     <t>6809cae3983bed769dede205</t>
   </si>
   <si>
-    <t>Test_SNzs</t>
+    <t>Test_yHk8</t>
   </si>
   <si>
-    <t>piyush.soni+bdgv@47billion.com</t>
+    <t>piyush.soni+1uni@47billion.com</t>
   </si>
   <si>
-    <t>User_PwIz</t>
+    <t>User_SCAV</t>
   </si>
   <si>
     <t>random</t>
@@ -992,19 +992,22 @@
     <t>Requested</t>
   </si>
   <si>
-    <t>680f355caaf2b21e1605e30a</t>
+    <t>6819c4212ae94f4d3ed66522</t>
   </si>
   <si>
-    <t>piyushregression01</t>
+    <t>j</t>
   </si>
   <si>
-    <t>AF, IN, DE</t>
+    <t>8arpilauto</t>
+  </si>
+  <si>
+    <t>AF, IN</t>
   </si>
   <si>
     <t>PS_00, PS_12</t>
   </si>
   <si>
-    <t>piyushregression01@yopmail.com</t>
+    <t>8arpilauto@yopmail.com</t>
   </si>
   <si>
     <t>Accepted</t>
@@ -1016,7 +1019,7 @@
     <t>Low</t>
   </si>
   <si>
-    <t>680f6096aaf2b21e1606082d</t>
+    <t>681c75f3312f4e1d8e820749</t>
   </si>
   <si>
     <t>Very high</t>
@@ -1028,34 +1031,46 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Test_Kf7T</t>
+    <t>Test_ZbU4</t>
   </si>
   <si>
-    <t>piyush.soni+iw67@47billion.com</t>
+    <t>piyush.soni+y2iu@47billion.com</t>
   </si>
   <si>
-    <t>User_LZSn</t>
+    <t>User_VMnS</t>
   </si>
   <si>
-    <t>680f62ebaaf2b21e160622b6</t>
+    <t>681c80d5312f4e1d8e82dac1</t>
   </si>
   <si>
-    <t>hopsies</t>
+    <t>test shubham</t>
   </si>
   <si>
-    <t>zafar.irshad@daato.net</t>
+    <t>AS</t>
   </si>
   <si>
-    <t>680f8fb7aaf2b21e1606516d</t>
+    <t>PS_231</t>
   </si>
   <si>
-    <t>firstdata01</t>
+    <t>chf</t>
   </si>
   <si>
-    <t>firstdata01@yopmail.com</t>
+    <t>shubham.vyas+001@47billion.com</t>
   </si>
   <si>
-    <t>681067faaaf2b21e16066236</t>
+    <t>681d9989959b6522c3ed1d49</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>12mayregression01</t>
+  </si>
+  <si>
+    <t>12mayregression01@yopmail.com</t>
+  </si>
+  <si>
+    <t>6821c39ff4e93326fec357c2</t>
   </si>
   <si>
     <t>Level 1 ESRS</t>
@@ -1353,9 +1368,6 @@
   </si>
   <si>
     <t>own business-1</t>
-  </si>
-  <si>
-    <t>pending</t>
   </si>
   <si>
     <t>MY entity</t>
@@ -1676,7 +1688,34 @@
     <t>Entity piyush</t>
   </si>
   <si>
-    <t>y5pMv</t>
+    <t>Divya_Parent_30</t>
+  </si>
+  <si>
+    <t>Divya_Child_30</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Automatedesrsparent6582</t>
+  </si>
+  <si>
+    <t>Automatedesrschild5394</t>
+  </si>
+  <si>
+    <t>Divya parent_8</t>
+  </si>
+  <si>
+    <t>Divya child_8</t>
+  </si>
+  <si>
+    <t>ESRS parent - SV</t>
+  </si>
+  <si>
+    <t>ESRS child-SV</t>
+  </si>
+  <si>
+    <t>GnysN</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2348,7 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -4593,17 +4632,17 @@
       <c r="AQ12" t="s">
         <v>133</v>
       </c>
-      <c r="AR12" t="s">
-        <v>77</v>
+      <c r="AR12" t="b">
+        <v>1</v>
       </c>
       <c r="AS12" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AT12" t="s">
         <v>88</v>
       </c>
       <c r="AU12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AV12" t="s">
         <v>89</v>
@@ -4683,31 +4722,31 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>134</v>
       </c>
       <c r="J13" t="s">
         <v>77</v>
@@ -4794,13 +4833,13 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO13" t="s">
         <v>77</v>
@@ -4809,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AQ13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AR13" t="s">
         <v>77</v>
@@ -4821,87 +4860,87 @@
         <v>88</v>
       </c>
       <c r="AU13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV13" t="s">
         <v>89</v>
       </c>
       <c r="AW13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX13" t="s">
         <v>89</v>
       </c>
       <c r="AY13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA13" t="s">
         <v>77</v>
       </c>
       <c r="BB13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BC13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BF13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BG13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BJ13" t="s">
         <v>77</v>
       </c>
       <c r="BK13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BN13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BO13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BP13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BQ13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BR13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BS13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BT13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -4916,7 +4955,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>77</v>
@@ -4925,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
         <v>131</v>
@@ -5027,7 +5066,7 @@
         <v>77</v>
       </c>
       <c r="AQ14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AR14" t="s">
         <v>77</v>
@@ -5119,22 +5158,22 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
+        <v>152</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -5230,10 +5269,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="s">
         <v>83</v>
@@ -5245,7 +5284,7 @@
         <v>77</v>
       </c>
       <c r="AQ15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AR15" t="s">
         <v>77</v>
@@ -5257,13 +5296,13 @@
         <v>88</v>
       </c>
       <c r="AU15" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="AV15" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="AW15" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AX15" t="s">
         <v>77</v>
@@ -5272,34 +5311,34 @@
         <v>90</v>
       </c>
       <c r="AZ15" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="BA15" t="s">
         <v>77</v>
       </c>
       <c r="BB15" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="BC15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BD15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BE15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI15" t="s">
         <v>89</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>91</v>
       </c>
       <c r="BJ15" t="s">
         <v>77</v>
@@ -5337,13 +5376,13 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -5352,7 +5391,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -5361,7 +5400,7 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
         <v>77</v>
@@ -5448,13 +5487,13 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO16" t="s">
         <v>77</v>
@@ -5463,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="AQ16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AR16" t="s">
         <v>77</v>
@@ -5475,82 +5514,82 @@
         <v>88</v>
       </c>
       <c r="AU16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AV16" t="s">
         <v>89</v>
       </c>
       <c r="AW16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX16" t="s">
         <v>89</v>
       </c>
       <c r="AY16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BA16" t="s">
         <v>77</v>
       </c>
       <c r="BB16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BC16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BF16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BG16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BJ16" t="s">
         <v>77</v>
       </c>
       <c r="BK16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BL16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BN16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BO16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BP16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BQ16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BR16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BS16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BT16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5561,7 +5600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT249"/>
+  <dimension ref="A1:BT258"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="72" customWidth="true" width="20.0" collapsed="false"/>
@@ -5787,7 +5826,7 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -5922,10 +5961,10 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV2" t="s">
         <v>77</v>
@@ -5940,13 +5979,13 @@
         <v>90</v>
       </c>
       <c r="AZ2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA2" t="s">
         <v>77</v>
       </c>
       <c r="BB2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC2" t="s">
         <v>77</v>
@@ -6005,7 +6044,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -6140,7 +6179,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -6223,7 +6262,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -6358,7 +6397,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -6441,13 +6480,13 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -6576,7 +6615,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU5" t="s">
         <v>89</v>
@@ -6594,7 +6633,7 @@
         <v>90</v>
       </c>
       <c r="AZ5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BA5" t="s">
         <v>77</v>
@@ -6603,25 +6642,25 @@
         <v>91</v>
       </c>
       <c r="BC5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BF5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BG5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BJ5" t="s">
         <v>77</v>
@@ -6659,7 +6698,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -6794,7 +6833,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -6877,7 +6916,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -7012,7 +7051,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -7095,7 +7134,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -7230,7 +7269,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -7313,7 +7352,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -7448,10 +7487,10 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV9" t="s">
         <v>77</v>
@@ -7466,7 +7505,7 @@
         <v>90</v>
       </c>
       <c r="AZ9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA9" t="s">
         <v>77</v>
@@ -7531,7 +7570,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -7666,7 +7705,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -7749,7 +7788,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -7884,7 +7923,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -7967,7 +8006,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -8102,7 +8141,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -8185,7 +8224,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -8320,7 +8359,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -8403,7 +8442,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -8538,7 +8577,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -8621,7 +8660,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -8756,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -8839,7 +8878,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -8974,7 +9013,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -9057,7 +9096,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -9192,7 +9231,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -9275,7 +9314,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -9410,7 +9449,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -9493,7 +9532,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -9628,7 +9667,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -9711,7 +9750,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -9846,7 +9885,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -9929,7 +9968,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -10064,7 +10103,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -10147,13 +10186,13 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -10282,7 +10321,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU22" t="s">
         <v>89</v>
@@ -10321,7 +10360,7 @@
         <v>91</v>
       </c>
       <c r="BG22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH22" t="s">
         <v>91</v>
@@ -10365,7 +10404,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -10500,7 +10539,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -10583,7 +10622,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -10718,7 +10757,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -10801,7 +10840,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -10936,7 +10975,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -11019,7 +11058,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -11154,7 +11193,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -11237,7 +11276,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -11372,7 +11411,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -11455,7 +11494,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11590,7 +11629,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -11673,7 +11712,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -11808,7 +11847,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -11891,7 +11930,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -12026,7 +12065,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -12109,7 +12148,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -12244,7 +12283,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -12327,7 +12366,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -12462,7 +12501,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -12545,7 +12584,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -12680,7 +12719,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -12763,7 +12802,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -12898,7 +12937,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -12981,7 +13020,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -13116,7 +13155,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -13199,7 +13238,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -13334,7 +13373,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -13417,7 +13456,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -13552,7 +13591,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -13635,7 +13674,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -13770,7 +13809,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -13853,7 +13892,7 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -13988,7 +14027,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -14071,7 +14110,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -14206,7 +14245,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -14289,7 +14328,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -14424,7 +14463,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -14507,7 +14546,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -14642,7 +14681,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -14725,7 +14764,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -14860,7 +14899,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -14943,7 +14982,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -15078,7 +15117,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -15161,7 +15200,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -15296,7 +15335,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -15379,7 +15418,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -15514,7 +15553,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -15597,7 +15636,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -15732,7 +15771,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -15815,7 +15854,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -15950,7 +15989,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -16033,7 +16072,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -16168,7 +16207,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -16251,7 +16290,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -16386,7 +16425,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -16469,7 +16508,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -16604,7 +16643,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -16687,7 +16726,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -16822,7 +16861,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -16905,7 +16944,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -17040,7 +17079,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -17123,7 +17162,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -17258,7 +17297,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -17341,7 +17380,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -17476,7 +17515,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -17559,7 +17598,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -17694,7 +17733,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -17777,7 +17816,7 @@
     </row>
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
@@ -17912,7 +17951,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -17995,7 +18034,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -18130,7 +18169,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -18213,7 +18252,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -18348,7 +18387,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -18431,7 +18470,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -18566,7 +18605,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -18649,7 +18688,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -18784,7 +18823,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -18867,7 +18906,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -19002,7 +19041,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -19085,7 +19124,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -19220,7 +19259,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -19303,7 +19342,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -19438,7 +19477,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -19521,7 +19560,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -19656,7 +19695,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -19739,7 +19778,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -19874,7 +19913,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -19957,7 +19996,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -20092,7 +20131,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -20175,7 +20214,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -20310,7 +20349,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -20393,7 +20432,7 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -20528,7 +20567,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -20611,7 +20650,7 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -20746,7 +20785,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -20829,7 +20868,7 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -20964,7 +21003,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -21047,7 +21086,7 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -21182,7 +21221,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -21265,7 +21304,7 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -21400,7 +21439,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -21483,7 +21522,7 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -21618,7 +21657,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -21701,7 +21740,7 @@
     </row>
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -21836,7 +21875,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -21919,7 +21958,7 @@
     </row>
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -22054,7 +22093,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -22137,7 +22176,7 @@
     </row>
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -22272,7 +22311,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -22355,7 +22394,7 @@
     </row>
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -22490,7 +22529,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -22573,7 +22612,7 @@
     </row>
     <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -22708,7 +22747,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -22791,7 +22830,7 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -22926,7 +22965,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -23009,7 +23048,7 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -23144,7 +23183,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -23227,7 +23266,7 @@
     </row>
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -23362,7 +23401,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -23445,7 +23484,7 @@
     </row>
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -23580,7 +23619,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -23663,7 +23702,7 @@
     </row>
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -23798,7 +23837,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -23881,7 +23920,7 @@
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -24016,7 +24055,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -24099,7 +24138,7 @@
     </row>
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -24234,7 +24273,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -24317,7 +24356,7 @@
     </row>
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -24452,7 +24491,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -24535,7 +24574,7 @@
     </row>
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -24670,7 +24709,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -24753,7 +24792,7 @@
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -24888,7 +24927,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -24971,7 +25010,7 @@
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -25106,7 +25145,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -25189,7 +25228,7 @@
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -25324,7 +25363,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -25407,7 +25446,7 @@
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -25542,7 +25581,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -25625,7 +25664,7 @@
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -25760,7 +25799,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -25843,7 +25882,7 @@
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -25978,7 +26017,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -26061,7 +26100,7 @@
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -26196,7 +26235,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -26279,7 +26318,7 @@
     </row>
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -26414,7 +26453,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -26497,7 +26536,7 @@
     </row>
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -26632,7 +26671,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -26715,7 +26754,7 @@
     </row>
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -26850,7 +26889,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -26933,7 +26972,7 @@
     </row>
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -27068,7 +27107,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -27151,7 +27190,7 @@
     </row>
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -27286,7 +27325,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -27369,7 +27408,7 @@
     </row>
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -27504,7 +27543,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -27587,7 +27626,7 @@
     </row>
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -27722,7 +27761,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -27805,7 +27844,7 @@
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -27940,7 +27979,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -28023,7 +28062,7 @@
     </row>
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -28158,7 +28197,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -28241,7 +28280,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -28376,7 +28415,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -28459,7 +28498,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -28594,7 +28633,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -28677,7 +28716,7 @@
     </row>
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -28812,7 +28851,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -28895,7 +28934,7 @@
     </row>
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -29030,7 +29069,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -29113,7 +29152,7 @@
     </row>
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -29248,7 +29287,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -29331,7 +29370,7 @@
     </row>
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -29466,7 +29505,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -29549,7 +29588,7 @@
     </row>
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -29684,7 +29723,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -29767,7 +29806,7 @@
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -29902,7 +29941,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -29985,7 +30024,7 @@
     </row>
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -30120,7 +30159,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -30203,7 +30242,7 @@
     </row>
     <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s">
         <v>77</v>
@@ -30338,7 +30377,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -30421,7 +30460,7 @@
     </row>
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -30556,7 +30595,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -30639,7 +30678,7 @@
     </row>
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -30774,7 +30813,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -30857,7 +30896,7 @@
     </row>
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -30992,7 +31031,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -31075,7 +31114,7 @@
     </row>
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -31210,7 +31249,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -31293,7 +31332,7 @@
     </row>
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -31407,7 +31446,7 @@
         <v>81</v>
       </c>
       <c r="AM119" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN119" t="s">
         <v>83</v>
@@ -31428,16 +31467,16 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV119" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW119" t="s">
         <v>156</v>
-      </c>
-      <c r="AU119" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV119" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW119" t="s">
-        <v>254</v>
       </c>
       <c r="AX119" t="s">
         <v>77</v>
@@ -31446,19 +31485,19 @@
         <v>90</v>
       </c>
       <c r="AZ119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA119" t="s">
         <v>77</v>
       </c>
       <c r="BB119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE119" t="s">
         <v>89</v>
@@ -31467,10 +31506,10 @@
         <v>89</v>
       </c>
       <c r="BG119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI119" t="s">
         <v>91</v>
@@ -31511,7 +31550,7 @@
     </row>
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -31646,7 +31685,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -31729,7 +31768,7 @@
     </row>
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -31864,7 +31903,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -31947,7 +31986,7 @@
     </row>
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -32082,7 +32121,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -32165,7 +32204,7 @@
     </row>
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -32300,7 +32339,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -32383,7 +32422,7 @@
     </row>
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -32518,7 +32557,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -32601,7 +32640,7 @@
     </row>
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -32736,7 +32775,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -32819,7 +32858,7 @@
     </row>
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -32954,7 +32993,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -33037,7 +33076,7 @@
     </row>
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -33172,7 +33211,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -33255,7 +33294,7 @@
     </row>
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -33369,7 +33408,7 @@
         <v>81</v>
       </c>
       <c r="AM128" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN128" t="s">
         <v>89</v>
@@ -33390,37 +33429,37 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV128" t="s">
         <v>89</v>
       </c>
       <c r="AW128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX128" t="s">
         <v>89</v>
       </c>
       <c r="AY128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA128" t="s">
         <v>77</v>
       </c>
       <c r="BB128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE128" t="s">
         <v>91</v>
@@ -33429,31 +33468,31 @@
         <v>91</v>
       </c>
       <c r="BG128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BJ128" t="s">
         <v>77</v>
       </c>
       <c r="BK128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BL128" t="s">
         <v>77</v>
       </c>
       <c r="BM128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BN128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BP128" t="s">
         <v>77</v>
@@ -33462,18 +33501,18 @@
         <v>77</v>
       </c>
       <c r="BR128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BT128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -33608,7 +33647,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -33691,7 +33730,7 @@
     </row>
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -33826,7 +33865,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -33909,7 +33948,7 @@
     </row>
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -34044,7 +34083,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -34127,7 +34166,7 @@
     </row>
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -34262,7 +34301,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -34345,7 +34384,7 @@
     </row>
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -34480,7 +34519,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -34563,7 +34602,7 @@
     </row>
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -34698,7 +34737,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -34781,7 +34820,7 @@
     </row>
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -34916,7 +34955,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -34999,7 +35038,7 @@
     </row>
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -35134,7 +35173,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -35217,7 +35256,7 @@
     </row>
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -35352,7 +35391,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -35435,7 +35474,7 @@
     </row>
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -35570,7 +35609,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -35653,7 +35692,7 @@
     </row>
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -35788,7 +35827,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -35871,7 +35910,7 @@
     </row>
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -36006,7 +36045,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -36089,7 +36128,7 @@
     </row>
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -36224,7 +36263,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -36307,7 +36346,7 @@
     </row>
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -36442,7 +36481,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -36525,7 +36564,7 @@
     </row>
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -36660,7 +36699,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -36743,7 +36782,7 @@
     </row>
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -36878,7 +36917,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -36961,7 +37000,7 @@
     </row>
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -37096,7 +37135,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -37179,7 +37218,7 @@
     </row>
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -37314,7 +37353,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -37397,7 +37436,7 @@
     </row>
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -37532,7 +37571,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -37615,7 +37654,7 @@
     </row>
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -37750,7 +37789,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -37833,7 +37872,7 @@
     </row>
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -37968,7 +38007,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -38051,7 +38090,7 @@
     </row>
     <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B150" t="s">
         <v>77</v>
@@ -38186,7 +38225,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -38269,7 +38308,7 @@
     </row>
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -38404,7 +38443,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -38487,7 +38526,7 @@
     </row>
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -38622,7 +38661,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -38705,7 +38744,7 @@
     </row>
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -38840,7 +38879,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -38923,7 +38962,7 @@
     </row>
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -39058,7 +39097,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -39141,7 +39180,7 @@
     </row>
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -39276,7 +39315,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -39359,7 +39398,7 @@
     </row>
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -39494,7 +39533,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -39577,7 +39616,7 @@
     </row>
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -39712,7 +39751,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -39795,7 +39834,7 @@
     </row>
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -39930,7 +39969,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -40013,7 +40052,7 @@
     </row>
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -40148,7 +40187,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -40231,7 +40270,7 @@
     </row>
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -40366,7 +40405,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -40449,7 +40488,7 @@
     </row>
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -40584,7 +40623,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -40667,7 +40706,7 @@
     </row>
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -40781,10 +40820,10 @@
         <v>81</v>
       </c>
       <c r="AM162" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO162" t="s">
         <v>77</v>
@@ -40802,37 +40841,37 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW162" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX162" t="s">
         <v>89</v>
       </c>
       <c r="AY162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA162" t="s">
         <v>77</v>
       </c>
       <c r="BB162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE162" t="s">
         <v>89</v>
@@ -40841,31 +40880,31 @@
         <v>89</v>
       </c>
       <c r="BG162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BJ162" t="s">
         <v>77</v>
       </c>
       <c r="BK162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BL162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BM162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BN162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BP162" t="s">
         <v>77</v>
@@ -40874,18 +40913,18 @@
         <v>77</v>
       </c>
       <c r="BR162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BS162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BT162" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -41020,7 +41059,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -41103,7 +41142,7 @@
     </row>
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -41238,7 +41277,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -41321,7 +41360,7 @@
     </row>
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -41456,7 +41495,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -41539,7 +41578,7 @@
     </row>
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -41674,7 +41713,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -41757,7 +41796,7 @@
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -41892,7 +41931,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -41975,7 +42014,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -42110,7 +42149,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -42193,13 +42232,13 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B169" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -42328,7 +42367,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU169" t="s">
         <v>89</v>
@@ -42346,7 +42385,7 @@
         <v>90</v>
       </c>
       <c r="AZ169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BA169" t="s">
         <v>77</v>
@@ -42355,22 +42394,22 @@
         <v>91</v>
       </c>
       <c r="BC169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE169" t="s">
         <v>91</v>
       </c>
       <c r="BF169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BG169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH169" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI169" t="s">
         <v>89</v>
@@ -42411,13 +42450,13 @@
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C170" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -42546,7 +42585,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU170" t="s">
         <v>91</v>
@@ -42564,7 +42603,7 @@
         <v>90</v>
       </c>
       <c r="AZ170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BA170" t="s">
         <v>77</v>
@@ -42573,22 +42612,22 @@
         <v>91</v>
       </c>
       <c r="BC170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BE170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BF170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BG170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BH170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BI170" t="s">
         <v>89</v>
@@ -42629,7 +42668,7 @@
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -42764,7 +42803,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -42847,7 +42886,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -42982,7 +43021,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -43065,7 +43104,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -43200,7 +43239,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -43283,7 +43322,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -43418,7 +43457,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -43501,7 +43540,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -43636,7 +43675,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -43719,7 +43758,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -43854,7 +43893,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -43937,7 +43976,7 @@
     </row>
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -44072,7 +44111,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -44155,7 +44194,7 @@
     </row>
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -44290,7 +44329,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -44373,7 +44412,7 @@
     </row>
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -44508,7 +44547,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -44591,7 +44630,7 @@
     </row>
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -44726,7 +44765,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -44809,7 +44848,7 @@
     </row>
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -44944,7 +44983,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -45027,7 +45066,7 @@
     </row>
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -45162,7 +45201,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -45245,7 +45284,7 @@
     </row>
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -45380,7 +45419,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -45463,7 +45502,7 @@
     </row>
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -45598,7 +45637,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -45681,7 +45720,7 @@
     </row>
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -45816,7 +45855,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -45899,7 +45938,7 @@
     </row>
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -46034,7 +46073,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -46117,7 +46156,7 @@
     </row>
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -46231,7 +46270,7 @@
         <v>81</v>
       </c>
       <c r="AM187" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN187" t="s">
         <v>83</v>
@@ -46252,16 +46291,16 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW187" t="s">
         <v>156</v>
-      </c>
-      <c r="AU187" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV187" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW187" t="s">
-        <v>254</v>
       </c>
       <c r="AX187" t="s">
         <v>77</v>
@@ -46335,7 +46374,7 @@
     </row>
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -46470,7 +46509,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -46553,7 +46592,7 @@
     </row>
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -46688,7 +46727,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -46771,7 +46810,7 @@
     </row>
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -46906,7 +46945,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -46989,7 +47028,7 @@
     </row>
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -47124,7 +47163,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -47207,7 +47246,7 @@
     </row>
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -47342,7 +47381,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -47425,7 +47464,7 @@
     </row>
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -47560,7 +47599,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -47643,7 +47682,7 @@
     </row>
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -47778,7 +47817,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -47861,7 +47900,7 @@
     </row>
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -47996,7 +48035,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -48079,7 +48118,7 @@
     </row>
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -48193,7 +48232,7 @@
         <v>81</v>
       </c>
       <c r="AM196" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN196" t="s">
         <v>91</v>
@@ -48214,7 +48253,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU196" t="s">
         <v>91</v>
@@ -48223,13 +48262,13 @@
         <v>89</v>
       </c>
       <c r="AW196" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX196" t="s">
         <v>89</v>
       </c>
       <c r="AY196" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ196" t="s">
         <v>91</v>
@@ -48238,25 +48277,25 @@
         <v>77</v>
       </c>
       <c r="BB196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD196" t="s">
         <v>89</v>
       </c>
       <c r="BE196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BF196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BG196" t="s">
         <v>89</v>
       </c>
       <c r="BH196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI196" t="s">
         <v>89</v>
@@ -48271,25 +48310,25 @@
         <v>91</v>
       </c>
       <c r="BM196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BN196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO196" t="s">
         <v>89</v>
       </c>
       <c r="BP196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BQ196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BR196" t="s">
         <v>89</v>
       </c>
       <c r="BS196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BT196" t="s">
         <v>89</v>
@@ -48297,7 +48336,7 @@
     </row>
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -48432,7 +48471,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -48515,7 +48554,7 @@
     </row>
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -48650,7 +48689,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -48733,7 +48772,7 @@
     </row>
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -48868,7 +48907,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -48951,7 +48990,7 @@
     </row>
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -49086,7 +49125,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -49169,7 +49208,7 @@
     </row>
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -49283,7 +49322,7 @@
         <v>81</v>
       </c>
       <c r="AM201" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN201" t="s">
         <v>83</v>
@@ -49304,16 +49343,16 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW201" t="s">
         <v>156</v>
-      </c>
-      <c r="AU201" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV201" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW201" t="s">
-        <v>254</v>
       </c>
       <c r="AX201" t="s">
         <v>77</v>
@@ -49322,19 +49361,19 @@
         <v>90</v>
       </c>
       <c r="AZ201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA201" t="s">
         <v>77</v>
       </c>
       <c r="BB201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE201" t="s">
         <v>89</v>
@@ -49343,10 +49382,10 @@
         <v>89</v>
       </c>
       <c r="BG201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH201" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI201" t="s">
         <v>91</v>
@@ -49501,7 +49540,7 @@
         <v>81</v>
       </c>
       <c r="AM202" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN202" t="s">
         <v>83</v>
@@ -49522,7 +49561,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU202" t="s">
         <v>89</v>
@@ -49531,7 +49570,7 @@
         <v>89</v>
       </c>
       <c r="AW202" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -49605,7 +49644,7 @@
     </row>
     <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -49719,7 +49758,7 @@
         <v>81</v>
       </c>
       <c r="AM203" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN203" t="s">
         <v>83</v>
@@ -49740,16 +49779,16 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW203" t="s">
         <v>156</v>
-      </c>
-      <c r="AU203" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV203" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW203" t="s">
-        <v>254</v>
       </c>
       <c r="AX203" t="s">
         <v>77</v>
@@ -49758,19 +49797,19 @@
         <v>90</v>
       </c>
       <c r="AZ203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA203" t="s">
         <v>77</v>
       </c>
       <c r="BB203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE203" t="s">
         <v>89</v>
@@ -49779,10 +49818,10 @@
         <v>89</v>
       </c>
       <c r="BG203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH203" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI203" t="s">
         <v>91</v>
@@ -49823,7 +49862,7 @@
     </row>
     <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -49958,7 +49997,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -50041,7 +50080,7 @@
     </row>
     <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -50176,7 +50215,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -50259,7 +50298,7 @@
     </row>
     <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -50394,7 +50433,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -50477,7 +50516,7 @@
     </row>
     <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -50612,7 +50651,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -50695,7 +50734,7 @@
     </row>
     <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -50830,7 +50869,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -50913,7 +50952,7 @@
     </row>
     <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -51048,7 +51087,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -51131,13 +51170,13 @@
     </row>
     <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -51245,10 +51284,10 @@
         <v>81</v>
       </c>
       <c r="AM210" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO210" t="s">
         <v>77</v>
@@ -51266,52 +51305,52 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW210" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AX210" t="s">
         <v>89</v>
       </c>
       <c r="AY210" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AZ210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA210" t="s">
         <v>77</v>
       </c>
       <c r="BB210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD210" t="s">
         <v>89</v>
       </c>
       <c r="BE210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BF210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BG210" t="s">
         <v>89</v>
       </c>
       <c r="BH210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BJ210" t="s">
         <v>77</v>
@@ -51320,36 +51359,36 @@
         <v>91</v>
       </c>
       <c r="BL210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BM210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BN210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO210" t="s">
         <v>89</v>
       </c>
       <c r="BP210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BQ210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BR210" t="s">
         <v>89</v>
       </c>
       <c r="BS210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BT210" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -51484,7 +51523,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -51567,7 +51606,7 @@
     </row>
     <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -51702,7 +51741,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -51785,7 +51824,7 @@
     </row>
     <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -51920,7 +51959,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -52003,7 +52042,7 @@
     </row>
     <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -52138,7 +52177,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -52221,7 +52260,7 @@
     </row>
     <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -52356,7 +52395,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -52439,7 +52478,7 @@
     </row>
     <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -52574,7 +52613,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -52657,7 +52696,7 @@
     </row>
     <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -52792,7 +52831,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -52875,7 +52914,7 @@
     </row>
     <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -53010,7 +53049,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -53093,7 +53132,7 @@
     </row>
     <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -53228,7 +53267,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -53311,7 +53350,7 @@
     </row>
     <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -53446,7 +53485,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -53529,7 +53568,7 @@
     </row>
     <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -53664,7 +53703,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -53747,7 +53786,7 @@
     </row>
     <row r="222" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s">
         <v>77</v>
@@ -53882,7 +53921,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -53965,7 +54004,7 @@
     </row>
     <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -54100,7 +54139,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -54183,7 +54222,7 @@
     </row>
     <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -54318,7 +54357,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -54401,7 +54440,7 @@
     </row>
     <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -54536,7 +54575,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -54619,7 +54658,7 @@
     </row>
     <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -54754,7 +54793,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -54837,7 +54876,7 @@
     </row>
     <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -54972,7 +55011,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -55055,7 +55094,7 @@
     </row>
     <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -55190,7 +55229,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -55273,7 +55312,7 @@
     </row>
     <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -55408,13 +55447,13 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW229" t="s">
         <v>77</v>
@@ -55426,19 +55465,19 @@
         <v>90</v>
       </c>
       <c r="AZ229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA229" t="s">
         <v>77</v>
       </c>
       <c r="BB229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE229" t="s">
         <v>89</v>
@@ -55447,10 +55486,10 @@
         <v>89</v>
       </c>
       <c r="BG229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI229" t="s">
         <v>91</v>
@@ -55491,7 +55530,7 @@
     </row>
     <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -55626,7 +55665,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -55709,7 +55748,7 @@
     </row>
     <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -55844,7 +55883,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -55927,7 +55966,7 @@
     </row>
     <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -56062,7 +56101,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -56145,7 +56184,7 @@
     </row>
     <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -56280,7 +56319,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -56363,7 +56402,7 @@
     </row>
     <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -56498,7 +56537,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -56581,7 +56620,7 @@
     </row>
     <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -56716,7 +56755,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -56799,7 +56838,7 @@
     </row>
     <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -56934,7 +56973,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -57017,7 +57056,7 @@
     </row>
     <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -57152,13 +57191,13 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW237" t="s">
         <v>77</v>
@@ -57170,19 +57209,19 @@
         <v>90</v>
       </c>
       <c r="AZ237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA237" t="s">
         <v>77</v>
       </c>
       <c r="BB237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE237" t="s">
         <v>89</v>
@@ -57191,10 +57230,10 @@
         <v>89</v>
       </c>
       <c r="BG237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI237" t="s">
         <v>91</v>
@@ -57235,7 +57274,7 @@
     </row>
     <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -57370,7 +57409,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -57453,7 +57492,7 @@
     </row>
     <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -57588,7 +57627,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -57671,7 +57710,7 @@
     </row>
     <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -57806,7 +57845,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -57889,7 +57928,7 @@
     </row>
     <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -58024,7 +58063,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -58107,7 +58146,7 @@
     </row>
     <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -58242,7 +58281,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -58325,7 +58364,7 @@
     </row>
     <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -58460,7 +58499,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -58543,7 +58582,7 @@
     </row>
     <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -58678,7 +58717,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -58761,7 +58800,7 @@
     </row>
     <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -58896,7 +58935,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -58979,7 +59018,7 @@
     </row>
     <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -59114,7 +59153,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -59197,7 +59236,7 @@
     </row>
     <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -59332,7 +59371,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -59415,7 +59454,7 @@
     </row>
     <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -59550,7 +59589,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -59633,7 +59672,7 @@
     </row>
     <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -59768,13 +59807,13 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AU249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW249" t="s">
         <v>77</v>
@@ -59786,19 +59825,19 @@
         <v>90</v>
       </c>
       <c r="AZ249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BA249" t="s">
         <v>77</v>
       </c>
       <c r="BB249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE249" t="s">
         <v>89</v>
@@ -59807,10 +59846,10 @@
         <v>89</v>
       </c>
       <c r="BG249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BI249" t="s">
         <v>91</v>
@@ -59846,6 +59885,1968 @@
         <v>77</v>
       </c>
       <c r="BT249" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>365</v>
+      </c>
+      <c r="B250" t="s">
+        <v>77</v>
+      </c>
+      <c r="C250" t="s">
+        <v>77</v>
+      </c>
+      <c r="D250" t="s">
+        <v>77</v>
+      </c>
+      <c r="E250" t="s">
+        <v>77</v>
+      </c>
+      <c r="F250" t="s">
+        <v>77</v>
+      </c>
+      <c r="G250" t="s">
+        <v>77</v>
+      </c>
+      <c r="H250" t="s">
+        <v>77</v>
+      </c>
+      <c r="I250" t="s">
+        <v>77</v>
+      </c>
+      <c r="J250" t="s">
+        <v>77</v>
+      </c>
+      <c r="K250" t="s">
+        <v>77</v>
+      </c>
+      <c r="L250" t="s">
+        <v>77</v>
+      </c>
+      <c r="M250" t="s">
+        <v>77</v>
+      </c>
+      <c r="N250" t="s">
+        <v>80</v>
+      </c>
+      <c r="O250" t="s">
+        <v>77</v>
+      </c>
+      <c r="P250" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>77</v>
+      </c>
+      <c r="R250" t="s">
+        <v>77</v>
+      </c>
+      <c r="S250" t="s">
+        <v>77</v>
+      </c>
+      <c r="T250" t="s">
+        <v>77</v>
+      </c>
+      <c r="U250" t="s">
+        <v>77</v>
+      </c>
+      <c r="V250" t="s">
+        <v>77</v>
+      </c>
+      <c r="W250" t="s">
+        <v>77</v>
+      </c>
+      <c r="X250" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC250" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX250" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY250" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS250" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT250" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>366</v>
+      </c>
+      <c r="B251" t="s">
+        <v>77</v>
+      </c>
+      <c r="C251" t="s">
+        <v>77</v>
+      </c>
+      <c r="D251" t="s">
+        <v>77</v>
+      </c>
+      <c r="E251" t="s">
+        <v>77</v>
+      </c>
+      <c r="F251" t="s">
+        <v>77</v>
+      </c>
+      <c r="G251" t="s">
+        <v>77</v>
+      </c>
+      <c r="H251" t="s">
+        <v>77</v>
+      </c>
+      <c r="I251" t="s">
+        <v>77</v>
+      </c>
+      <c r="J251" t="s">
+        <v>77</v>
+      </c>
+      <c r="K251" t="s">
+        <v>77</v>
+      </c>
+      <c r="L251" t="s">
+        <v>77</v>
+      </c>
+      <c r="M251" t="s">
+        <v>77</v>
+      </c>
+      <c r="N251" t="s">
+        <v>80</v>
+      </c>
+      <c r="O251" t="s">
+        <v>77</v>
+      </c>
+      <c r="P251" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>77</v>
+      </c>
+      <c r="R251" t="s">
+        <v>77</v>
+      </c>
+      <c r="S251" t="s">
+        <v>77</v>
+      </c>
+      <c r="T251" t="s">
+        <v>77</v>
+      </c>
+      <c r="U251" t="s">
+        <v>77</v>
+      </c>
+      <c r="V251" t="s">
+        <v>77</v>
+      </c>
+      <c r="W251" t="s">
+        <v>77</v>
+      </c>
+      <c r="X251" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC251" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS251" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT251" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>367</v>
+      </c>
+      <c r="B252" t="s">
+        <v>77</v>
+      </c>
+      <c r="C252" t="s">
+        <v>77</v>
+      </c>
+      <c r="D252" t="s">
+        <v>77</v>
+      </c>
+      <c r="E252" t="s">
+        <v>77</v>
+      </c>
+      <c r="F252" t="s">
+        <v>77</v>
+      </c>
+      <c r="G252" t="s">
+        <v>77</v>
+      </c>
+      <c r="H252" t="s">
+        <v>77</v>
+      </c>
+      <c r="I252" t="s">
+        <v>77</v>
+      </c>
+      <c r="J252" t="s">
+        <v>77</v>
+      </c>
+      <c r="K252" t="s">
+        <v>77</v>
+      </c>
+      <c r="L252" t="s">
+        <v>77</v>
+      </c>
+      <c r="M252" t="s">
+        <v>77</v>
+      </c>
+      <c r="N252" t="s">
+        <v>80</v>
+      </c>
+      <c r="O252" t="s">
+        <v>77</v>
+      </c>
+      <c r="P252" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>77</v>
+      </c>
+      <c r="R252" t="s">
+        <v>77</v>
+      </c>
+      <c r="S252" t="s">
+        <v>77</v>
+      </c>
+      <c r="T252" t="s">
+        <v>77</v>
+      </c>
+      <c r="U252" t="s">
+        <v>77</v>
+      </c>
+      <c r="V252" t="s">
+        <v>77</v>
+      </c>
+      <c r="W252" t="s">
+        <v>77</v>
+      </c>
+      <c r="X252" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC252" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX252" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY252" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS252" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT252" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>368</v>
+      </c>
+      <c r="B253" t="s">
+        <v>77</v>
+      </c>
+      <c r="C253" t="s">
+        <v>77</v>
+      </c>
+      <c r="D253" t="s">
+        <v>77</v>
+      </c>
+      <c r="E253" t="s">
+        <v>77</v>
+      </c>
+      <c r="F253" t="s">
+        <v>77</v>
+      </c>
+      <c r="G253" t="s">
+        <v>77</v>
+      </c>
+      <c r="H253" t="s">
+        <v>77</v>
+      </c>
+      <c r="I253" t="s">
+        <v>77</v>
+      </c>
+      <c r="J253" t="s">
+        <v>77</v>
+      </c>
+      <c r="K253" t="s">
+        <v>77</v>
+      </c>
+      <c r="L253" t="s">
+        <v>77</v>
+      </c>
+      <c r="M253" t="s">
+        <v>77</v>
+      </c>
+      <c r="N253" t="s">
+        <v>80</v>
+      </c>
+      <c r="O253" t="s">
+        <v>77</v>
+      </c>
+      <c r="P253" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>77</v>
+      </c>
+      <c r="R253" t="s">
+        <v>77</v>
+      </c>
+      <c r="S253" t="s">
+        <v>77</v>
+      </c>
+      <c r="T253" t="s">
+        <v>77</v>
+      </c>
+      <c r="U253" t="s">
+        <v>77</v>
+      </c>
+      <c r="V253" t="s">
+        <v>77</v>
+      </c>
+      <c r="W253" t="s">
+        <v>77</v>
+      </c>
+      <c r="X253" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC253" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT253" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX253" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY253" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS253" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT253" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>369</v>
+      </c>
+      <c r="B254" t="s">
+        <v>77</v>
+      </c>
+      <c r="C254" t="s">
+        <v>77</v>
+      </c>
+      <c r="D254" t="s">
+        <v>77</v>
+      </c>
+      <c r="E254" t="s">
+        <v>77</v>
+      </c>
+      <c r="F254" t="s">
+        <v>77</v>
+      </c>
+      <c r="G254" t="s">
+        <v>77</v>
+      </c>
+      <c r="H254" t="s">
+        <v>77</v>
+      </c>
+      <c r="I254" t="s">
+        <v>77</v>
+      </c>
+      <c r="J254" t="s">
+        <v>77</v>
+      </c>
+      <c r="K254" t="s">
+        <v>77</v>
+      </c>
+      <c r="L254" t="s">
+        <v>77</v>
+      </c>
+      <c r="M254" t="s">
+        <v>77</v>
+      </c>
+      <c r="N254" t="s">
+        <v>80</v>
+      </c>
+      <c r="O254" t="s">
+        <v>77</v>
+      </c>
+      <c r="P254" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>77</v>
+      </c>
+      <c r="R254" t="s">
+        <v>77</v>
+      </c>
+      <c r="S254" t="s">
+        <v>77</v>
+      </c>
+      <c r="T254" t="s">
+        <v>77</v>
+      </c>
+      <c r="U254" t="s">
+        <v>77</v>
+      </c>
+      <c r="V254" t="s">
+        <v>77</v>
+      </c>
+      <c r="W254" t="s">
+        <v>77</v>
+      </c>
+      <c r="X254" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC254" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT254" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX254" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY254" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS254" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT254" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>370</v>
+      </c>
+      <c r="B255" t="s">
+        <v>77</v>
+      </c>
+      <c r="C255" t="s">
+        <v>77</v>
+      </c>
+      <c r="D255" t="s">
+        <v>77</v>
+      </c>
+      <c r="E255" t="s">
+        <v>77</v>
+      </c>
+      <c r="F255" t="s">
+        <v>77</v>
+      </c>
+      <c r="G255" t="s">
+        <v>77</v>
+      </c>
+      <c r="H255" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255" t="s">
+        <v>77</v>
+      </c>
+      <c r="J255" t="s">
+        <v>77</v>
+      </c>
+      <c r="K255" t="s">
+        <v>77</v>
+      </c>
+      <c r="L255" t="s">
+        <v>77</v>
+      </c>
+      <c r="M255" t="s">
+        <v>77</v>
+      </c>
+      <c r="N255" t="s">
+        <v>80</v>
+      </c>
+      <c r="O255" t="s">
+        <v>77</v>
+      </c>
+      <c r="P255" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>77</v>
+      </c>
+      <c r="R255" t="s">
+        <v>77</v>
+      </c>
+      <c r="S255" t="s">
+        <v>77</v>
+      </c>
+      <c r="T255" t="s">
+        <v>77</v>
+      </c>
+      <c r="U255" t="s">
+        <v>77</v>
+      </c>
+      <c r="V255" t="s">
+        <v>77</v>
+      </c>
+      <c r="W255" t="s">
+        <v>77</v>
+      </c>
+      <c r="X255" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC255" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT255" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX255" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY255" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS255" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT255" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>371</v>
+      </c>
+      <c r="B256" t="s">
+        <v>77</v>
+      </c>
+      <c r="C256" t="s">
+        <v>77</v>
+      </c>
+      <c r="D256" t="s">
+        <v>77</v>
+      </c>
+      <c r="E256" t="s">
+        <v>77</v>
+      </c>
+      <c r="F256" t="s">
+        <v>77</v>
+      </c>
+      <c r="G256" t="s">
+        <v>77</v>
+      </c>
+      <c r="H256" t="s">
+        <v>77</v>
+      </c>
+      <c r="I256" t="s">
+        <v>77</v>
+      </c>
+      <c r="J256" t="s">
+        <v>77</v>
+      </c>
+      <c r="K256" t="s">
+        <v>77</v>
+      </c>
+      <c r="L256" t="s">
+        <v>77</v>
+      </c>
+      <c r="M256" t="s">
+        <v>77</v>
+      </c>
+      <c r="N256" t="s">
+        <v>80</v>
+      </c>
+      <c r="O256" t="s">
+        <v>77</v>
+      </c>
+      <c r="P256" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>77</v>
+      </c>
+      <c r="R256" t="s">
+        <v>77</v>
+      </c>
+      <c r="S256" t="s">
+        <v>77</v>
+      </c>
+      <c r="T256" t="s">
+        <v>77</v>
+      </c>
+      <c r="U256" t="s">
+        <v>77</v>
+      </c>
+      <c r="V256" t="s">
+        <v>77</v>
+      </c>
+      <c r="W256" t="s">
+        <v>77</v>
+      </c>
+      <c r="X256" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC256" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT256" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX256" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY256" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS256" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT256" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="257" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>372</v>
+      </c>
+      <c r="B257" t="s">
+        <v>77</v>
+      </c>
+      <c r="C257" t="s">
+        <v>77</v>
+      </c>
+      <c r="D257" t="s">
+        <v>77</v>
+      </c>
+      <c r="E257" t="s">
+        <v>77</v>
+      </c>
+      <c r="F257" t="s">
+        <v>77</v>
+      </c>
+      <c r="G257" t="s">
+        <v>77</v>
+      </c>
+      <c r="H257" t="s">
+        <v>77</v>
+      </c>
+      <c r="I257" t="s">
+        <v>77</v>
+      </c>
+      <c r="J257" t="s">
+        <v>77</v>
+      </c>
+      <c r="K257" t="s">
+        <v>77</v>
+      </c>
+      <c r="L257" t="s">
+        <v>77</v>
+      </c>
+      <c r="M257" t="s">
+        <v>77</v>
+      </c>
+      <c r="N257" t="s">
+        <v>80</v>
+      </c>
+      <c r="O257" t="s">
+        <v>77</v>
+      </c>
+      <c r="P257" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>77</v>
+      </c>
+      <c r="R257" t="s">
+        <v>77</v>
+      </c>
+      <c r="S257" t="s">
+        <v>77</v>
+      </c>
+      <c r="T257" t="s">
+        <v>77</v>
+      </c>
+      <c r="U257" t="s">
+        <v>77</v>
+      </c>
+      <c r="V257" t="s">
+        <v>77</v>
+      </c>
+      <c r="W257" t="s">
+        <v>77</v>
+      </c>
+      <c r="X257" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC257" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT257" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX257" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY257" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS257" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT257" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>373</v>
+      </c>
+      <c r="B258" t="s">
+        <v>77</v>
+      </c>
+      <c r="C258" t="s">
+        <v>77</v>
+      </c>
+      <c r="D258" t="s">
+        <v>77</v>
+      </c>
+      <c r="E258" t="s">
+        <v>77</v>
+      </c>
+      <c r="F258" t="s">
+        <v>77</v>
+      </c>
+      <c r="G258" t="s">
+        <v>77</v>
+      </c>
+      <c r="H258" t="s">
+        <v>77</v>
+      </c>
+      <c r="I258" t="s">
+        <v>77</v>
+      </c>
+      <c r="J258" t="s">
+        <v>77</v>
+      </c>
+      <c r="K258" t="s">
+        <v>77</v>
+      </c>
+      <c r="L258" t="s">
+        <v>77</v>
+      </c>
+      <c r="M258" t="s">
+        <v>77</v>
+      </c>
+      <c r="N258" t="s">
+        <v>80</v>
+      </c>
+      <c r="O258" t="s">
+        <v>77</v>
+      </c>
+      <c r="P258" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>77</v>
+      </c>
+      <c r="R258" t="s">
+        <v>77</v>
+      </c>
+      <c r="S258" t="s">
+        <v>77</v>
+      </c>
+      <c r="T258" t="s">
+        <v>77</v>
+      </c>
+      <c r="U258" t="s">
+        <v>77</v>
+      </c>
+      <c r="V258" t="s">
+        <v>77</v>
+      </c>
+      <c r="W258" t="s">
+        <v>77</v>
+      </c>
+      <c r="X258" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC258" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX258" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY258" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS258" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT258" t="s">
         <v>77</v>
       </c>
     </row>

--- a/downloads/supplier-repository-export.xlsx
+++ b/downloads/supplier-repository-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24191" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24404" uniqueCount="521">
   <si>
     <r>
       <rPr>
@@ -827,7 +827,7 @@
     <t/>
   </si>
   <si>
-    <t>zwTCc</t>
+    <t>xAPU4</t>
   </si>
   <si>
     <t>Automation01</t>
@@ -1365,6 +1365,30 @@
   </si>
   <si>
     <t>684fecfc212469647cc17e4c</t>
+  </si>
+  <si>
+    <t>Test_2TNK</t>
+  </si>
+  <si>
+    <t>piyush.soni+e5eq@47billion.com</t>
+  </si>
+  <si>
+    <t>User_64i4</t>
+  </si>
+  <si>
+    <t>684fef17212469647cc22d67</t>
+  </si>
+  <si>
+    <t>regress919</t>
+  </si>
+  <si>
+    <t>regress919@yopmail.com</t>
+  </si>
+  <si>
+    <t>XYgEFrsx</t>
+  </si>
+  <si>
+    <t>684ffec5eff81deda6ab1427</t>
   </si>
   <si>
     <t>Level 1 ESRS</t>
@@ -2126,7 +2150,10 @@
     <t>Automatedesrschild3783</t>
   </si>
   <si>
-    <t>xAPU4</t>
+    <t>CO2 Test</t>
+  </si>
+  <si>
+    <t>n49jq</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT36"/>
+  <dimension ref="A1:BT38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="10" max="72" customWidth="true" width="20.0" collapsed="true"/>
@@ -2759,7 +2786,7 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -10285,7 +10312,7 @@
         <v>88</v>
       </c>
       <c r="AU36" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AV36" t="s">
         <v>92</v>
@@ -10300,7 +10327,7 @@
         <v>108</v>
       </c>
       <c r="AZ36" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="BA36" t="s">
         <v>77</v>
@@ -10360,6 +10387,442 @@
         <v>106</v>
       </c>
       <c r="BT36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" t="s">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -10371,7 +10834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT305"/>
+  <dimension ref="A1:BT306"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="72" customWidth="true" width="20.0" collapsed="false"/>
@@ -10597,7 +11060,7 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -10732,7 +11195,7 @@
         <v>77</v>
       </c>
       <c r="AT2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU2" t="s">
         <v>89</v>
@@ -10815,7 +11278,7 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -10950,7 +11413,7 @@
         <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU3" t="s">
         <v>77</v>
@@ -11033,7 +11496,7 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -11168,7 +11631,7 @@
         <v>77</v>
       </c>
       <c r="AT4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU4" t="s">
         <v>77</v>
@@ -11251,13 +11714,13 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
         <v>77</v>
@@ -11386,7 +11849,7 @@
         <v>77</v>
       </c>
       <c r="AT5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU5" t="s">
         <v>92</v>
@@ -11469,7 +11932,7 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -11604,7 +12067,7 @@
         <v>77</v>
       </c>
       <c r="AT6" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU6" t="s">
         <v>77</v>
@@ -11687,7 +12150,7 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -11822,7 +12285,7 @@
         <v>77</v>
       </c>
       <c r="AT7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU7" t="s">
         <v>77</v>
@@ -11905,7 +12368,7 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -12040,7 +12503,7 @@
         <v>77</v>
       </c>
       <c r="AT8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU8" t="s">
         <v>77</v>
@@ -12123,7 +12586,7 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -12258,7 +12721,7 @@
         <v>77</v>
       </c>
       <c r="AT9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU9" t="s">
         <v>89</v>
@@ -12341,7 +12804,7 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -12476,7 +12939,7 @@
         <v>77</v>
       </c>
       <c r="AT10" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU10" t="s">
         <v>77</v>
@@ -12559,7 +13022,7 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -12694,7 +13157,7 @@
         <v>77</v>
       </c>
       <c r="AT11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU11" t="s">
         <v>77</v>
@@ -12777,7 +13240,7 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -12912,7 +13375,7 @@
         <v>77</v>
       </c>
       <c r="AT12" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU12" t="s">
         <v>77</v>
@@ -12995,7 +13458,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -13130,7 +13593,7 @@
         <v>77</v>
       </c>
       <c r="AT13" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU13" t="s">
         <v>77</v>
@@ -13213,7 +13676,7 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -13348,7 +13811,7 @@
         <v>77</v>
       </c>
       <c r="AT14" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU14" t="s">
         <v>77</v>
@@ -13431,7 +13894,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -13566,7 +14029,7 @@
         <v>77</v>
       </c>
       <c r="AT15" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU15" t="s">
         <v>77</v>
@@ -13649,7 +14112,7 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -13784,7 +14247,7 @@
         <v>77</v>
       </c>
       <c r="AT16" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU16" t="s">
         <v>77</v>
@@ -13867,7 +14330,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -14002,7 +14465,7 @@
         <v>77</v>
       </c>
       <c r="AT17" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU17" t="s">
         <v>77</v>
@@ -14085,7 +14548,7 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -14220,7 +14683,7 @@
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU18" t="s">
         <v>77</v>
@@ -14303,7 +14766,7 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -14438,7 +14901,7 @@
         <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU19" t="s">
         <v>77</v>
@@ -14521,7 +14984,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -14656,7 +15119,7 @@
         <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU20" t="s">
         <v>77</v>
@@ -14739,7 +15202,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -14874,7 +15337,7 @@
         <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU21" t="s">
         <v>77</v>
@@ -14957,13 +15420,13 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -15092,7 +15555,7 @@
         <v>77</v>
       </c>
       <c r="AT22" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU22" t="s">
         <v>92</v>
@@ -15175,7 +15638,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -15310,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU23" t="s">
         <v>77</v>
@@ -15393,7 +15856,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -15528,7 +15991,7 @@
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU24" t="s">
         <v>77</v>
@@ -15611,7 +16074,7 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -15746,7 +16209,7 @@
         <v>77</v>
       </c>
       <c r="AT25" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU25" t="s">
         <v>77</v>
@@ -15829,7 +16292,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -15964,7 +16427,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU26" t="s">
         <v>77</v>
@@ -16047,7 +16510,7 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -16182,7 +16645,7 @@
         <v>77</v>
       </c>
       <c r="AT27" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU27" t="s">
         <v>77</v>
@@ -16265,7 +16728,7 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -16400,7 +16863,7 @@
         <v>77</v>
       </c>
       <c r="AT28" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU28" t="s">
         <v>77</v>
@@ -16483,7 +16946,7 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -16618,7 +17081,7 @@
         <v>77</v>
       </c>
       <c r="AT29" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU29" t="s">
         <v>77</v>
@@ -16701,7 +17164,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -16836,7 +17299,7 @@
         <v>77</v>
       </c>
       <c r="AT30" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU30" t="s">
         <v>77</v>
@@ -16919,7 +17382,7 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -17054,7 +17517,7 @@
         <v>77</v>
       </c>
       <c r="AT31" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU31" t="s">
         <v>77</v>
@@ -17137,7 +17600,7 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -17272,7 +17735,7 @@
         <v>77</v>
       </c>
       <c r="AT32" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU32" t="s">
         <v>77</v>
@@ -17355,7 +17818,7 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -17490,7 +17953,7 @@
         <v>77</v>
       </c>
       <c r="AT33" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU33" t="s">
         <v>77</v>
@@ -17573,7 +18036,7 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -17708,7 +18171,7 @@
         <v>77</v>
       </c>
       <c r="AT34" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU34" t="s">
         <v>77</v>
@@ -17791,7 +18254,7 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -17926,7 +18389,7 @@
         <v>77</v>
       </c>
       <c r="AT35" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU35" t="s">
         <v>77</v>
@@ -18009,7 +18472,7 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -18144,7 +18607,7 @@
         <v>77</v>
       </c>
       <c r="AT36" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU36" t="s">
         <v>77</v>
@@ -18227,7 +18690,7 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -18362,7 +18825,7 @@
         <v>77</v>
       </c>
       <c r="AT37" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU37" t="s">
         <v>77</v>
@@ -18445,7 +18908,7 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -18580,7 +19043,7 @@
         <v>77</v>
       </c>
       <c r="AT38" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU38" t="s">
         <v>77</v>
@@ -18663,7 +19126,7 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -18798,7 +19261,7 @@
         <v>77</v>
       </c>
       <c r="AT39" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU39" t="s">
         <v>77</v>
@@ -18881,7 +19344,7 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -19016,7 +19479,7 @@
         <v>77</v>
       </c>
       <c r="AT40" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU40" t="s">
         <v>77</v>
@@ -19099,7 +19562,7 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -19234,7 +19697,7 @@
         <v>77</v>
       </c>
       <c r="AT41" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU41" t="s">
         <v>77</v>
@@ -19317,7 +19780,7 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -19452,7 +19915,7 @@
         <v>77</v>
       </c>
       <c r="AT42" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU42" t="s">
         <v>77</v>
@@ -19535,7 +19998,7 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -19670,7 +20133,7 @@
         <v>77</v>
       </c>
       <c r="AT43" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU43" t="s">
         <v>77</v>
@@ -19753,7 +20216,7 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -19888,7 +20351,7 @@
         <v>77</v>
       </c>
       <c r="AT44" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU44" t="s">
         <v>77</v>
@@ -19971,7 +20434,7 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -20106,7 +20569,7 @@
         <v>77</v>
       </c>
       <c r="AT45" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU45" t="s">
         <v>77</v>
@@ -20189,7 +20652,7 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
@@ -20324,7 +20787,7 @@
         <v>77</v>
       </c>
       <c r="AT46" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU46" t="s">
         <v>77</v>
@@ -20407,7 +20870,7 @@
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -20542,7 +21005,7 @@
         <v>77</v>
       </c>
       <c r="AT47" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU47" t="s">
         <v>77</v>
@@ -20625,7 +21088,7 @@
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -20760,7 +21223,7 @@
         <v>77</v>
       </c>
       <c r="AT48" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU48" t="s">
         <v>77</v>
@@ -20843,7 +21306,7 @@
     </row>
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -20978,7 +21441,7 @@
         <v>77</v>
       </c>
       <c r="AT49" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU49" t="s">
         <v>77</v>
@@ -21061,7 +21524,7 @@
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -21196,7 +21659,7 @@
         <v>77</v>
       </c>
       <c r="AT50" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU50" t="s">
         <v>77</v>
@@ -21279,7 +21742,7 @@
     </row>
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -21414,7 +21877,7 @@
         <v>77</v>
       </c>
       <c r="AT51" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU51" t="s">
         <v>77</v>
@@ -21497,7 +21960,7 @@
     </row>
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -21632,7 +22095,7 @@
         <v>77</v>
       </c>
       <c r="AT52" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU52" t="s">
         <v>77</v>
@@ -21715,7 +22178,7 @@
     </row>
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -21850,7 +22313,7 @@
         <v>77</v>
       </c>
       <c r="AT53" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU53" t="s">
         <v>77</v>
@@ -21933,7 +22396,7 @@
     </row>
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
@@ -22068,7 +22531,7 @@
         <v>77</v>
       </c>
       <c r="AT54" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU54" t="s">
         <v>77</v>
@@ -22151,7 +22614,7 @@
     </row>
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -22286,7 +22749,7 @@
         <v>77</v>
       </c>
       <c r="AT55" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU55" t="s">
         <v>77</v>
@@ -22369,7 +22832,7 @@
     </row>
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
@@ -22504,7 +22967,7 @@
         <v>77</v>
       </c>
       <c r="AT56" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU56" t="s">
         <v>77</v>
@@ -22722,7 +23185,7 @@
         <v>77</v>
       </c>
       <c r="AT57" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU57" t="s">
         <v>77</v>
@@ -22805,7 +23268,7 @@
     </row>
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -22940,7 +23403,7 @@
         <v>77</v>
       </c>
       <c r="AT58" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU58" t="s">
         <v>77</v>
@@ -23023,7 +23486,7 @@
     </row>
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -23158,7 +23621,7 @@
         <v>77</v>
       </c>
       <c r="AT59" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU59" t="s">
         <v>77</v>
@@ -23241,7 +23704,7 @@
     </row>
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
@@ -23376,7 +23839,7 @@
         <v>77</v>
       </c>
       <c r="AT60" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU60" t="s">
         <v>77</v>
@@ -23459,7 +23922,7 @@
     </row>
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -23594,7 +24057,7 @@
         <v>77</v>
       </c>
       <c r="AT61" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU61" t="s">
         <v>77</v>
@@ -23677,7 +24140,7 @@
     </row>
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -23812,7 +24275,7 @@
         <v>77</v>
       </c>
       <c r="AT62" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU62" t="s">
         <v>77</v>
@@ -23895,7 +24358,7 @@
     </row>
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -24030,7 +24493,7 @@
         <v>77</v>
       </c>
       <c r="AT63" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU63" t="s">
         <v>77</v>
@@ -24113,7 +24576,7 @@
     </row>
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
@@ -24248,7 +24711,7 @@
         <v>77</v>
       </c>
       <c r="AT64" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU64" t="s">
         <v>77</v>
@@ -24331,7 +24794,7 @@
     </row>
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -24466,7 +24929,7 @@
         <v>77</v>
       </c>
       <c r="AT65" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU65" t="s">
         <v>77</v>
@@ -24549,7 +25012,7 @@
     </row>
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -24684,7 +25147,7 @@
         <v>77</v>
       </c>
       <c r="AT66" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU66" t="s">
         <v>77</v>
@@ -24767,7 +25230,7 @@
     </row>
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -24902,7 +25365,7 @@
         <v>77</v>
       </c>
       <c r="AT67" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU67" t="s">
         <v>77</v>
@@ -24985,7 +25448,7 @@
     </row>
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -25120,7 +25583,7 @@
         <v>77</v>
       </c>
       <c r="AT68" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU68" t="s">
         <v>77</v>
@@ -25203,7 +25666,7 @@
     </row>
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -25338,7 +25801,7 @@
         <v>77</v>
       </c>
       <c r="AT69" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU69" t="s">
         <v>77</v>
@@ -25421,7 +25884,7 @@
     </row>
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -25556,7 +26019,7 @@
         <v>77</v>
       </c>
       <c r="AT70" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU70" t="s">
         <v>77</v>
@@ -25639,7 +26102,7 @@
     </row>
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
@@ -25774,7 +26237,7 @@
         <v>77</v>
       </c>
       <c r="AT71" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU71" t="s">
         <v>77</v>
@@ -25857,7 +26320,7 @@
     </row>
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -25992,7 +26455,7 @@
         <v>77</v>
       </c>
       <c r="AT72" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU72" t="s">
         <v>77</v>
@@ -26075,7 +26538,7 @@
     </row>
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -26210,7 +26673,7 @@
         <v>77</v>
       </c>
       <c r="AT73" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU73" t="s">
         <v>77</v>
@@ -26293,7 +26756,7 @@
     </row>
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -26428,7 +26891,7 @@
         <v>77</v>
       </c>
       <c r="AT74" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU74" t="s">
         <v>77</v>
@@ -26511,7 +26974,7 @@
     </row>
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -26646,7 +27109,7 @@
         <v>77</v>
       </c>
       <c r="AT75" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU75" t="s">
         <v>77</v>
@@ -26729,7 +27192,7 @@
     </row>
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -26864,7 +27327,7 @@
         <v>77</v>
       </c>
       <c r="AT76" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU76" t="s">
         <v>77</v>
@@ -26947,7 +27410,7 @@
     </row>
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -27082,7 +27545,7 @@
         <v>77</v>
       </c>
       <c r="AT77" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU77" t="s">
         <v>77</v>
@@ -27165,7 +27628,7 @@
     </row>
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -27300,7 +27763,7 @@
         <v>77</v>
       </c>
       <c r="AT78" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU78" t="s">
         <v>77</v>
@@ -27518,7 +27981,7 @@
         <v>77</v>
       </c>
       <c r="AT79" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU79" t="s">
         <v>77</v>
@@ -27601,7 +28064,7 @@
     </row>
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B80" t="s">
         <v>77</v>
@@ -27736,7 +28199,7 @@
         <v>77</v>
       </c>
       <c r="AT80" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU80" t="s">
         <v>77</v>
@@ -27819,7 +28282,7 @@
     </row>
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -27954,7 +28417,7 @@
         <v>77</v>
       </c>
       <c r="AT81" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU81" t="s">
         <v>77</v>
@@ -28037,7 +28500,7 @@
     </row>
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
@@ -28172,7 +28635,7 @@
         <v>77</v>
       </c>
       <c r="AT82" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU82" t="s">
         <v>77</v>
@@ -28255,7 +28718,7 @@
     </row>
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -28390,7 +28853,7 @@
         <v>77</v>
       </c>
       <c r="AT83" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU83" t="s">
         <v>77</v>
@@ -28473,7 +28936,7 @@
     </row>
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
@@ -28608,7 +29071,7 @@
         <v>77</v>
       </c>
       <c r="AT84" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU84" t="s">
         <v>77</v>
@@ -28691,7 +29154,7 @@
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -28826,7 +29289,7 @@
         <v>77</v>
       </c>
       <c r="AT85" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU85" t="s">
         <v>77</v>
@@ -28909,7 +29372,7 @@
     </row>
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -29044,7 +29507,7 @@
         <v>77</v>
       </c>
       <c r="AT86" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU86" t="s">
         <v>77</v>
@@ -29127,7 +29590,7 @@
     </row>
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
@@ -29262,7 +29725,7 @@
         <v>77</v>
       </c>
       <c r="AT87" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU87" t="s">
         <v>77</v>
@@ -29345,7 +29808,7 @@
     </row>
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
@@ -29480,7 +29943,7 @@
         <v>77</v>
       </c>
       <c r="AT88" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU88" t="s">
         <v>77</v>
@@ -29563,7 +30026,7 @@
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -29698,7 +30161,7 @@
         <v>77</v>
       </c>
       <c r="AT89" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU89" t="s">
         <v>77</v>
@@ -29781,7 +30244,7 @@
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -29916,7 +30379,7 @@
         <v>77</v>
       </c>
       <c r="AT90" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU90" t="s">
         <v>77</v>
@@ -29999,7 +30462,7 @@
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -30134,7 +30597,7 @@
         <v>77</v>
       </c>
       <c r="AT91" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU91" t="s">
         <v>77</v>
@@ -30217,7 +30680,7 @@
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -30352,7 +30815,7 @@
         <v>77</v>
       </c>
       <c r="AT92" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU92" t="s">
         <v>77</v>
@@ -30435,7 +30898,7 @@
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -30570,7 +31033,7 @@
         <v>77</v>
       </c>
       <c r="AT93" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU93" t="s">
         <v>77</v>
@@ -30653,7 +31116,7 @@
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B94" t="s">
         <v>77</v>
@@ -30788,7 +31251,7 @@
         <v>77</v>
       </c>
       <c r="AT94" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU94" t="s">
         <v>77</v>
@@ -30871,7 +31334,7 @@
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B95" t="s">
         <v>77</v>
@@ -31006,7 +31469,7 @@
         <v>77</v>
       </c>
       <c r="AT95" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU95" t="s">
         <v>77</v>
@@ -31089,7 +31552,7 @@
     </row>
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -31224,7 +31687,7 @@
         <v>77</v>
       </c>
       <c r="AT96" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU96" t="s">
         <v>77</v>
@@ -31307,7 +31770,7 @@
     </row>
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -31442,7 +31905,7 @@
         <v>77</v>
       </c>
       <c r="AT97" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU97" t="s">
         <v>77</v>
@@ -31525,7 +31988,7 @@
     </row>
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
@@ -31660,7 +32123,7 @@
         <v>77</v>
       </c>
       <c r="AT98" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU98" t="s">
         <v>77</v>
@@ -31743,7 +32206,7 @@
     </row>
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -31878,7 +32341,7 @@
         <v>77</v>
       </c>
       <c r="AT99" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU99" t="s">
         <v>77</v>
@@ -31961,7 +32424,7 @@
     </row>
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B100" t="s">
         <v>77</v>
@@ -32096,7 +32559,7 @@
         <v>77</v>
       </c>
       <c r="AT100" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU100" t="s">
         <v>77</v>
@@ -32179,7 +32642,7 @@
     </row>
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -32314,7 +32777,7 @@
         <v>77</v>
       </c>
       <c r="AT101" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU101" t="s">
         <v>77</v>
@@ -32397,7 +32860,7 @@
     </row>
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -32532,7 +32995,7 @@
         <v>77</v>
       </c>
       <c r="AT102" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU102" t="s">
         <v>77</v>
@@ -32615,7 +33078,7 @@
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -32750,7 +33213,7 @@
         <v>77</v>
       </c>
       <c r="AT103" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU103" t="s">
         <v>77</v>
@@ -32833,7 +33296,7 @@
     </row>
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s">
         <v>77</v>
@@ -32968,7 +33431,7 @@
         <v>77</v>
       </c>
       <c r="AT104" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU104" t="s">
         <v>77</v>
@@ -33051,7 +33514,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -33186,7 +33649,7 @@
         <v>77</v>
       </c>
       <c r="AT105" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU105" t="s">
         <v>77</v>
@@ -33269,7 +33732,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
@@ -33404,7 +33867,7 @@
         <v>77</v>
       </c>
       <c r="AT106" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU106" t="s">
         <v>77</v>
@@ -33487,7 +33950,7 @@
     </row>
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s">
         <v>77</v>
@@ -33622,7 +34085,7 @@
         <v>77</v>
       </c>
       <c r="AT107" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU107" t="s">
         <v>77</v>
@@ -33705,7 +34168,7 @@
     </row>
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s">
         <v>77</v>
@@ -33840,7 +34303,7 @@
         <v>77</v>
       </c>
       <c r="AT108" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU108" t="s">
         <v>77</v>
@@ -33923,7 +34386,7 @@
     </row>
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -34058,7 +34521,7 @@
         <v>77</v>
       </c>
       <c r="AT109" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU109" t="s">
         <v>77</v>
@@ -34141,7 +34604,7 @@
     </row>
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -34276,7 +34739,7 @@
         <v>77</v>
       </c>
       <c r="AT110" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU110" t="s">
         <v>77</v>
@@ -34359,7 +34822,7 @@
     </row>
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B111" t="s">
         <v>77</v>
@@ -34494,7 +34957,7 @@
         <v>77</v>
       </c>
       <c r="AT111" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU111" t="s">
         <v>77</v>
@@ -34577,7 +35040,7 @@
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B112" t="s">
         <v>77</v>
@@ -34712,7 +35175,7 @@
         <v>77</v>
       </c>
       <c r="AT112" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU112" t="s">
         <v>77</v>
@@ -34795,7 +35258,7 @@
     </row>
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -34930,7 +35393,7 @@
         <v>77</v>
       </c>
       <c r="AT113" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU113" t="s">
         <v>77</v>
@@ -35148,7 +35611,7 @@
         <v>77</v>
       </c>
       <c r="AT114" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU114" t="s">
         <v>77</v>
@@ -35231,7 +35694,7 @@
     </row>
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -35366,7 +35829,7 @@
         <v>77</v>
       </c>
       <c r="AT115" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU115" t="s">
         <v>77</v>
@@ -35449,7 +35912,7 @@
     </row>
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -35584,7 +36047,7 @@
         <v>77</v>
       </c>
       <c r="AT116" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU116" t="s">
         <v>77</v>
@@ -35667,7 +36130,7 @@
     </row>
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -35802,7 +36265,7 @@
         <v>77</v>
       </c>
       <c r="AT117" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU117" t="s">
         <v>77</v>
@@ -35885,7 +36348,7 @@
     </row>
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -36020,7 +36483,7 @@
         <v>77</v>
       </c>
       <c r="AT118" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU118" t="s">
         <v>77</v>
@@ -36103,7 +36566,7 @@
     </row>
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -36238,7 +36701,7 @@
         <v>77</v>
       </c>
       <c r="AT119" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU119" t="s">
         <v>89</v>
@@ -36321,7 +36784,7 @@
     </row>
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -36456,7 +36919,7 @@
         <v>77</v>
       </c>
       <c r="AT120" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU120" t="s">
         <v>77</v>
@@ -36539,7 +37002,7 @@
     </row>
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B121" t="s">
         <v>77</v>
@@ -36674,7 +37137,7 @@
         <v>77</v>
       </c>
       <c r="AT121" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU121" t="s">
         <v>77</v>
@@ -36757,7 +37220,7 @@
     </row>
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s">
         <v>77</v>
@@ -36892,7 +37355,7 @@
         <v>77</v>
       </c>
       <c r="AT122" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU122" t="s">
         <v>77</v>
@@ -36975,7 +37438,7 @@
     </row>
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -37110,7 +37573,7 @@
         <v>77</v>
       </c>
       <c r="AT123" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU123" t="s">
         <v>77</v>
@@ -37193,7 +37656,7 @@
     </row>
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -37328,7 +37791,7 @@
         <v>77</v>
       </c>
       <c r="AT124" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU124" t="s">
         <v>77</v>
@@ -37411,7 +37874,7 @@
     </row>
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
         <v>77</v>
@@ -37546,7 +38009,7 @@
         <v>77</v>
       </c>
       <c r="AT125" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU125" t="s">
         <v>77</v>
@@ -37629,7 +38092,7 @@
     </row>
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s">
         <v>77</v>
@@ -37764,7 +38227,7 @@
         <v>77</v>
       </c>
       <c r="AT126" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU126" t="s">
         <v>77</v>
@@ -37847,7 +38310,7 @@
     </row>
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -37982,7 +38445,7 @@
         <v>77</v>
       </c>
       <c r="AT127" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU127" t="s">
         <v>77</v>
@@ -38065,7 +38528,7 @@
     </row>
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
         <v>73</v>
@@ -38200,7 +38663,7 @@
         <v>77</v>
       </c>
       <c r="AT128" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU128" t="s">
         <v>89</v>
@@ -38283,7 +38746,7 @@
     </row>
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s">
         <v>77</v>
@@ -38418,7 +38881,7 @@
         <v>77</v>
       </c>
       <c r="AT129" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU129" t="s">
         <v>77</v>
@@ -38501,7 +38964,7 @@
     </row>
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s">
         <v>77</v>
@@ -38636,7 +39099,7 @@
         <v>77</v>
       </c>
       <c r="AT130" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU130" t="s">
         <v>77</v>
@@ -38719,7 +39182,7 @@
     </row>
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
@@ -38854,7 +39317,7 @@
         <v>77</v>
       </c>
       <c r="AT131" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU131" t="s">
         <v>77</v>
@@ -38937,7 +39400,7 @@
     </row>
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
@@ -39072,7 +39535,7 @@
         <v>77</v>
       </c>
       <c r="AT132" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU132" t="s">
         <v>77</v>
@@ -39155,7 +39618,7 @@
     </row>
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s">
         <v>77</v>
@@ -39290,7 +39753,7 @@
         <v>77</v>
       </c>
       <c r="AT133" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU133" t="s">
         <v>77</v>
@@ -39373,7 +39836,7 @@
     </row>
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -39508,7 +39971,7 @@
         <v>77</v>
       </c>
       <c r="AT134" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU134" t="s">
         <v>77</v>
@@ -39591,7 +40054,7 @@
     </row>
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
         <v>77</v>
@@ -39726,7 +40189,7 @@
         <v>77</v>
       </c>
       <c r="AT135" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU135" t="s">
         <v>77</v>
@@ -39809,7 +40272,7 @@
     </row>
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B136" t="s">
         <v>77</v>
@@ -39944,7 +40407,7 @@
         <v>77</v>
       </c>
       <c r="AT136" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU136" t="s">
         <v>77</v>
@@ -40027,7 +40490,7 @@
     </row>
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
@@ -40162,7 +40625,7 @@
         <v>77</v>
       </c>
       <c r="AT137" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU137" t="s">
         <v>77</v>
@@ -40245,7 +40708,7 @@
     </row>
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B138" t="s">
         <v>77</v>
@@ -40380,7 +40843,7 @@
         <v>77</v>
       </c>
       <c r="AT138" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU138" t="s">
         <v>77</v>
@@ -40463,7 +40926,7 @@
     </row>
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -40598,7 +41061,7 @@
         <v>77</v>
       </c>
       <c r="AT139" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU139" t="s">
         <v>77</v>
@@ -40681,7 +41144,7 @@
     </row>
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
@@ -40816,7 +41279,7 @@
         <v>77</v>
       </c>
       <c r="AT140" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU140" t="s">
         <v>77</v>
@@ -40899,7 +41362,7 @@
     </row>
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s">
         <v>77</v>
@@ -41034,7 +41497,7 @@
         <v>77</v>
       </c>
       <c r="AT141" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU141" t="s">
         <v>77</v>
@@ -41117,7 +41580,7 @@
     </row>
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s">
         <v>77</v>
@@ -41252,7 +41715,7 @@
         <v>77</v>
       </c>
       <c r="AT142" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU142" t="s">
         <v>77</v>
@@ -41335,7 +41798,7 @@
     </row>
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s">
         <v>77</v>
@@ -41470,7 +41933,7 @@
         <v>77</v>
       </c>
       <c r="AT143" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU143" t="s">
         <v>77</v>
@@ -41553,7 +42016,7 @@
     </row>
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -41688,7 +42151,7 @@
         <v>77</v>
       </c>
       <c r="AT144" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU144" t="s">
         <v>77</v>
@@ -41771,7 +42234,7 @@
     </row>
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B145" t="s">
         <v>77</v>
@@ -41906,7 +42369,7 @@
         <v>77</v>
       </c>
       <c r="AT145" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU145" t="s">
         <v>77</v>
@@ -41989,7 +42452,7 @@
     </row>
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s">
         <v>77</v>
@@ -42124,7 +42587,7 @@
         <v>77</v>
       </c>
       <c r="AT146" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU146" t="s">
         <v>77</v>
@@ -42207,7 +42670,7 @@
     </row>
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s">
         <v>77</v>
@@ -42342,7 +42805,7 @@
         <v>77</v>
       </c>
       <c r="AT147" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU147" t="s">
         <v>77</v>
@@ -42425,7 +42888,7 @@
     </row>
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
         <v>77</v>
@@ -42560,7 +43023,7 @@
         <v>77</v>
       </c>
       <c r="AT148" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU148" t="s">
         <v>77</v>
@@ -42643,7 +43106,7 @@
     </row>
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -42778,7 +43241,7 @@
         <v>77</v>
       </c>
       <c r="AT149" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU149" t="s">
         <v>77</v>
@@ -42996,7 +43459,7 @@
         <v>77</v>
       </c>
       <c r="AT150" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU150" t="s">
         <v>77</v>
@@ -43079,7 +43542,7 @@
     </row>
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s">
         <v>77</v>
@@ -43214,7 +43677,7 @@
         <v>77</v>
       </c>
       <c r="AT151" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU151" t="s">
         <v>77</v>
@@ -43297,7 +43760,7 @@
     </row>
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s">
         <v>77</v>
@@ -43432,7 +43895,7 @@
         <v>77</v>
       </c>
       <c r="AT152" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU152" t="s">
         <v>77</v>
@@ -43515,7 +43978,7 @@
     </row>
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B153" t="s">
         <v>77</v>
@@ -43650,7 +44113,7 @@
         <v>77</v>
       </c>
       <c r="AT153" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU153" t="s">
         <v>77</v>
@@ -43733,7 +44196,7 @@
     </row>
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -43868,7 +44331,7 @@
         <v>77</v>
       </c>
       <c r="AT154" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU154" t="s">
         <v>77</v>
@@ -43951,7 +44414,7 @@
     </row>
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B155" t="s">
         <v>77</v>
@@ -44086,7 +44549,7 @@
         <v>77</v>
       </c>
       <c r="AT155" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU155" t="s">
         <v>77</v>
@@ -44169,7 +44632,7 @@
     </row>
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B156" t="s">
         <v>77</v>
@@ -44304,7 +44767,7 @@
         <v>77</v>
       </c>
       <c r="AT156" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU156" t="s">
         <v>77</v>
@@ -44387,7 +44850,7 @@
     </row>
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B157" t="s">
         <v>77</v>
@@ -44522,7 +44985,7 @@
         <v>77</v>
       </c>
       <c r="AT157" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU157" t="s">
         <v>77</v>
@@ -44605,7 +45068,7 @@
     </row>
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B158" t="s">
         <v>77</v>
@@ -44740,7 +45203,7 @@
         <v>77</v>
       </c>
       <c r="AT158" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU158" t="s">
         <v>77</v>
@@ -44823,7 +45286,7 @@
     </row>
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -44958,7 +45421,7 @@
         <v>77</v>
       </c>
       <c r="AT159" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU159" t="s">
         <v>77</v>
@@ -45041,7 +45504,7 @@
     </row>
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -45176,7 +45639,7 @@
         <v>77</v>
       </c>
       <c r="AT160" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU160" t="s">
         <v>77</v>
@@ -45259,7 +45722,7 @@
     </row>
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -45394,7 +45857,7 @@
         <v>77</v>
       </c>
       <c r="AT161" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU161" t="s">
         <v>77</v>
@@ -45477,7 +45940,7 @@
     </row>
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
         <v>73</v>
@@ -45612,7 +46075,7 @@
         <v>77</v>
       </c>
       <c r="AT162" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU162" t="s">
         <v>89</v>
@@ -45695,7 +46158,7 @@
     </row>
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B163" t="s">
         <v>77</v>
@@ -45830,7 +46293,7 @@
         <v>77</v>
       </c>
       <c r="AT163" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU163" t="s">
         <v>77</v>
@@ -45913,7 +46376,7 @@
     </row>
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B164" t="s">
         <v>77</v>
@@ -46048,7 +46511,7 @@
         <v>77</v>
       </c>
       <c r="AT164" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU164" t="s">
         <v>77</v>
@@ -46131,7 +46594,7 @@
     </row>
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B165" t="s">
         <v>77</v>
@@ -46266,7 +46729,7 @@
         <v>77</v>
       </c>
       <c r="AT165" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU165" t="s">
         <v>77</v>
@@ -46349,7 +46812,7 @@
     </row>
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B166" t="s">
         <v>77</v>
@@ -46484,7 +46947,7 @@
         <v>77</v>
       </c>
       <c r="AT166" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU166" t="s">
         <v>77</v>
@@ -46567,7 +47030,7 @@
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B167" t="s">
         <v>77</v>
@@ -46702,7 +47165,7 @@
         <v>77</v>
       </c>
       <c r="AT167" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU167" t="s">
         <v>77</v>
@@ -46785,7 +47248,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B168" t="s">
         <v>77</v>
@@ -46920,7 +47383,7 @@
         <v>77</v>
       </c>
       <c r="AT168" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU168" t="s">
         <v>77</v>
@@ -47003,13 +47466,13 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B169" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C169" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -47138,7 +47601,7 @@
         <v>77</v>
       </c>
       <c r="AT169" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU169" t="s">
         <v>92</v>
@@ -47221,13 +47684,13 @@
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B170" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C170" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D170" t="s">
         <v>77</v>
@@ -47356,7 +47819,7 @@
         <v>77</v>
       </c>
       <c r="AT170" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU170" t="s">
         <v>93</v>
@@ -47439,7 +47902,7 @@
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s">
         <v>77</v>
@@ -47574,7 +48037,7 @@
         <v>77</v>
       </c>
       <c r="AT171" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU171" t="s">
         <v>77</v>
@@ -47657,7 +48120,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B172" t="s">
         <v>77</v>
@@ -47792,7 +48255,7 @@
         <v>77</v>
       </c>
       <c r="AT172" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU172" t="s">
         <v>77</v>
@@ -47875,7 +48338,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B173" t="s">
         <v>77</v>
@@ -48010,7 +48473,7 @@
         <v>77</v>
       </c>
       <c r="AT173" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU173" t="s">
         <v>77</v>
@@ -48093,7 +48556,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B174" t="s">
         <v>77</v>
@@ -48228,7 +48691,7 @@
         <v>77</v>
       </c>
       <c r="AT174" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU174" t="s">
         <v>77</v>
@@ -48311,7 +48774,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B175" t="s">
         <v>77</v>
@@ -48446,7 +48909,7 @@
         <v>77</v>
       </c>
       <c r="AT175" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU175" t="s">
         <v>77</v>
@@ -48529,7 +48992,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B176" t="s">
         <v>77</v>
@@ -48664,7 +49127,7 @@
         <v>77</v>
       </c>
       <c r="AT176" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU176" t="s">
         <v>77</v>
@@ -48747,7 +49210,7 @@
     </row>
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B177" t="s">
         <v>77</v>
@@ -48882,7 +49345,7 @@
         <v>77</v>
       </c>
       <c r="AT177" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU177" t="s">
         <v>77</v>
@@ -48965,7 +49428,7 @@
     </row>
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B178" t="s">
         <v>77</v>
@@ -49100,7 +49563,7 @@
         <v>77</v>
       </c>
       <c r="AT178" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU178" t="s">
         <v>77</v>
@@ -49183,7 +49646,7 @@
     </row>
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B179" t="s">
         <v>77</v>
@@ -49318,7 +49781,7 @@
         <v>77</v>
       </c>
       <c r="AT179" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU179" t="s">
         <v>77</v>
@@ -49401,7 +49864,7 @@
     </row>
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B180" t="s">
         <v>77</v>
@@ -49536,7 +49999,7 @@
         <v>77</v>
       </c>
       <c r="AT180" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU180" t="s">
         <v>77</v>
@@ -49619,7 +50082,7 @@
     </row>
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B181" t="s">
         <v>77</v>
@@ -49754,7 +50217,7 @@
         <v>77</v>
       </c>
       <c r="AT181" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU181" t="s">
         <v>77</v>
@@ -49837,7 +50300,7 @@
     </row>
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -49972,7 +50435,7 @@
         <v>77</v>
       </c>
       <c r="AT182" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU182" t="s">
         <v>77</v>
@@ -50055,7 +50518,7 @@
     </row>
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B183" t="s">
         <v>77</v>
@@ -50190,7 +50653,7 @@
         <v>77</v>
       </c>
       <c r="AT183" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU183" t="s">
         <v>77</v>
@@ -50273,7 +50736,7 @@
     </row>
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B184" t="s">
         <v>77</v>
@@ -50408,7 +50871,7 @@
         <v>77</v>
       </c>
       <c r="AT184" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU184" t="s">
         <v>77</v>
@@ -50491,7 +50954,7 @@
     </row>
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
         <v>77</v>
@@ -50626,7 +51089,7 @@
         <v>77</v>
       </c>
       <c r="AT185" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU185" t="s">
         <v>77</v>
@@ -50709,7 +51172,7 @@
     </row>
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B186" t="s">
         <v>77</v>
@@ -50844,7 +51307,7 @@
         <v>77</v>
       </c>
       <c r="AT186" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU186" t="s">
         <v>77</v>
@@ -50927,7 +51390,7 @@
     </row>
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B187" t="s">
         <v>77</v>
@@ -51062,7 +51525,7 @@
         <v>77</v>
       </c>
       <c r="AT187" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU187" t="s">
         <v>77</v>
@@ -51145,7 +51608,7 @@
     </row>
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B188" t="s">
         <v>77</v>
@@ -51280,7 +51743,7 @@
         <v>77</v>
       </c>
       <c r="AT188" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU188" t="s">
         <v>77</v>
@@ -51363,7 +51826,7 @@
     </row>
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B189" t="s">
         <v>77</v>
@@ -51498,7 +51961,7 @@
         <v>77</v>
       </c>
       <c r="AT189" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU189" t="s">
         <v>77</v>
@@ -51581,7 +52044,7 @@
     </row>
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B190" t="s">
         <v>77</v>
@@ -51716,7 +52179,7 @@
         <v>77</v>
       </c>
       <c r="AT190" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU190" t="s">
         <v>77</v>
@@ -51799,7 +52262,7 @@
     </row>
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B191" t="s">
         <v>77</v>
@@ -51934,7 +52397,7 @@
         <v>77</v>
       </c>
       <c r="AT191" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU191" t="s">
         <v>77</v>
@@ -52017,7 +52480,7 @@
     </row>
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B192" t="s">
         <v>77</v>
@@ -52152,7 +52615,7 @@
         <v>77</v>
       </c>
       <c r="AT192" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU192" t="s">
         <v>77</v>
@@ -52235,7 +52698,7 @@
     </row>
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B193" t="s">
         <v>77</v>
@@ -52370,7 +52833,7 @@
         <v>77</v>
       </c>
       <c r="AT193" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU193" t="s">
         <v>77</v>
@@ -52453,7 +52916,7 @@
     </row>
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -52588,7 +53051,7 @@
         <v>77</v>
       </c>
       <c r="AT194" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU194" t="s">
         <v>77</v>
@@ -52671,7 +53134,7 @@
     </row>
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
         <v>77</v>
@@ -52806,7 +53269,7 @@
         <v>77</v>
       </c>
       <c r="AT195" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU195" t="s">
         <v>77</v>
@@ -52889,7 +53352,7 @@
     </row>
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -53024,7 +53487,7 @@
         <v>77</v>
       </c>
       <c r="AT196" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU196" t="s">
         <v>93</v>
@@ -53107,7 +53570,7 @@
     </row>
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B197" t="s">
         <v>77</v>
@@ -53242,7 +53705,7 @@
         <v>77</v>
       </c>
       <c r="AT197" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU197" t="s">
         <v>77</v>
@@ -53325,7 +53788,7 @@
     </row>
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B198" t="s">
         <v>77</v>
@@ -53460,7 +53923,7 @@
         <v>77</v>
       </c>
       <c r="AT198" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU198" t="s">
         <v>77</v>
@@ -53543,7 +54006,7 @@
     </row>
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B199" t="s">
         <v>77</v>
@@ -53678,7 +54141,7 @@
         <v>77</v>
       </c>
       <c r="AT199" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU199" t="s">
         <v>77</v>
@@ -53761,7 +54224,7 @@
     </row>
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
@@ -53896,7 +54359,7 @@
         <v>77</v>
       </c>
       <c r="AT200" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU200" t="s">
         <v>77</v>
@@ -53979,7 +54442,7 @@
     </row>
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -54114,7 +54577,7 @@
         <v>77</v>
       </c>
       <c r="AT201" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU201" t="s">
         <v>89</v>
@@ -54332,7 +54795,7 @@
         <v>77</v>
       </c>
       <c r="AT202" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU202" t="s">
         <v>92</v>
@@ -54341,7 +54804,7 @@
         <v>92</v>
       </c>
       <c r="AW202" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AX202" t="s">
         <v>77</v>
@@ -54415,7 +54878,7 @@
     </row>
     <row r="203" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -54550,7 +55013,7 @@
         <v>77</v>
       </c>
       <c r="AT203" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU203" t="s">
         <v>89</v>
@@ -54633,7 +55096,7 @@
     </row>
     <row r="204" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B204" t="s">
         <v>77</v>
@@ -54768,7 +55231,7 @@
         <v>77</v>
       </c>
       <c r="AT204" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU204" t="s">
         <v>77</v>
@@ -54851,7 +55314,7 @@
     </row>
     <row r="205" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -54986,7 +55449,7 @@
         <v>77</v>
       </c>
       <c r="AT205" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU205" t="s">
         <v>77</v>
@@ -55069,7 +55532,7 @@
     </row>
     <row r="206" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B206" t="s">
         <v>77</v>
@@ -55204,7 +55667,7 @@
         <v>77</v>
       </c>
       <c r="AT206" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU206" t="s">
         <v>77</v>
@@ -55287,7 +55750,7 @@
     </row>
     <row r="207" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B207" t="s">
         <v>77</v>
@@ -55422,7 +55885,7 @@
         <v>77</v>
       </c>
       <c r="AT207" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU207" t="s">
         <v>77</v>
@@ -55505,7 +55968,7 @@
     </row>
     <row r="208" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B208" t="s">
         <v>77</v>
@@ -55640,7 +56103,7 @@
         <v>77</v>
       </c>
       <c r="AT208" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU208" t="s">
         <v>77</v>
@@ -55723,7 +56186,7 @@
     </row>
     <row r="209" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B209" t="s">
         <v>77</v>
@@ -55858,7 +56321,7 @@
         <v>77</v>
       </c>
       <c r="AT209" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU209" t="s">
         <v>77</v>
@@ -55941,13 +56404,13 @@
     </row>
     <row r="210" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B210" t="s">
         <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D210" t="s">
         <v>77</v>
@@ -56076,7 +56539,7 @@
         <v>77</v>
       </c>
       <c r="AT210" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU210" t="s">
         <v>89</v>
@@ -56159,7 +56622,7 @@
     </row>
     <row r="211" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B211" t="s">
         <v>77</v>
@@ -56294,7 +56757,7 @@
         <v>77</v>
       </c>
       <c r="AT211" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU211" t="s">
         <v>77</v>
@@ -56377,7 +56840,7 @@
     </row>
     <row r="212" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B212" t="s">
         <v>77</v>
@@ -56512,7 +56975,7 @@
         <v>77</v>
       </c>
       <c r="AT212" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU212" t="s">
         <v>77</v>
@@ -56595,7 +57058,7 @@
     </row>
     <row r="213" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B213" t="s">
         <v>77</v>
@@ -56730,7 +57193,7 @@
         <v>77</v>
       </c>
       <c r="AT213" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU213" t="s">
         <v>77</v>
@@ -56813,7 +57276,7 @@
     </row>
     <row r="214" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B214" t="s">
         <v>77</v>
@@ -56948,7 +57411,7 @@
         <v>77</v>
       </c>
       <c r="AT214" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU214" t="s">
         <v>77</v>
@@ -57031,7 +57494,7 @@
     </row>
     <row r="215" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B215" t="s">
         <v>77</v>
@@ -57166,7 +57629,7 @@
         <v>77</v>
       </c>
       <c r="AT215" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU215" t="s">
         <v>77</v>
@@ -57249,7 +57712,7 @@
     </row>
     <row r="216" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B216" t="s">
         <v>77</v>
@@ -57384,7 +57847,7 @@
         <v>77</v>
       </c>
       <c r="AT216" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU216" t="s">
         <v>77</v>
@@ -57467,7 +57930,7 @@
     </row>
     <row r="217" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s">
         <v>77</v>
@@ -57602,7 +58065,7 @@
         <v>77</v>
       </c>
       <c r="AT217" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU217" t="s">
         <v>77</v>
@@ -57685,7 +58148,7 @@
     </row>
     <row r="218" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -57820,7 +58283,7 @@
         <v>77</v>
       </c>
       <c r="AT218" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU218" t="s">
         <v>77</v>
@@ -57903,7 +58366,7 @@
     </row>
     <row r="219" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B219" t="s">
         <v>77</v>
@@ -58038,7 +58501,7 @@
         <v>77</v>
       </c>
       <c r="AT219" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU219" t="s">
         <v>77</v>
@@ -58121,7 +58584,7 @@
     </row>
     <row r="220" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B220" t="s">
         <v>77</v>
@@ -58256,7 +58719,7 @@
         <v>77</v>
       </c>
       <c r="AT220" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU220" t="s">
         <v>77</v>
@@ -58339,7 +58802,7 @@
     </row>
     <row r="221" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B221" t="s">
         <v>77</v>
@@ -58474,7 +58937,7 @@
         <v>77</v>
       </c>
       <c r="AT221" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU221" t="s">
         <v>77</v>
@@ -58692,7 +59155,7 @@
         <v>77</v>
       </c>
       <c r="AT222" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU222" t="s">
         <v>77</v>
@@ -58775,7 +59238,7 @@
     </row>
     <row r="223" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B223" t="s">
         <v>77</v>
@@ -58910,7 +59373,7 @@
         <v>77</v>
       </c>
       <c r="AT223" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU223" t="s">
         <v>77</v>
@@ -58993,7 +59456,7 @@
     </row>
     <row r="224" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B224" t="s">
         <v>77</v>
@@ -59128,7 +59591,7 @@
         <v>77</v>
       </c>
       <c r="AT224" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU224" t="s">
         <v>77</v>
@@ -59211,7 +59674,7 @@
     </row>
     <row r="225" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B225" t="s">
         <v>77</v>
@@ -59346,7 +59809,7 @@
         <v>77</v>
       </c>
       <c r="AT225" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU225" t="s">
         <v>77</v>
@@ -59429,7 +59892,7 @@
     </row>
     <row r="226" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B226" t="s">
         <v>77</v>
@@ -59564,7 +60027,7 @@
         <v>77</v>
       </c>
       <c r="AT226" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU226" t="s">
         <v>77</v>
@@ -59647,7 +60110,7 @@
     </row>
     <row r="227" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
         <v>77</v>
@@ -59782,7 +60245,7 @@
         <v>77</v>
       </c>
       <c r="AT227" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU227" t="s">
         <v>77</v>
@@ -59865,7 +60328,7 @@
     </row>
     <row r="228" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -60000,7 +60463,7 @@
         <v>77</v>
       </c>
       <c r="AT228" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU228" t="s">
         <v>77</v>
@@ -60083,7 +60546,7 @@
     </row>
     <row r="229" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B229" t="s">
         <v>73</v>
@@ -60218,7 +60681,7 @@
         <v>77</v>
       </c>
       <c r="AT229" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU229" t="s">
         <v>89</v>
@@ -60301,7 +60764,7 @@
     </row>
     <row r="230" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B230" t="s">
         <v>77</v>
@@ -60436,7 +60899,7 @@
         <v>77</v>
       </c>
       <c r="AT230" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU230" t="s">
         <v>77</v>
@@ -60519,7 +60982,7 @@
     </row>
     <row r="231" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -60654,7 +61117,7 @@
         <v>77</v>
       </c>
       <c r="AT231" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU231" t="s">
         <v>77</v>
@@ -60737,7 +61200,7 @@
     </row>
     <row r="232" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B232" t="s">
         <v>77</v>
@@ -60872,7 +61335,7 @@
         <v>77</v>
       </c>
       <c r="AT232" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU232" t="s">
         <v>77</v>
@@ -60955,7 +61418,7 @@
     </row>
     <row r="233" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B233" t="s">
         <v>77</v>
@@ -61090,7 +61553,7 @@
         <v>77</v>
       </c>
       <c r="AT233" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU233" t="s">
         <v>77</v>
@@ -61173,7 +61636,7 @@
     </row>
     <row r="234" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B234" t="s">
         <v>77</v>
@@ -61308,7 +61771,7 @@
         <v>77</v>
       </c>
       <c r="AT234" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU234" t="s">
         <v>77</v>
@@ -61391,7 +61854,7 @@
     </row>
     <row r="235" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B235" t="s">
         <v>77</v>
@@ -61526,7 +61989,7 @@
         <v>77</v>
       </c>
       <c r="AT235" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU235" t="s">
         <v>77</v>
@@ -61609,7 +62072,7 @@
     </row>
     <row r="236" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B236" t="s">
         <v>77</v>
@@ -61744,7 +62207,7 @@
         <v>77</v>
       </c>
       <c r="AT236" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU236" t="s">
         <v>77</v>
@@ -61827,7 +62290,7 @@
     </row>
     <row r="237" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B237" t="s">
         <v>73</v>
@@ -61962,7 +62425,7 @@
         <v>77</v>
       </c>
       <c r="AT237" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU237" t="s">
         <v>89</v>
@@ -62045,7 +62508,7 @@
     </row>
     <row r="238" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B238" t="s">
         <v>77</v>
@@ -62180,7 +62643,7 @@
         <v>77</v>
       </c>
       <c r="AT238" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU238" t="s">
         <v>77</v>
@@ -62263,7 +62726,7 @@
     </row>
     <row r="239" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B239" t="s">
         <v>77</v>
@@ -62398,7 +62861,7 @@
         <v>77</v>
       </c>
       <c r="AT239" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU239" t="s">
         <v>77</v>
@@ -62481,7 +62944,7 @@
     </row>
     <row r="240" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B240" t="s">
         <v>77</v>
@@ -62616,7 +63079,7 @@
         <v>77</v>
       </c>
       <c r="AT240" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU240" t="s">
         <v>77</v>
@@ -62699,7 +63162,7 @@
     </row>
     <row r="241" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B241" t="s">
         <v>77</v>
@@ -62834,7 +63297,7 @@
         <v>77</v>
       </c>
       <c r="AT241" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU241" t="s">
         <v>77</v>
@@ -62917,7 +63380,7 @@
     </row>
     <row r="242" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -63052,7 +63515,7 @@
         <v>77</v>
       </c>
       <c r="AT242" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU242" t="s">
         <v>77</v>
@@ -63135,7 +63598,7 @@
     </row>
     <row r="243" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B243" t="s">
         <v>77</v>
@@ -63270,7 +63733,7 @@
         <v>77</v>
       </c>
       <c r="AT243" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU243" t="s">
         <v>77</v>
@@ -63353,7 +63816,7 @@
     </row>
     <row r="244" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B244" t="s">
         <v>77</v>
@@ -63488,7 +63951,7 @@
         <v>77</v>
       </c>
       <c r="AT244" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU244" t="s">
         <v>77</v>
@@ -63571,7 +64034,7 @@
     </row>
     <row r="245" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B245" t="s">
         <v>77</v>
@@ -63706,7 +64169,7 @@
         <v>77</v>
       </c>
       <c r="AT245" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU245" t="s">
         <v>77</v>
@@ -63789,7 +64252,7 @@
     </row>
     <row r="246" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B246" t="s">
         <v>77</v>
@@ -63924,7 +64387,7 @@
         <v>77</v>
       </c>
       <c r="AT246" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU246" t="s">
         <v>77</v>
@@ -64007,7 +64470,7 @@
     </row>
     <row r="247" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B247" t="s">
         <v>77</v>
@@ -64142,7 +64605,7 @@
         <v>77</v>
       </c>
       <c r="AT247" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU247" t="s">
         <v>77</v>
@@ -64225,7 +64688,7 @@
     </row>
     <row r="248" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B248" t="s">
         <v>77</v>
@@ -64360,7 +64823,7 @@
         <v>77</v>
       </c>
       <c r="AT248" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU248" t="s">
         <v>77</v>
@@ -64443,7 +64906,7 @@
     </row>
     <row r="249" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B249" t="s">
         <v>73</v>
@@ -64578,7 +65041,7 @@
         <v>77</v>
       </c>
       <c r="AT249" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU249" t="s">
         <v>89</v>
@@ -64661,7 +65124,7 @@
     </row>
     <row r="250" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B250" t="s">
         <v>77</v>
@@ -64796,7 +65259,7 @@
         <v>77</v>
       </c>
       <c r="AT250" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU250" t="s">
         <v>77</v>
@@ -64879,7 +65342,7 @@
     </row>
     <row r="251" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B251" t="s">
         <v>77</v>
@@ -65014,7 +65477,7 @@
         <v>77</v>
       </c>
       <c r="AT251" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU251" t="s">
         <v>77</v>
@@ -65232,7 +65695,7 @@
         <v>77</v>
       </c>
       <c r="AT252" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU252" t="s">
         <v>77</v>
@@ -65315,7 +65778,7 @@
     </row>
     <row r="253" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B253" t="s">
         <v>77</v>
@@ -65450,7 +65913,7 @@
         <v>77</v>
       </c>
       <c r="AT253" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU253" t="s">
         <v>77</v>
@@ -65533,7 +65996,7 @@
     </row>
     <row r="254" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B254" t="s">
         <v>77</v>
@@ -65668,7 +66131,7 @@
         <v>77</v>
       </c>
       <c r="AT254" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU254" t="s">
         <v>77</v>
@@ -65751,7 +66214,7 @@
     </row>
     <row r="255" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B255" t="s">
         <v>77</v>
@@ -65886,7 +66349,7 @@
         <v>77</v>
       </c>
       <c r="AT255" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU255" t="s">
         <v>77</v>
@@ -65969,7 +66432,7 @@
     </row>
     <row r="256" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B256" t="s">
         <v>77</v>
@@ -66104,7 +66567,7 @@
         <v>77</v>
       </c>
       <c r="AT256" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU256" t="s">
         <v>77</v>
@@ -66187,7 +66650,7 @@
     </row>
     <row r="257" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B257" t="s">
         <v>77</v>
@@ -66322,7 +66785,7 @@
         <v>77</v>
       </c>
       <c r="AT257" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU257" t="s">
         <v>77</v>
@@ -66405,7 +66868,7 @@
     </row>
     <row r="258" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B258" t="s">
         <v>77</v>
@@ -66540,7 +67003,7 @@
         <v>77</v>
       </c>
       <c r="AT258" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU258" t="s">
         <v>77</v>
@@ -66623,7 +67086,7 @@
     </row>
     <row r="259" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B259" t="s">
         <v>77</v>
@@ -66758,7 +67221,7 @@
         <v>77</v>
       </c>
       <c r="AT259" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU259" t="s">
         <v>77</v>
@@ -66841,7 +67304,7 @@
     </row>
     <row r="260" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B260" t="s">
         <v>77</v>
@@ -66976,7 +67439,7 @@
         <v>77</v>
       </c>
       <c r="AT260" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU260" t="s">
         <v>77</v>
@@ -67059,7 +67522,7 @@
     </row>
     <row r="261" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B261" t="s">
         <v>73</v>
@@ -67194,7 +67657,7 @@
         <v>77</v>
       </c>
       <c r="AT261" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU261" t="s">
         <v>89</v>
@@ -67277,7 +67740,7 @@
     </row>
     <row r="262" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B262" t="s">
         <v>77</v>
@@ -67412,7 +67875,7 @@
         <v>77</v>
       </c>
       <c r="AT262" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU262" t="s">
         <v>77</v>
@@ -67495,7 +67958,7 @@
     </row>
     <row r="263" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B263" t="s">
         <v>77</v>
@@ -67630,7 +68093,7 @@
         <v>77</v>
       </c>
       <c r="AT263" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU263" t="s">
         <v>77</v>
@@ -67713,7 +68176,7 @@
     </row>
     <row r="264" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B264" t="s">
         <v>77</v>
@@ -67848,7 +68311,7 @@
         <v>77</v>
       </c>
       <c r="AT264" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU264" t="s">
         <v>77</v>
@@ -67931,7 +68394,7 @@
     </row>
     <row r="265" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B265" t="s">
         <v>77</v>
@@ -68066,7 +68529,7 @@
         <v>77</v>
       </c>
       <c r="AT265" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU265" t="s">
         <v>77</v>
@@ -68149,7 +68612,7 @@
     </row>
     <row r="266" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B266" t="s">
         <v>77</v>
@@ -68284,7 +68747,7 @@
         <v>77</v>
       </c>
       <c r="AT266" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU266" t="s">
         <v>77</v>
@@ -68367,7 +68830,7 @@
     </row>
     <row r="267" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B267" t="s">
         <v>77</v>
@@ -68502,7 +68965,7 @@
         <v>77</v>
       </c>
       <c r="AT267" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU267" t="s">
         <v>77</v>
@@ -68585,7 +69048,7 @@
     </row>
     <row r="268" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B268" t="s">
         <v>77</v>
@@ -68720,7 +69183,7 @@
         <v>77</v>
       </c>
       <c r="AT268" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU268" t="s">
         <v>77</v>
@@ -68803,7 +69266,7 @@
     </row>
     <row r="269" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B269" t="s">
         <v>77</v>
@@ -68938,7 +69401,7 @@
         <v>77</v>
       </c>
       <c r="AT269" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU269" t="s">
         <v>77</v>
@@ -69021,7 +69484,7 @@
     </row>
     <row r="270" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B270" t="s">
         <v>77</v>
@@ -69156,7 +69619,7 @@
         <v>77</v>
       </c>
       <c r="AT270" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU270" t="s">
         <v>77</v>
@@ -69239,7 +69702,7 @@
     </row>
     <row r="271" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B271" t="s">
         <v>77</v>
@@ -69374,7 +69837,7 @@
         <v>77</v>
       </c>
       <c r="AT271" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU271" t="s">
         <v>77</v>
@@ -69457,7 +69920,7 @@
     </row>
     <row r="272" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B272" t="s">
         <v>77</v>
@@ -69592,7 +70055,7 @@
         <v>77</v>
       </c>
       <c r="AT272" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU272" t="s">
         <v>77</v>
@@ -69675,7 +70138,7 @@
     </row>
     <row r="273" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B273" t="s">
         <v>77</v>
@@ -69810,7 +70273,7 @@
         <v>77</v>
       </c>
       <c r="AT273" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU273" t="s">
         <v>77</v>
@@ -69893,7 +70356,7 @@
     </row>
     <row r="274" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B274" t="s">
         <v>77</v>
@@ -70028,7 +70491,7 @@
         <v>77</v>
       </c>
       <c r="AT274" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU274" t="s">
         <v>77</v>
@@ -70111,7 +70574,7 @@
     </row>
     <row r="275" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B275" t="s">
         <v>77</v>
@@ -70246,7 +70709,7 @@
         <v>77</v>
       </c>
       <c r="AT275" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU275" t="s">
         <v>77</v>
@@ -70329,7 +70792,7 @@
     </row>
     <row r="276" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B276" t="s">
         <v>77</v>
@@ -70464,7 +70927,7 @@
         <v>77</v>
       </c>
       <c r="AT276" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU276" t="s">
         <v>77</v>
@@ -70547,7 +71010,7 @@
     </row>
     <row r="277" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B277" t="s">
         <v>77</v>
@@ -70682,7 +71145,7 @@
         <v>77</v>
       </c>
       <c r="AT277" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU277" t="s">
         <v>77</v>
@@ -70765,7 +71228,7 @@
     </row>
     <row r="278" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B278" t="s">
         <v>77</v>
@@ -70900,7 +71363,7 @@
         <v>77</v>
       </c>
       <c r="AT278" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU278" t="s">
         <v>77</v>
@@ -70983,7 +71446,7 @@
     </row>
     <row r="279" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B279" t="s">
         <v>77</v>
@@ -71118,7 +71581,7 @@
         <v>77</v>
       </c>
       <c r="AT279" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU279" t="s">
         <v>77</v>
@@ -71201,7 +71664,7 @@
     </row>
     <row r="280" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B280" t="s">
         <v>77</v>
@@ -71336,7 +71799,7 @@
         <v>77</v>
       </c>
       <c r="AT280" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU280" t="s">
         <v>77</v>
@@ -71419,7 +71882,7 @@
     </row>
     <row r="281" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B281" t="s">
         <v>77</v>
@@ -71554,7 +72017,7 @@
         <v>77</v>
       </c>
       <c r="AT281" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU281" t="s">
         <v>77</v>
@@ -71637,7 +72100,7 @@
     </row>
     <row r="282" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B282" t="s">
         <v>77</v>
@@ -71772,7 +72235,7 @@
         <v>77</v>
       </c>
       <c r="AT282" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU282" t="s">
         <v>77</v>
@@ -71855,7 +72318,7 @@
     </row>
     <row r="283" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B283" t="s">
         <v>77</v>
@@ -71990,7 +72453,7 @@
         <v>77</v>
       </c>
       <c r="AT283" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU283" t="s">
         <v>77</v>
@@ -72073,7 +72536,7 @@
     </row>
     <row r="284" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B284" t="s">
         <v>77</v>
@@ -72208,7 +72671,7 @@
         <v>77</v>
       </c>
       <c r="AT284" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU284" t="s">
         <v>77</v>
@@ -72291,7 +72754,7 @@
     </row>
     <row r="285" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B285" t="s">
         <v>77</v>
@@ -72426,7 +72889,7 @@
         <v>77</v>
       </c>
       <c r="AT285" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU285" t="s">
         <v>77</v>
@@ -72509,7 +72972,7 @@
     </row>
     <row r="286" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B286" t="s">
         <v>77</v>
@@ -72644,7 +73107,7 @@
         <v>77</v>
       </c>
       <c r="AT286" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU286" t="s">
         <v>77</v>
@@ -72727,7 +73190,7 @@
     </row>
     <row r="287" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B287" t="s">
         <v>77</v>
@@ -72862,7 +73325,7 @@
         <v>77</v>
       </c>
       <c r="AT287" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU287" t="s">
         <v>77</v>
@@ -72945,7 +73408,7 @@
     </row>
     <row r="288" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B288" t="s">
         <v>77</v>
@@ -73080,7 +73543,7 @@
         <v>77</v>
       </c>
       <c r="AT288" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU288" t="s">
         <v>77</v>
@@ -73163,7 +73626,7 @@
     </row>
     <row r="289" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B289" t="s">
         <v>77</v>
@@ -73298,7 +73761,7 @@
         <v>77</v>
       </c>
       <c r="AT289" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU289" t="s">
         <v>77</v>
@@ -73381,7 +73844,7 @@
     </row>
     <row r="290" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B290" t="s">
         <v>77</v>
@@ -73516,7 +73979,7 @@
         <v>77</v>
       </c>
       <c r="AT290" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU290" t="s">
         <v>77</v>
@@ -73599,7 +74062,7 @@
     </row>
     <row r="291" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B291" t="s">
         <v>77</v>
@@ -73734,7 +74197,7 @@
         <v>77</v>
       </c>
       <c r="AT291" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU291" t="s">
         <v>77</v>
@@ -73817,7 +74280,7 @@
     </row>
     <row r="292" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B292" t="s">
         <v>77</v>
@@ -73952,7 +74415,7 @@
         <v>77</v>
       </c>
       <c r="AT292" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU292" t="s">
         <v>77</v>
@@ -74035,7 +74498,7 @@
     </row>
     <row r="293" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B293" t="s">
         <v>77</v>
@@ -74170,7 +74633,7 @@
         <v>77</v>
       </c>
       <c r="AT293" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU293" t="s">
         <v>77</v>
@@ -74253,7 +74716,7 @@
     </row>
     <row r="294" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B294" t="s">
         <v>77</v>
@@ -74388,7 +74851,7 @@
         <v>77</v>
       </c>
       <c r="AT294" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU294" t="s">
         <v>77</v>
@@ -74471,7 +74934,7 @@
     </row>
     <row r="295" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B295" t="s">
         <v>77</v>
@@ -74606,7 +75069,7 @@
         <v>77</v>
       </c>
       <c r="AT295" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU295" t="s">
         <v>77</v>
@@ -74689,7 +75152,7 @@
     </row>
     <row r="296" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B296" t="s">
         <v>77</v>
@@ -74824,7 +75287,7 @@
         <v>77</v>
       </c>
       <c r="AT296" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU296" t="s">
         <v>77</v>
@@ -74907,7 +75370,7 @@
     </row>
     <row r="297" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B297" t="s">
         <v>77</v>
@@ -75042,7 +75505,7 @@
         <v>77</v>
       </c>
       <c r="AT297" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU297" t="s">
         <v>77</v>
@@ -75125,7 +75588,7 @@
     </row>
     <row r="298" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B298" t="s">
         <v>77</v>
@@ -75260,7 +75723,7 @@
         <v>77</v>
       </c>
       <c r="AT298" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU298" t="s">
         <v>77</v>
@@ -75343,7 +75806,7 @@
     </row>
     <row r="299" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B299" t="s">
         <v>77</v>
@@ -75478,7 +75941,7 @@
         <v>77</v>
       </c>
       <c r="AT299" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU299" t="s">
         <v>77</v>
@@ -75561,7 +76024,7 @@
     </row>
     <row r="300" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B300" t="s">
         <v>77</v>
@@ -75696,7 +76159,7 @@
         <v>77</v>
       </c>
       <c r="AT300" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU300" t="s">
         <v>77</v>
@@ -75779,7 +76242,7 @@
     </row>
     <row r="301" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B301" t="s">
         <v>77</v>
@@ -75914,7 +76377,7 @@
         <v>77</v>
       </c>
       <c r="AT301" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU301" t="s">
         <v>77</v>
@@ -75997,7 +76460,7 @@
     </row>
     <row r="302" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B302" t="s">
         <v>77</v>
@@ -76132,7 +76595,7 @@
         <v>77</v>
       </c>
       <c r="AT302" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU302" t="s">
         <v>77</v>
@@ -76215,7 +76678,7 @@
     </row>
     <row r="303" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B303" t="s">
         <v>77</v>
@@ -76350,7 +76813,7 @@
         <v>77</v>
       </c>
       <c r="AT303" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU303" t="s">
         <v>77</v>
@@ -76433,7 +76896,7 @@
     </row>
     <row r="304" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B304" t="s">
         <v>77</v>
@@ -76568,7 +77031,7 @@
         <v>77</v>
       </c>
       <c r="AT304" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU304" t="s">
         <v>77</v>
@@ -76651,7 +77114,7 @@
     </row>
     <row r="305" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B305" t="s">
         <v>77</v>
@@ -76786,7 +77249,7 @@
         <v>77</v>
       </c>
       <c r="AT305" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AU305" t="s">
         <v>77</v>
@@ -76864,6 +77327,224 @@
         <v>77</v>
       </c>
       <c r="BT305" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="306" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>519</v>
+      </c>
+      <c r="B306" t="s">
+        <v>77</v>
+      </c>
+      <c r="C306" t="s">
+        <v>77</v>
+      </c>
+      <c r="D306" t="s">
+        <v>77</v>
+      </c>
+      <c r="E306" t="s">
+        <v>77</v>
+      </c>
+      <c r="F306" t="s">
+        <v>77</v>
+      </c>
+      <c r="G306" t="s">
+        <v>77</v>
+      </c>
+      <c r="H306" t="s">
+        <v>77</v>
+      </c>
+      <c r="I306" t="s">
+        <v>77</v>
+      </c>
+      <c r="J306" t="s">
+        <v>77</v>
+      </c>
+      <c r="K306" t="s">
+        <v>77</v>
+      </c>
+      <c r="L306" t="s">
+        <v>77</v>
+      </c>
+      <c r="M306" t="s">
+        <v>77</v>
+      </c>
+      <c r="N306" t="s">
+        <v>80</v>
+      </c>
+      <c r="O306" t="s">
+        <v>77</v>
+      </c>
+      <c r="P306" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>77</v>
+      </c>
+      <c r="R306" t="s">
+        <v>77</v>
+      </c>
+      <c r="S306" t="s">
+        <v>77</v>
+      </c>
+      <c r="T306" t="s">
+        <v>77</v>
+      </c>
+      <c r="U306" t="s">
+        <v>77</v>
+      </c>
+      <c r="V306" t="s">
+        <v>77</v>
+      </c>
+      <c r="W306" t="s">
+        <v>77</v>
+      </c>
+      <c r="X306" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC306" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL306" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM306" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN306" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT306" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX306" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY306" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS306" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT306" t="s">
         <v>77</v>
       </c>
     </row>
